--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>615400</v>
+        <v>516700</v>
       </c>
       <c r="E8" s="3">
-        <v>536500</v>
+        <v>450400</v>
       </c>
       <c r="F8" s="3">
-        <v>565000</v>
+        <v>474400</v>
       </c>
       <c r="G8" s="3">
-        <v>562200</v>
+        <v>472000</v>
       </c>
       <c r="H8" s="3">
-        <v>363000</v>
+        <v>304700</v>
       </c>
       <c r="I8" s="3">
-        <v>312100</v>
+        <v>262100</v>
       </c>
       <c r="J8" s="3">
-        <v>246200</v>
+        <v>206700</v>
       </c>
       <c r="K8" s="3">
         <v>215400</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>259000</v>
+        <v>217500</v>
       </c>
       <c r="E9" s="3">
-        <v>221600</v>
+        <v>186000</v>
       </c>
       <c r="F9" s="3">
-        <v>252100</v>
+        <v>211700</v>
       </c>
       <c r="G9" s="3">
-        <v>296800</v>
+        <v>249200</v>
       </c>
       <c r="H9" s="3">
-        <v>165100</v>
+        <v>138600</v>
       </c>
       <c r="I9" s="3">
-        <v>133900</v>
+        <v>112500</v>
       </c>
       <c r="J9" s="3">
-        <v>96600</v>
+        <v>81100</v>
       </c>
       <c r="K9" s="3">
         <v>86000</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>356400</v>
+        <v>299200</v>
       </c>
       <c r="E10" s="3">
-        <v>314900</v>
+        <v>264400</v>
       </c>
       <c r="F10" s="3">
-        <v>312900</v>
+        <v>262700</v>
       </c>
       <c r="G10" s="3">
-        <v>265400</v>
+        <v>222800</v>
       </c>
       <c r="H10" s="3">
-        <v>197800</v>
+        <v>166100</v>
       </c>
       <c r="I10" s="3">
-        <v>178200</v>
+        <v>149600</v>
       </c>
       <c r="J10" s="3">
-        <v>149700</v>
+        <v>125700</v>
       </c>
       <c r="K10" s="3">
         <v>129400</v>
@@ -908,10 +908,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>259200</v>
+        <v>217600</v>
       </c>
       <c r="E17" s="3">
-        <v>218600</v>
+        <v>183600</v>
       </c>
       <c r="F17" s="3">
-        <v>248900</v>
+        <v>209000</v>
       </c>
       <c r="G17" s="3">
-        <v>291800</v>
+        <v>245000</v>
       </c>
       <c r="H17" s="3">
-        <v>158800</v>
+        <v>133300</v>
       </c>
       <c r="I17" s="3">
-        <v>131500</v>
+        <v>110400</v>
       </c>
       <c r="J17" s="3">
-        <v>97400</v>
+        <v>81800</v>
       </c>
       <c r="K17" s="3">
         <v>87700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>356200</v>
+        <v>299100</v>
       </c>
       <c r="E18" s="3">
-        <v>317900</v>
+        <v>266900</v>
       </c>
       <c r="F18" s="3">
-        <v>316100</v>
+        <v>265400</v>
       </c>
       <c r="G18" s="3">
-        <v>270400</v>
+        <v>227100</v>
       </c>
       <c r="H18" s="3">
-        <v>204200</v>
+        <v>171400</v>
       </c>
       <c r="I18" s="3">
-        <v>180600</v>
+        <v>151700</v>
       </c>
       <c r="J18" s="3">
-        <v>148900</v>
+        <v>125000</v>
       </c>
       <c r="K18" s="3">
         <v>127700</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>85600</v>
+        <v>71900</v>
       </c>
       <c r="E20" s="3">
-        <v>40800</v>
+        <v>34200</v>
       </c>
       <c r="F20" s="3">
-        <v>48900</v>
+        <v>41100</v>
       </c>
       <c r="G20" s="3">
-        <v>44500</v>
+        <v>37400</v>
       </c>
       <c r="H20" s="3">
-        <v>21500</v>
+        <v>18000</v>
       </c>
       <c r="I20" s="3">
-        <v>14300</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
-        <v>15200</v>
+        <v>12800</v>
       </c>
       <c r="K20" s="3">
         <v>-55500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>460900</v>
+        <v>390800</v>
       </c>
       <c r="E21" s="3">
-        <v>381400</v>
+        <v>320100</v>
       </c>
       <c r="F21" s="3">
-        <v>384900</v>
+        <v>323100</v>
       </c>
       <c r="G21" s="3">
-        <v>330000</v>
+        <v>277000</v>
       </c>
       <c r="H21" s="3">
-        <v>241100</v>
+        <v>202300</v>
       </c>
       <c r="I21" s="3">
-        <v>213500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>180000</v>
+        <v>179100</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34700</v>
+        <v>29200</v>
       </c>
       <c r="E22" s="3">
-        <v>34900</v>
+        <v>29300</v>
       </c>
       <c r="F22" s="3">
-        <v>63300</v>
+        <v>53100</v>
       </c>
       <c r="G22" s="3">
-        <v>39500</v>
+        <v>33200</v>
       </c>
       <c r="H22" s="3">
-        <v>86000</v>
+        <v>72200</v>
       </c>
       <c r="I22" s="3">
-        <v>60800</v>
+        <v>51000</v>
       </c>
       <c r="J22" s="3">
-        <v>65300</v>
+        <v>54800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>407100</v>
+        <v>341800</v>
       </c>
       <c r="E23" s="3">
-        <v>323700</v>
+        <v>271800</v>
       </c>
       <c r="F23" s="3">
-        <v>301800</v>
+        <v>253400</v>
       </c>
       <c r="G23" s="3">
-        <v>275400</v>
+        <v>231200</v>
       </c>
       <c r="H23" s="3">
-        <v>139700</v>
+        <v>117300</v>
       </c>
       <c r="I23" s="3">
-        <v>134200</v>
+        <v>112700</v>
       </c>
       <c r="J23" s="3">
-        <v>98800</v>
+        <v>82900</v>
       </c>
       <c r="K23" s="3">
         <v>72200</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>87300</v>
+        <v>73300</v>
       </c>
       <c r="E24" s="3">
-        <v>64600</v>
+        <v>54200</v>
       </c>
       <c r="F24" s="3">
-        <v>42200</v>
+        <v>35400</v>
       </c>
       <c r="G24" s="3">
-        <v>25700</v>
+        <v>21600</v>
       </c>
       <c r="H24" s="3">
-        <v>20700</v>
+        <v>17400</v>
       </c>
       <c r="I24" s="3">
-        <v>16700</v>
+        <v>14000</v>
       </c>
       <c r="J24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K24" s="3">
         <v>23700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>319800</v>
+        <v>268500</v>
       </c>
       <c r="E26" s="3">
-        <v>259100</v>
+        <v>217600</v>
       </c>
       <c r="F26" s="3">
-        <v>259600</v>
+        <v>217900</v>
       </c>
       <c r="G26" s="3">
-        <v>249700</v>
+        <v>209600</v>
       </c>
       <c r="H26" s="3">
-        <v>119000</v>
+        <v>99900</v>
       </c>
       <c r="I26" s="3">
-        <v>117500</v>
+        <v>98700</v>
       </c>
       <c r="J26" s="3">
-        <v>97800</v>
+        <v>82100</v>
       </c>
       <c r="K26" s="3">
         <v>48500</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>279800</v>
+        <v>234900</v>
       </c>
       <c r="E27" s="3">
-        <v>235100</v>
+        <v>197400</v>
       </c>
       <c r="F27" s="3">
-        <v>256500</v>
+        <v>215300</v>
       </c>
       <c r="G27" s="3">
-        <v>249600</v>
+        <v>209600</v>
       </c>
       <c r="H27" s="3">
-        <v>118900</v>
+        <v>99900</v>
       </c>
       <c r="I27" s="3">
-        <v>117500</v>
+        <v>98600</v>
       </c>
       <c r="J27" s="3">
-        <v>97800</v>
+        <v>82100</v>
       </c>
       <c r="K27" s="3">
         <v>48500</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-85600</v>
+        <v>-71900</v>
       </c>
       <c r="E32" s="3">
-        <v>-40800</v>
+        <v>-34200</v>
       </c>
       <c r="F32" s="3">
-        <v>-48900</v>
+        <v>-41100</v>
       </c>
       <c r="G32" s="3">
-        <v>-44500</v>
+        <v>-37400</v>
       </c>
       <c r="H32" s="3">
-        <v>-21500</v>
+        <v>-18000</v>
       </c>
       <c r="I32" s="3">
-        <v>-14300</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
-        <v>-15200</v>
+        <v>-12800</v>
       </c>
       <c r="K32" s="3">
         <v>55500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>279800</v>
+        <v>234900</v>
       </c>
       <c r="E33" s="3">
-        <v>234700</v>
+        <v>197000</v>
       </c>
       <c r="F33" s="3">
-        <v>256500</v>
+        <v>215300</v>
       </c>
       <c r="G33" s="3">
-        <v>248600</v>
+        <v>208700</v>
       </c>
       <c r="H33" s="3">
-        <v>118900</v>
+        <v>99800</v>
       </c>
       <c r="I33" s="3">
-        <v>117400</v>
+        <v>98600</v>
       </c>
       <c r="J33" s="3">
-        <v>97700</v>
+        <v>82000</v>
       </c>
       <c r="K33" s="3">
         <v>48400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>279800</v>
+        <v>234900</v>
       </c>
       <c r="E35" s="3">
-        <v>234700</v>
+        <v>197000</v>
       </c>
       <c r="F35" s="3">
-        <v>256500</v>
+        <v>215300</v>
       </c>
       <c r="G35" s="3">
-        <v>248600</v>
+        <v>208700</v>
       </c>
       <c r="H35" s="3">
-        <v>118900</v>
+        <v>99800</v>
       </c>
       <c r="I35" s="3">
-        <v>117400</v>
+        <v>98600</v>
       </c>
       <c r="J35" s="3">
-        <v>97700</v>
+        <v>82000</v>
       </c>
       <c r="K35" s="3">
         <v>48400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1357900</v>
+        <v>1142600</v>
       </c>
       <c r="E41" s="3">
-        <v>24500</v>
+        <v>20600</v>
       </c>
       <c r="F41" s="3">
-        <v>823800</v>
+        <v>693200</v>
       </c>
       <c r="G41" s="3">
-        <v>550700</v>
+        <v>463400</v>
       </c>
       <c r="H41" s="3">
-        <v>18600</v>
+        <v>15600</v>
       </c>
       <c r="I41" s="3">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="J41" s="3">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1596,25 +1596,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1330200</v>
+        <v>1119300</v>
       </c>
       <c r="E42" s="3">
-        <v>1112500</v>
+        <v>936100</v>
       </c>
       <c r="F42" s="3">
-        <v>748100</v>
+        <v>629500</v>
       </c>
       <c r="G42" s="3">
-        <v>474100</v>
+        <v>398900</v>
       </c>
       <c r="H42" s="3">
-        <v>484500</v>
+        <v>407700</v>
       </c>
       <c r="I42" s="3">
-        <v>318800</v>
+        <v>268300</v>
       </c>
       <c r="J42" s="3">
-        <v>188200</v>
+        <v>158300</v>
       </c>
       <c r="K42" s="3">
         <v>142400</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>102400</v>
+        <v>86100</v>
       </c>
       <c r="E43" s="3">
-        <v>132900</v>
+        <v>111900</v>
       </c>
       <c r="F43" s="3">
-        <v>239200</v>
+        <v>201300</v>
       </c>
       <c r="G43" s="3">
-        <v>165200</v>
+        <v>139000</v>
       </c>
       <c r="H43" s="3">
-        <v>43500</v>
+        <v>36600</v>
       </c>
       <c r="I43" s="3">
-        <v>49900</v>
+        <v>42000</v>
       </c>
       <c r="J43" s="3">
-        <v>92100</v>
+        <v>77500</v>
       </c>
       <c r="K43" s="3">
         <v>20300</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="F44" s="3">
-        <v>8500</v>
+        <v>7200</v>
       </c>
       <c r="G44" s="3">
-        <v>7600</v>
+        <v>6400</v>
       </c>
       <c r="H44" s="3">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="I44" s="3">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="J44" s="3">
-        <v>9200</v>
+        <v>7700</v>
       </c>
       <c r="K44" s="3">
         <v>4100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>16800</v>
       </c>
       <c r="E45" s="3">
-        <v>26800</v>
+        <v>22600</v>
       </c>
       <c r="F45" s="3">
-        <v>73700</v>
+        <v>62000</v>
       </c>
       <c r="G45" s="3">
-        <v>13800</v>
+        <v>11600</v>
       </c>
       <c r="H45" s="3">
-        <v>20800</v>
+        <v>17500</v>
       </c>
       <c r="I45" s="3">
-        <v>14500</v>
+        <v>12200</v>
       </c>
       <c r="J45" s="3">
-        <v>46900</v>
+        <v>39500</v>
       </c>
       <c r="K45" s="3">
         <v>7900</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1440600</v>
+        <v>1212200</v>
       </c>
       <c r="E46" s="3">
-        <v>1302300</v>
+        <v>1095800</v>
       </c>
       <c r="F46" s="3">
-        <v>949700</v>
+        <v>799100</v>
       </c>
       <c r="G46" s="3">
-        <v>617300</v>
+        <v>519500</v>
       </c>
       <c r="H46" s="3">
-        <v>540800</v>
+        <v>455100</v>
       </c>
       <c r="I46" s="3">
-        <v>200800</v>
+        <v>169000</v>
       </c>
       <c r="J46" s="3">
-        <v>156200</v>
+        <v>131400</v>
       </c>
       <c r="K46" s="3">
         <v>178600</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>202700</v>
+        <v>170500</v>
       </c>
       <c r="E47" s="3">
-        <v>226000</v>
+        <v>190200</v>
       </c>
       <c r="F47" s="3">
-        <v>207700</v>
+        <v>174800</v>
       </c>
       <c r="G47" s="3">
-        <v>189200</v>
+        <v>159200</v>
       </c>
       <c r="H47" s="3">
-        <v>125600</v>
+        <v>105700</v>
       </c>
       <c r="I47" s="3">
-        <v>91800</v>
+        <v>77300</v>
       </c>
       <c r="J47" s="3">
-        <v>120700</v>
+        <v>101500</v>
       </c>
       <c r="K47" s="3">
         <v>86200</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>106700</v>
+        <v>89800</v>
       </c>
       <c r="E48" s="3">
-        <v>56700</v>
+        <v>47700</v>
       </c>
       <c r="F48" s="3">
-        <v>113400</v>
+        <v>95500</v>
       </c>
       <c r="G48" s="3">
-        <v>92600</v>
+        <v>77900</v>
       </c>
       <c r="H48" s="3">
-        <v>44300</v>
+        <v>37300</v>
       </c>
       <c r="I48" s="3">
-        <v>67500</v>
+        <v>56800</v>
       </c>
       <c r="J48" s="3">
-        <v>83500</v>
+        <v>70300</v>
       </c>
       <c r="K48" s="3">
         <v>36700</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1142600</v>
+        <v>961400</v>
       </c>
       <c r="E49" s="3">
-        <v>1017700</v>
+        <v>856400</v>
       </c>
       <c r="F49" s="3">
-        <v>1782500</v>
+        <v>1499800</v>
       </c>
       <c r="G49" s="3">
-        <v>1606600</v>
+        <v>1351900</v>
       </c>
       <c r="H49" s="3">
-        <v>1362300</v>
+        <v>1146300</v>
       </c>
       <c r="I49" s="3">
-        <v>1823000</v>
+        <v>1534000</v>
       </c>
       <c r="J49" s="3">
-        <v>1102000</v>
+        <v>927300</v>
       </c>
       <c r="K49" s="3">
         <v>385500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>209800</v>
+        <v>176600</v>
       </c>
       <c r="E52" s="3">
-        <v>74100</v>
+        <v>62300</v>
       </c>
       <c r="F52" s="3">
-        <v>92500</v>
+        <v>77800</v>
       </c>
       <c r="G52" s="3">
-        <v>88800</v>
+        <v>74700</v>
       </c>
       <c r="H52" s="3">
-        <v>130700</v>
+        <v>110000</v>
       </c>
       <c r="I52" s="3">
-        <v>134400</v>
+        <v>113100</v>
       </c>
       <c r="J52" s="3">
-        <v>136400</v>
+        <v>114800</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2939800</v>
+        <v>2473700</v>
       </c>
       <c r="E54" s="3">
-        <v>2676800</v>
+        <v>2252400</v>
       </c>
       <c r="F54" s="3">
-        <v>2191200</v>
+        <v>1843800</v>
       </c>
       <c r="G54" s="3">
-        <v>1721900</v>
+        <v>1448900</v>
       </c>
       <c r="H54" s="3">
-        <v>1461800</v>
+        <v>1230100</v>
       </c>
       <c r="I54" s="3">
-        <v>1003500</v>
+        <v>844400</v>
       </c>
       <c r="J54" s="3">
-        <v>889800</v>
+        <v>748800</v>
       </c>
       <c r="K54" s="3">
         <v>728600</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12600</v>
+        <v>10600</v>
       </c>
       <c r="E57" s="3">
-        <v>12700</v>
+        <v>10700</v>
       </c>
       <c r="F57" s="3">
-        <v>14000</v>
+        <v>11700</v>
       </c>
       <c r="G57" s="3">
-        <v>7400</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="I57" s="3">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="K57" s="3">
         <v>3200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32300</v>
+        <v>27200</v>
       </c>
       <c r="E58" s="3">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="F58" s="3">
-        <v>62900</v>
+        <v>52900</v>
       </c>
       <c r="G58" s="3">
-        <v>60100</v>
+        <v>50600</v>
       </c>
       <c r="H58" s="3">
-        <v>28500</v>
+        <v>24000</v>
       </c>
       <c r="I58" s="3">
-        <v>39900</v>
+        <v>33600</v>
       </c>
       <c r="J58" s="3">
-        <v>50000</v>
+        <v>42100</v>
       </c>
       <c r="K58" s="3">
         <v>15600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>359900</v>
+        <v>302900</v>
       </c>
       <c r="E59" s="3">
-        <v>111500</v>
+        <v>93800</v>
       </c>
       <c r="F59" s="3">
-        <v>114900</v>
+        <v>96700</v>
       </c>
       <c r="G59" s="3">
-        <v>180900</v>
+        <v>152200</v>
       </c>
       <c r="H59" s="3">
-        <v>69100</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>45600</v>
+        <v>38400</v>
       </c>
       <c r="J59" s="3">
-        <v>65900</v>
+        <v>55500</v>
       </c>
       <c r="K59" s="3">
         <v>28100</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>269700</v>
+        <v>226900</v>
       </c>
       <c r="E60" s="3">
-        <v>162200</v>
+        <v>136500</v>
       </c>
       <c r="F60" s="3">
-        <v>148900</v>
+        <v>125300</v>
       </c>
       <c r="G60" s="3">
-        <v>177600</v>
+        <v>149400</v>
       </c>
       <c r="H60" s="3">
-        <v>85100</v>
+        <v>71600</v>
       </c>
       <c r="I60" s="3">
-        <v>75300</v>
+        <v>63400</v>
       </c>
       <c r="J60" s="3">
-        <v>78600</v>
+        <v>66100</v>
       </c>
       <c r="K60" s="3">
         <v>46900</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>293200</v>
+        <v>246700</v>
       </c>
       <c r="E61" s="3">
-        <v>230700</v>
+        <v>194100</v>
       </c>
       <c r="F61" s="3">
-        <v>245800</v>
+        <v>206900</v>
       </c>
       <c r="G61" s="3">
-        <v>290200</v>
+        <v>244200</v>
       </c>
       <c r="H61" s="3">
-        <v>354300</v>
+        <v>298200</v>
       </c>
       <c r="I61" s="3">
-        <v>448800</v>
+        <v>377700</v>
       </c>
       <c r="J61" s="3">
-        <v>453600</v>
+        <v>381700</v>
       </c>
       <c r="K61" s="3">
         <v>497000</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18500</v>
+        <v>15600</v>
       </c>
       <c r="E62" s="3">
-        <v>10900</v>
+        <v>9200</v>
       </c>
       <c r="F62" s="3">
-        <v>25800</v>
+        <v>21700</v>
       </c>
       <c r="G62" s="3">
-        <v>29300</v>
+        <v>24700</v>
       </c>
       <c r="H62" s="3">
-        <v>23900</v>
+        <v>20100</v>
       </c>
       <c r="I62" s="3">
-        <v>10700</v>
+        <v>9000</v>
       </c>
       <c r="J62" s="3">
-        <v>6200</v>
+        <v>5300</v>
       </c>
       <c r="K62" s="3">
         <v>5600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>799400</v>
+        <v>672600</v>
       </c>
       <c r="E66" s="3">
-        <v>610200</v>
+        <v>513500</v>
       </c>
       <c r="F66" s="3">
-        <v>531000</v>
+        <v>446800</v>
       </c>
       <c r="G66" s="3">
-        <v>497400</v>
+        <v>418500</v>
       </c>
       <c r="H66" s="3">
-        <v>454000</v>
+        <v>382000</v>
       </c>
       <c r="I66" s="3">
-        <v>535100</v>
+        <v>450200</v>
       </c>
       <c r="J66" s="3">
-        <v>538700</v>
+        <v>453300</v>
       </c>
       <c r="K66" s="3">
         <v>549700</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1864100</v>
+        <v>1568600</v>
       </c>
       <c r="E72" s="3">
-        <v>1324700</v>
+        <v>1114600</v>
       </c>
       <c r="F72" s="3">
-        <v>1741400</v>
+        <v>1465300</v>
       </c>
       <c r="G72" s="3">
-        <v>1090000</v>
+        <v>917200</v>
       </c>
       <c r="H72" s="3">
-        <v>635700</v>
+        <v>534900</v>
       </c>
       <c r="I72" s="3">
-        <v>451500</v>
+        <v>379900</v>
       </c>
       <c r="J72" s="3">
-        <v>332000</v>
+        <v>279400</v>
       </c>
       <c r="K72" s="3">
         <v>50100</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2140400</v>
+        <v>1801000</v>
       </c>
       <c r="E76" s="3">
-        <v>2066600</v>
+        <v>1738900</v>
       </c>
       <c r="F76" s="3">
-        <v>1660300</v>
+        <v>1397000</v>
       </c>
       <c r="G76" s="3">
-        <v>1224500</v>
+        <v>1030400</v>
       </c>
       <c r="H76" s="3">
-        <v>1007800</v>
+        <v>848000</v>
       </c>
       <c r="I76" s="3">
-        <v>468400</v>
+        <v>394100</v>
       </c>
       <c r="J76" s="3">
-        <v>351200</v>
+        <v>295500</v>
       </c>
       <c r="K76" s="3">
         <v>178900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>279800</v>
+        <v>234900</v>
       </c>
       <c r="E81" s="3">
-        <v>234700</v>
+        <v>197000</v>
       </c>
       <c r="F81" s="3">
-        <v>256500</v>
+        <v>215300</v>
       </c>
       <c r="G81" s="3">
-        <v>248600</v>
+        <v>208700</v>
       </c>
       <c r="H81" s="3">
-        <v>118900</v>
+        <v>99800</v>
       </c>
       <c r="I81" s="3">
-        <v>117400</v>
+        <v>98600</v>
       </c>
       <c r="J81" s="3">
-        <v>97700</v>
+        <v>82000</v>
       </c>
       <c r="K81" s="3">
         <v>48400</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E83" s="3">
         <v>19100</v>
       </c>
-      <c r="E83" s="3">
-        <v>22700</v>
-      </c>
       <c r="F83" s="3">
-        <v>19800</v>
+        <v>16600</v>
       </c>
       <c r="G83" s="3">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="H83" s="3">
-        <v>15400</v>
+        <v>12900</v>
       </c>
       <c r="I83" s="3">
-        <v>18500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>15800</v>
+        <v>15500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>401700</v>
+        <v>153000</v>
       </c>
       <c r="E89" s="3">
-        <v>250200</v>
+        <v>210100</v>
       </c>
       <c r="F89" s="3">
-        <v>327900</v>
+        <v>275300</v>
       </c>
       <c r="G89" s="3">
-        <v>307500</v>
+        <v>258200</v>
       </c>
       <c r="H89" s="3">
-        <v>255300</v>
+        <v>214300</v>
       </c>
       <c r="I89" s="3">
-        <v>192700</v>
+        <v>161800</v>
       </c>
       <c r="J89" s="3">
-        <v>109700</v>
+        <v>92100</v>
       </c>
       <c r="K89" s="3">
         <v>123900</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-4500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3400</v>
+        <v>-2800</v>
       </c>
       <c r="F91" s="3">
-        <v>-29400</v>
+        <v>-24700</v>
       </c>
       <c r="G91" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="H91" s="3">
-        <v>-10100</v>
+        <v>-8500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3800</v>
+        <v>-3200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2800</v>
+        <v>-2300</v>
       </c>
       <c r="K91" s="3">
         <v>-1200</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-294600</v>
+        <v>-215700</v>
       </c>
       <c r="E94" s="3">
-        <v>-464300</v>
+        <v>-389800</v>
       </c>
       <c r="F94" s="3">
-        <v>-438700</v>
+        <v>-368400</v>
       </c>
       <c r="G94" s="3">
-        <v>-193600</v>
+        <v>-162600</v>
       </c>
       <c r="H94" s="3">
-        <v>-479500</v>
+        <v>-402600</v>
       </c>
       <c r="I94" s="3">
-        <v>-115800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-88300</v>
+        <v>-97200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3065,13 +3065,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107200</v>
+        <v>-90000</v>
       </c>
       <c r="E96" s="3">
-        <v>-42900</v>
+        <v>-36000</v>
       </c>
       <c r="F96" s="3">
-        <v>-21400</v>
+        <v>-18000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-125500</v>
+        <v>52200</v>
       </c>
       <c r="E100" s="3">
-        <v>203200</v>
+        <v>170600</v>
       </c>
       <c r="F100" s="3">
-        <v>133300</v>
+        <v>111900</v>
       </c>
       <c r="G100" s="3">
-        <v>-95800</v>
+        <v>-80400</v>
       </c>
       <c r="H100" s="3">
-        <v>235400</v>
+        <v>197600</v>
       </c>
       <c r="I100" s="3">
-        <v>-74600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-21900</v>
+        <v>-62600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5900</v>
+        <v>182800</v>
       </c>
       <c r="E101" s="3">
-        <v>363800</v>
+        <v>305400</v>
       </c>
       <c r="F101" s="3">
-        <v>-14600</v>
+        <v>-12300</v>
       </c>
       <c r="G101" s="3">
-        <v>-8600</v>
+        <v>-7200</v>
       </c>
       <c r="H101" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>-1000</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12500</v>
+        <v>172300</v>
       </c>
       <c r="E102" s="3">
-        <v>352900</v>
+        <v>296300</v>
       </c>
       <c r="F102" s="3">
-        <v>7800</v>
+        <v>6600</v>
       </c>
       <c r="G102" s="3">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="H102" s="3">
-        <v>12700</v>
+        <v>10600</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K102" s="3">
         <v>1700</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>516700</v>
+        <v>541400</v>
       </c>
       <c r="E8" s="3">
-        <v>450400</v>
+        <v>523500</v>
       </c>
       <c r="F8" s="3">
-        <v>474400</v>
+        <v>456300</v>
       </c>
       <c r="G8" s="3">
-        <v>472000</v>
+        <v>480600</v>
       </c>
       <c r="H8" s="3">
-        <v>304700</v>
+        <v>478200</v>
       </c>
       <c r="I8" s="3">
-        <v>262100</v>
+        <v>308700</v>
       </c>
       <c r="J8" s="3">
+        <v>265500</v>
+      </c>
+      <c r="K8" s="3">
         <v>206700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>217500</v>
+        <v>246100</v>
       </c>
       <c r="E9" s="3">
-        <v>186000</v>
+        <v>220300</v>
       </c>
       <c r="F9" s="3">
-        <v>211700</v>
+        <v>188500</v>
       </c>
       <c r="G9" s="3">
-        <v>249200</v>
+        <v>214500</v>
       </c>
       <c r="H9" s="3">
-        <v>138600</v>
+        <v>252500</v>
       </c>
       <c r="I9" s="3">
-        <v>112500</v>
+        <v>140400</v>
       </c>
       <c r="J9" s="3">
+        <v>113900</v>
+      </c>
+      <c r="K9" s="3">
         <v>81100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>86000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>299200</v>
+        <v>295300</v>
       </c>
       <c r="E10" s="3">
-        <v>264400</v>
+        <v>303100</v>
       </c>
       <c r="F10" s="3">
-        <v>262700</v>
+        <v>267900</v>
       </c>
       <c r="G10" s="3">
-        <v>222800</v>
+        <v>266100</v>
       </c>
       <c r="H10" s="3">
-        <v>166100</v>
+        <v>225700</v>
       </c>
       <c r="I10" s="3">
-        <v>149600</v>
+        <v>168300</v>
       </c>
       <c r="J10" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K10" s="3">
         <v>125700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>129400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,26 +920,29 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -931,9 +953,12 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>217600</v>
+        <v>248100</v>
       </c>
       <c r="E17" s="3">
-        <v>183600</v>
+        <v>220500</v>
       </c>
       <c r="F17" s="3">
-        <v>209000</v>
+        <v>186000</v>
       </c>
       <c r="G17" s="3">
-        <v>245000</v>
+        <v>211700</v>
       </c>
       <c r="H17" s="3">
-        <v>133300</v>
+        <v>248200</v>
       </c>
       <c r="I17" s="3">
-        <v>110400</v>
+        <v>135100</v>
       </c>
       <c r="J17" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K17" s="3">
         <v>81800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>299100</v>
+        <v>293300</v>
       </c>
       <c r="E18" s="3">
-        <v>266900</v>
+        <v>303000</v>
       </c>
       <c r="F18" s="3">
-        <v>265400</v>
+        <v>270400</v>
       </c>
       <c r="G18" s="3">
-        <v>227100</v>
+        <v>268900</v>
       </c>
       <c r="H18" s="3">
-        <v>171400</v>
+        <v>230000</v>
       </c>
       <c r="I18" s="3">
-        <v>151700</v>
+        <v>173700</v>
       </c>
       <c r="J18" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K18" s="3">
         <v>125000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>127700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71900</v>
+        <v>75400</v>
       </c>
       <c r="E20" s="3">
-        <v>34200</v>
+        <v>72800</v>
       </c>
       <c r="F20" s="3">
-        <v>41100</v>
+        <v>34700</v>
       </c>
       <c r="G20" s="3">
-        <v>37400</v>
+        <v>41600</v>
       </c>
       <c r="H20" s="3">
-        <v>18000</v>
+        <v>37800</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>18300</v>
       </c>
       <c r="J20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K20" s="3">
         <v>12800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>390800</v>
+        <v>395800</v>
       </c>
       <c r="E21" s="3">
-        <v>320100</v>
+        <v>392100</v>
       </c>
       <c r="F21" s="3">
-        <v>323100</v>
+        <v>324400</v>
       </c>
       <c r="G21" s="3">
-        <v>277000</v>
+        <v>327400</v>
       </c>
       <c r="H21" s="3">
-        <v>202300</v>
+        <v>280700</v>
       </c>
       <c r="I21" s="3">
-        <v>179100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>205000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>181600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29200</v>
+        <v>41900</v>
       </c>
       <c r="E22" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="F22" s="3">
-        <v>53100</v>
+        <v>29700</v>
       </c>
       <c r="G22" s="3">
-        <v>33200</v>
+        <v>53800</v>
       </c>
       <c r="H22" s="3">
-        <v>72200</v>
+        <v>33600</v>
       </c>
       <c r="I22" s="3">
-        <v>51000</v>
+        <v>73100</v>
       </c>
       <c r="J22" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K22" s="3">
         <v>54800</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>341800</v>
+        <v>326800</v>
       </c>
       <c r="E23" s="3">
-        <v>271800</v>
+        <v>346200</v>
       </c>
       <c r="F23" s="3">
-        <v>253400</v>
+        <v>275300</v>
       </c>
       <c r="G23" s="3">
-        <v>231200</v>
+        <v>256700</v>
       </c>
       <c r="H23" s="3">
-        <v>117300</v>
+        <v>234200</v>
       </c>
       <c r="I23" s="3">
-        <v>112700</v>
+        <v>118800</v>
       </c>
       <c r="J23" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K23" s="3">
         <v>82900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>73300</v>
+        <v>81800</v>
       </c>
       <c r="E24" s="3">
-        <v>54200</v>
+        <v>74200</v>
       </c>
       <c r="F24" s="3">
-        <v>35400</v>
+        <v>54900</v>
       </c>
       <c r="G24" s="3">
-        <v>21600</v>
+        <v>35900</v>
       </c>
       <c r="H24" s="3">
-        <v>17400</v>
+        <v>21900</v>
       </c>
       <c r="I24" s="3">
-        <v>14000</v>
+        <v>17600</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>268500</v>
+        <v>245000</v>
       </c>
       <c r="E26" s="3">
-        <v>217600</v>
+        <v>272000</v>
       </c>
       <c r="F26" s="3">
-        <v>217900</v>
+        <v>220400</v>
       </c>
       <c r="G26" s="3">
-        <v>209600</v>
+        <v>220800</v>
       </c>
       <c r="H26" s="3">
-        <v>99900</v>
+        <v>212400</v>
       </c>
       <c r="I26" s="3">
-        <v>98700</v>
+        <v>101200</v>
       </c>
       <c r="J26" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K26" s="3">
         <v>82100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>234900</v>
+        <v>208000</v>
       </c>
       <c r="E27" s="3">
-        <v>197400</v>
+        <v>238000</v>
       </c>
       <c r="F27" s="3">
-        <v>215300</v>
+        <v>200000</v>
       </c>
       <c r="G27" s="3">
-        <v>209600</v>
+        <v>218200</v>
       </c>
       <c r="H27" s="3">
+        <v>212300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J27" s="3">
         <v>99900</v>
       </c>
-      <c r="I27" s="3">
-        <v>98600</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>82100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-400</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I29" s="3">
         <v>-100</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71900</v>
+        <v>-75400</v>
       </c>
       <c r="E32" s="3">
-        <v>-34200</v>
+        <v>-72800</v>
       </c>
       <c r="F32" s="3">
-        <v>-41100</v>
+        <v>-34700</v>
       </c>
       <c r="G32" s="3">
-        <v>-37400</v>
+        <v>-41600</v>
       </c>
       <c r="H32" s="3">
-        <v>-18000</v>
+        <v>-37800</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-18300</v>
       </c>
       <c r="J32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>234900</v>
+        <v>208000</v>
       </c>
       <c r="E33" s="3">
-        <v>197000</v>
+        <v>238000</v>
       </c>
       <c r="F33" s="3">
-        <v>215300</v>
+        <v>199600</v>
       </c>
       <c r="G33" s="3">
-        <v>208700</v>
+        <v>218200</v>
       </c>
       <c r="H33" s="3">
-        <v>99800</v>
+        <v>211500</v>
       </c>
       <c r="I33" s="3">
-        <v>98600</v>
+        <v>101100</v>
       </c>
       <c r="J33" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K33" s="3">
         <v>82000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>234900</v>
+        <v>208000</v>
       </c>
       <c r="E35" s="3">
-        <v>197000</v>
+        <v>238000</v>
       </c>
       <c r="F35" s="3">
-        <v>215300</v>
+        <v>199600</v>
       </c>
       <c r="G35" s="3">
-        <v>208700</v>
+        <v>218200</v>
       </c>
       <c r="H35" s="3">
-        <v>99800</v>
+        <v>211500</v>
       </c>
       <c r="I35" s="3">
-        <v>98600</v>
+        <v>101100</v>
       </c>
       <c r="J35" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K35" s="3">
         <v>82000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1142600</v>
+        <v>22100</v>
       </c>
       <c r="E41" s="3">
-        <v>20600</v>
+        <v>10200</v>
       </c>
       <c r="F41" s="3">
-        <v>693200</v>
+        <v>20800</v>
       </c>
       <c r="G41" s="3">
-        <v>463400</v>
+        <v>700700</v>
       </c>
       <c r="H41" s="3">
-        <v>15600</v>
+        <v>468400</v>
       </c>
       <c r="I41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1119300</v>
+        <v>1289500</v>
       </c>
       <c r="E42" s="3">
-        <v>936100</v>
+        <v>1131400</v>
       </c>
       <c r="F42" s="3">
-        <v>629500</v>
+        <v>946300</v>
       </c>
       <c r="G42" s="3">
-        <v>398900</v>
+        <v>636400</v>
       </c>
       <c r="H42" s="3">
-        <v>407700</v>
+        <v>403200</v>
       </c>
       <c r="I42" s="3">
-        <v>268300</v>
+        <v>412100</v>
       </c>
       <c r="J42" s="3">
+        <v>271200</v>
+      </c>
+      <c r="K42" s="3">
         <v>158300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>142400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86100</v>
+        <v>85500</v>
       </c>
       <c r="E43" s="3">
-        <v>111900</v>
+        <v>68900</v>
       </c>
       <c r="F43" s="3">
-        <v>201300</v>
+        <v>113100</v>
       </c>
       <c r="G43" s="3">
-        <v>139000</v>
+        <v>203500</v>
       </c>
       <c r="H43" s="3">
-        <v>36600</v>
+        <v>140500</v>
       </c>
       <c r="I43" s="3">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="J43" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K43" s="3">
         <v>77500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16800</v>
+        <v>18300</v>
       </c>
       <c r="E45" s="3">
-        <v>22600</v>
+        <v>6300</v>
       </c>
       <c r="F45" s="3">
-        <v>62000</v>
+        <v>22800</v>
       </c>
       <c r="G45" s="3">
-        <v>11600</v>
+        <v>62700</v>
       </c>
       <c r="H45" s="3">
-        <v>17500</v>
+        <v>11800</v>
       </c>
       <c r="I45" s="3">
-        <v>12200</v>
+        <v>17700</v>
       </c>
       <c r="J45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K45" s="3">
         <v>39500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1212200</v>
+        <v>1420500</v>
       </c>
       <c r="E46" s="3">
-        <v>1095800</v>
+        <v>1221300</v>
       </c>
       <c r="F46" s="3">
-        <v>799100</v>
+        <v>1107700</v>
       </c>
       <c r="G46" s="3">
-        <v>519500</v>
+        <v>807800</v>
       </c>
       <c r="H46" s="3">
-        <v>455100</v>
+        <v>525100</v>
       </c>
       <c r="I46" s="3">
-        <v>169000</v>
+        <v>460000</v>
       </c>
       <c r="J46" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K46" s="3">
         <v>131400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>178600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>170500</v>
+        <v>124800</v>
       </c>
       <c r="E47" s="3">
-        <v>190200</v>
+        <v>172400</v>
       </c>
       <c r="F47" s="3">
-        <v>174800</v>
+        <v>192200</v>
       </c>
       <c r="G47" s="3">
-        <v>159200</v>
+        <v>176700</v>
       </c>
       <c r="H47" s="3">
-        <v>105700</v>
+        <v>160900</v>
       </c>
       <c r="I47" s="3">
-        <v>77300</v>
+        <v>106800</v>
       </c>
       <c r="J47" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K47" s="3">
         <v>101500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>89800</v>
+        <v>52700</v>
       </c>
       <c r="E48" s="3">
-        <v>47700</v>
+        <v>47800</v>
       </c>
       <c r="F48" s="3">
-        <v>95500</v>
+        <v>48200</v>
       </c>
       <c r="G48" s="3">
-        <v>77900</v>
+        <v>96500</v>
       </c>
       <c r="H48" s="3">
-        <v>37300</v>
+        <v>78700</v>
       </c>
       <c r="I48" s="3">
-        <v>56800</v>
+        <v>37700</v>
       </c>
       <c r="J48" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K48" s="3">
         <v>70300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>961400</v>
+        <v>1629100</v>
       </c>
       <c r="E49" s="3">
-        <v>856400</v>
+        <v>971800</v>
       </c>
       <c r="F49" s="3">
-        <v>1499800</v>
+        <v>865700</v>
       </c>
       <c r="G49" s="3">
-        <v>1351900</v>
+        <v>1516100</v>
       </c>
       <c r="H49" s="3">
-        <v>1146300</v>
+        <v>1366600</v>
       </c>
       <c r="I49" s="3">
-        <v>1534000</v>
+        <v>1158800</v>
       </c>
       <c r="J49" s="3">
+        <v>1550700</v>
+      </c>
+      <c r="K49" s="3">
         <v>927300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>385500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>176600</v>
+        <v>103500</v>
       </c>
       <c r="E52" s="3">
-        <v>62300</v>
+        <v>87200</v>
       </c>
       <c r="F52" s="3">
-        <v>77800</v>
+        <v>63000</v>
       </c>
       <c r="G52" s="3">
-        <v>74700</v>
+        <v>78700</v>
       </c>
       <c r="H52" s="3">
-        <v>110000</v>
+        <v>75500</v>
       </c>
       <c r="I52" s="3">
-        <v>113100</v>
+        <v>111100</v>
       </c>
       <c r="J52" s="3">
+        <v>114400</v>
+      </c>
+      <c r="K52" s="3">
         <v>114800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2473700</v>
+        <v>3330600</v>
       </c>
       <c r="E54" s="3">
-        <v>2252400</v>
+        <v>2500500</v>
       </c>
       <c r="F54" s="3">
-        <v>1843800</v>
+        <v>2276900</v>
       </c>
       <c r="G54" s="3">
-        <v>1448900</v>
+        <v>1863800</v>
       </c>
       <c r="H54" s="3">
-        <v>1230100</v>
+        <v>1464600</v>
       </c>
       <c r="I54" s="3">
-        <v>844400</v>
+        <v>1243400</v>
       </c>
       <c r="J54" s="3">
+        <v>853600</v>
+      </c>
+      <c r="K54" s="3">
         <v>748800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>728600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10600</v>
+        <v>18900</v>
       </c>
       <c r="E57" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F57" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>11900</v>
       </c>
       <c r="H57" s="3">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="I57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27200</v>
+        <v>10300</v>
       </c>
       <c r="E58" s="3">
-        <v>32000</v>
+        <v>14600</v>
       </c>
       <c r="F58" s="3">
-        <v>52900</v>
+        <v>32300</v>
       </c>
       <c r="G58" s="3">
-        <v>50600</v>
+        <v>53500</v>
       </c>
       <c r="H58" s="3">
-        <v>24000</v>
+        <v>51100</v>
       </c>
       <c r="I58" s="3">
-        <v>33600</v>
+        <v>24300</v>
       </c>
       <c r="J58" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K58" s="3">
         <v>42100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>302900</v>
+        <v>230800</v>
       </c>
       <c r="E59" s="3">
-        <v>93800</v>
+        <v>204100</v>
       </c>
       <c r="F59" s="3">
-        <v>96700</v>
+        <v>94800</v>
       </c>
       <c r="G59" s="3">
-        <v>152200</v>
+        <v>97700</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>153900</v>
       </c>
       <c r="I59" s="3">
-        <v>38400</v>
+        <v>58800</v>
       </c>
       <c r="J59" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K59" s="3">
         <v>55500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>226900</v>
+        <v>259900</v>
       </c>
       <c r="E60" s="3">
-        <v>136500</v>
+        <v>229400</v>
       </c>
       <c r="F60" s="3">
-        <v>125300</v>
+        <v>138000</v>
       </c>
       <c r="G60" s="3">
-        <v>149400</v>
+        <v>126700</v>
       </c>
       <c r="H60" s="3">
-        <v>71600</v>
+        <v>151100</v>
       </c>
       <c r="I60" s="3">
-        <v>63400</v>
+        <v>72400</v>
       </c>
       <c r="J60" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K60" s="3">
         <v>66100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>246700</v>
+        <v>729600</v>
       </c>
       <c r="E61" s="3">
-        <v>194100</v>
+        <v>249400</v>
       </c>
       <c r="F61" s="3">
-        <v>206900</v>
+        <v>196200</v>
       </c>
       <c r="G61" s="3">
-        <v>244200</v>
+        <v>209100</v>
       </c>
       <c r="H61" s="3">
-        <v>298200</v>
+        <v>246800</v>
       </c>
       <c r="I61" s="3">
-        <v>377700</v>
+        <v>301400</v>
       </c>
       <c r="J61" s="3">
+        <v>381800</v>
+      </c>
+      <c r="K61" s="3">
         <v>381700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>497000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15600</v>
+        <v>67200</v>
       </c>
       <c r="E62" s="3">
-        <v>9200</v>
+        <v>15200</v>
       </c>
       <c r="F62" s="3">
-        <v>21700</v>
+        <v>9300</v>
       </c>
       <c r="G62" s="3">
-        <v>24700</v>
+        <v>22000</v>
       </c>
       <c r="H62" s="3">
-        <v>20100</v>
+        <v>24900</v>
       </c>
       <c r="I62" s="3">
-        <v>9000</v>
+        <v>20300</v>
       </c>
       <c r="J62" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>672600</v>
+        <v>1354200</v>
       </c>
       <c r="E66" s="3">
-        <v>513500</v>
+        <v>680000</v>
       </c>
       <c r="F66" s="3">
-        <v>446800</v>
+        <v>519100</v>
       </c>
       <c r="G66" s="3">
-        <v>418500</v>
+        <v>451600</v>
       </c>
       <c r="H66" s="3">
-        <v>382000</v>
+        <v>423000</v>
       </c>
       <c r="I66" s="3">
-        <v>450200</v>
+        <v>386200</v>
       </c>
       <c r="J66" s="3">
+        <v>455100</v>
+      </c>
+      <c r="K66" s="3">
         <v>453300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>549700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1568600</v>
+        <v>869100</v>
       </c>
       <c r="E72" s="3">
-        <v>1114600</v>
+        <v>973600</v>
       </c>
       <c r="F72" s="3">
-        <v>1465300</v>
+        <v>1126700</v>
       </c>
       <c r="G72" s="3">
-        <v>917200</v>
+        <v>1481200</v>
       </c>
       <c r="H72" s="3">
-        <v>534900</v>
+        <v>927200</v>
       </c>
       <c r="I72" s="3">
-        <v>379900</v>
+        <v>540700</v>
       </c>
       <c r="J72" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K72" s="3">
         <v>279400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1801000</v>
+        <v>1976300</v>
       </c>
       <c r="E76" s="3">
-        <v>1738900</v>
+        <v>1820600</v>
       </c>
       <c r="F76" s="3">
-        <v>1397000</v>
+        <v>1757800</v>
       </c>
       <c r="G76" s="3">
-        <v>1030400</v>
+        <v>1412200</v>
       </c>
       <c r="H76" s="3">
-        <v>848000</v>
+        <v>1041600</v>
       </c>
       <c r="I76" s="3">
-        <v>394100</v>
+        <v>857200</v>
       </c>
       <c r="J76" s="3">
+        <v>398400</v>
+      </c>
+      <c r="K76" s="3">
         <v>295500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>234900</v>
+        <v>208000</v>
       </c>
       <c r="E81" s="3">
-        <v>197000</v>
+        <v>238000</v>
       </c>
       <c r="F81" s="3">
-        <v>215300</v>
+        <v>199600</v>
       </c>
       <c r="G81" s="3">
-        <v>208700</v>
+        <v>218200</v>
       </c>
       <c r="H81" s="3">
-        <v>99800</v>
+        <v>211500</v>
       </c>
       <c r="I81" s="3">
-        <v>98600</v>
+        <v>101100</v>
       </c>
       <c r="J81" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K81" s="3">
         <v>82000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="E83" s="3">
-        <v>19100</v>
+        <v>16200</v>
       </c>
       <c r="F83" s="3">
-        <v>16600</v>
+        <v>19300</v>
       </c>
       <c r="G83" s="3">
-        <v>12600</v>
+        <v>16900</v>
       </c>
       <c r="H83" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I83" s="3">
-        <v>15500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>13100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>153000</v>
+        <v>275000</v>
       </c>
       <c r="E89" s="3">
-        <v>210100</v>
+        <v>345700</v>
       </c>
       <c r="F89" s="3">
-        <v>275300</v>
+        <v>212800</v>
       </c>
       <c r="G89" s="3">
-        <v>258200</v>
+        <v>278900</v>
       </c>
       <c r="H89" s="3">
-        <v>214300</v>
+        <v>261600</v>
       </c>
       <c r="I89" s="3">
-        <v>161800</v>
+        <v>217100</v>
       </c>
       <c r="J89" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K89" s="3">
         <v>92100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>123900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4500</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2800</v>
+        <v>-5200</v>
       </c>
       <c r="F91" s="3">
-        <v>-24700</v>
+        <v>-2900</v>
       </c>
       <c r="G91" s="3">
-        <v>-7700</v>
+        <v>-25000</v>
       </c>
       <c r="H91" s="3">
-        <v>-8500</v>
+        <v>-7800</v>
       </c>
       <c r="I91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-215700</v>
+        <v>-412200</v>
       </c>
       <c r="E94" s="3">
-        <v>-389800</v>
+        <v>-254600</v>
       </c>
       <c r="F94" s="3">
-        <v>-368400</v>
+        <v>-395000</v>
       </c>
       <c r="G94" s="3">
-        <v>-162600</v>
+        <v>-373200</v>
       </c>
       <c r="H94" s="3">
-        <v>-402600</v>
+        <v>-164700</v>
       </c>
       <c r="I94" s="3">
-        <v>-97200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-407900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-98500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,22 +3291,23 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-90000</v>
+        <v>-91200</v>
       </c>
       <c r="E96" s="3">
-        <v>-36000</v>
+        <v>-91200</v>
       </c>
       <c r="F96" s="3">
-        <v>-18000</v>
+        <v>-36500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-18200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>52200</v>
+        <v>169800</v>
       </c>
       <c r="E100" s="3">
-        <v>170600</v>
+        <v>-106700</v>
       </c>
       <c r="F100" s="3">
-        <v>111900</v>
+        <v>172900</v>
       </c>
       <c r="G100" s="3">
-        <v>-80400</v>
+        <v>113400</v>
       </c>
       <c r="H100" s="3">
-        <v>197600</v>
+        <v>-81500</v>
       </c>
       <c r="I100" s="3">
-        <v>-62600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>200200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-63500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>182800</v>
+        <v>-20700</v>
       </c>
       <c r="E101" s="3">
-        <v>305400</v>
+        <v>5000</v>
       </c>
       <c r="F101" s="3">
-        <v>-12300</v>
+        <v>309400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>-12400</v>
       </c>
       <c r="H101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>172300</v>
+        <v>11900</v>
       </c>
       <c r="E102" s="3">
-        <v>296300</v>
+        <v>-10700</v>
       </c>
       <c r="F102" s="3">
-        <v>6600</v>
+        <v>300200</v>
       </c>
       <c r="G102" s="3">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="H102" s="3">
-        <v>10600</v>
+        <v>8100</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>10800</v>
       </c>
       <c r="J102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>541400</v>
+        <v>592900</v>
       </c>
       <c r="E8" s="3">
-        <v>523500</v>
+        <v>573200</v>
       </c>
       <c r="F8" s="3">
-        <v>456300</v>
+        <v>499700</v>
       </c>
       <c r="G8" s="3">
-        <v>480600</v>
+        <v>526200</v>
       </c>
       <c r="H8" s="3">
-        <v>478200</v>
+        <v>523600</v>
       </c>
       <c r="I8" s="3">
-        <v>308700</v>
+        <v>338000</v>
       </c>
       <c r="J8" s="3">
-        <v>265500</v>
+        <v>290700</v>
       </c>
       <c r="K8" s="3">
         <v>206700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>246100</v>
+        <v>269500</v>
       </c>
       <c r="E9" s="3">
-        <v>220300</v>
+        <v>241300</v>
       </c>
       <c r="F9" s="3">
-        <v>188500</v>
+        <v>206400</v>
       </c>
       <c r="G9" s="3">
-        <v>214500</v>
+        <v>234800</v>
       </c>
       <c r="H9" s="3">
-        <v>252500</v>
+        <v>276400</v>
       </c>
       <c r="I9" s="3">
-        <v>140400</v>
+        <v>153800</v>
       </c>
       <c r="J9" s="3">
-        <v>113900</v>
+        <v>124700</v>
       </c>
       <c r="K9" s="3">
         <v>81100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>295300</v>
+        <v>323400</v>
       </c>
       <c r="E10" s="3">
-        <v>303100</v>
+        <v>331900</v>
       </c>
       <c r="F10" s="3">
-        <v>267900</v>
+        <v>293300</v>
       </c>
       <c r="G10" s="3">
-        <v>266100</v>
+        <v>291400</v>
       </c>
       <c r="H10" s="3">
-        <v>225700</v>
+        <v>247200</v>
       </c>
       <c r="I10" s="3">
-        <v>168300</v>
+        <v>184300</v>
       </c>
       <c r="J10" s="3">
-        <v>151600</v>
+        <v>166000</v>
       </c>
       <c r="K10" s="3">
         <v>125700</v>
@@ -933,10 +933,10 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>248100</v>
+        <v>271700</v>
       </c>
       <c r="E17" s="3">
-        <v>220500</v>
+        <v>241400</v>
       </c>
       <c r="F17" s="3">
-        <v>186000</v>
+        <v>203600</v>
       </c>
       <c r="G17" s="3">
-        <v>211700</v>
+        <v>231900</v>
       </c>
       <c r="H17" s="3">
-        <v>248200</v>
+        <v>271700</v>
       </c>
       <c r="I17" s="3">
-        <v>135100</v>
+        <v>147900</v>
       </c>
       <c r="J17" s="3">
-        <v>111800</v>
+        <v>122500</v>
       </c>
       <c r="K17" s="3">
         <v>81800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>293300</v>
+        <v>321200</v>
       </c>
       <c r="E18" s="3">
-        <v>303000</v>
+        <v>331800</v>
       </c>
       <c r="F18" s="3">
-        <v>270400</v>
+        <v>296000</v>
       </c>
       <c r="G18" s="3">
-        <v>268900</v>
+        <v>294400</v>
       </c>
       <c r="H18" s="3">
-        <v>230000</v>
+        <v>251900</v>
       </c>
       <c r="I18" s="3">
-        <v>173700</v>
+        <v>190100</v>
       </c>
       <c r="J18" s="3">
-        <v>153700</v>
+        <v>168200</v>
       </c>
       <c r="K18" s="3">
         <v>125000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>75400</v>
+        <v>82500</v>
       </c>
       <c r="E20" s="3">
-        <v>72800</v>
+        <v>79700</v>
       </c>
       <c r="F20" s="3">
-        <v>34700</v>
+        <v>38000</v>
       </c>
       <c r="G20" s="3">
-        <v>41600</v>
+        <v>45600</v>
       </c>
       <c r="H20" s="3">
-        <v>37800</v>
+        <v>41400</v>
       </c>
       <c r="I20" s="3">
-        <v>18300</v>
+        <v>20000</v>
       </c>
       <c r="J20" s="3">
-        <v>12200</v>
+        <v>13300</v>
       </c>
       <c r="K20" s="3">
         <v>12800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>395800</v>
+        <v>433300</v>
       </c>
       <c r="E21" s="3">
-        <v>392100</v>
+        <v>429200</v>
       </c>
       <c r="F21" s="3">
-        <v>324400</v>
+        <v>355200</v>
       </c>
       <c r="G21" s="3">
-        <v>327400</v>
+        <v>358400</v>
       </c>
       <c r="H21" s="3">
-        <v>280700</v>
+        <v>307300</v>
       </c>
       <c r="I21" s="3">
-        <v>205000</v>
+        <v>224500</v>
       </c>
       <c r="J21" s="3">
-        <v>181600</v>
+        <v>198800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41900</v>
+        <v>45900</v>
       </c>
       <c r="E22" s="3">
-        <v>29600</v>
+        <v>32400</v>
       </c>
       <c r="F22" s="3">
-        <v>29700</v>
+        <v>32500</v>
       </c>
       <c r="G22" s="3">
-        <v>53800</v>
+        <v>58900</v>
       </c>
       <c r="H22" s="3">
-        <v>33600</v>
+        <v>36800</v>
       </c>
       <c r="I22" s="3">
-        <v>73100</v>
+        <v>80100</v>
       </c>
       <c r="J22" s="3">
-        <v>51700</v>
+        <v>56600</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>326800</v>
+        <v>357800</v>
       </c>
       <c r="E23" s="3">
-        <v>346200</v>
+        <v>379100</v>
       </c>
       <c r="F23" s="3">
-        <v>275300</v>
+        <v>301500</v>
       </c>
       <c r="G23" s="3">
-        <v>256700</v>
+        <v>281100</v>
       </c>
       <c r="H23" s="3">
-        <v>234200</v>
+        <v>256500</v>
       </c>
       <c r="I23" s="3">
-        <v>118800</v>
+        <v>130100</v>
       </c>
       <c r="J23" s="3">
-        <v>114100</v>
+        <v>125000</v>
       </c>
       <c r="K23" s="3">
         <v>82900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>81800</v>
+        <v>89500</v>
       </c>
       <c r="E24" s="3">
-        <v>74200</v>
+        <v>81300</v>
       </c>
       <c r="F24" s="3">
-        <v>54900</v>
+        <v>60200</v>
       </c>
       <c r="G24" s="3">
-        <v>35900</v>
+        <v>39300</v>
       </c>
       <c r="H24" s="3">
-        <v>21900</v>
+        <v>24000</v>
       </c>
       <c r="I24" s="3">
-        <v>17600</v>
+        <v>19300</v>
       </c>
       <c r="J24" s="3">
-        <v>14200</v>
+        <v>15500</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>245000</v>
+        <v>268300</v>
       </c>
       <c r="E26" s="3">
-        <v>272000</v>
+        <v>297800</v>
       </c>
       <c r="F26" s="3">
-        <v>220400</v>
+        <v>241300</v>
       </c>
       <c r="G26" s="3">
-        <v>220800</v>
+        <v>241700</v>
       </c>
       <c r="H26" s="3">
-        <v>212400</v>
+        <v>232500</v>
       </c>
       <c r="I26" s="3">
-        <v>101200</v>
+        <v>110800</v>
       </c>
       <c r="J26" s="3">
-        <v>100000</v>
+        <v>109500</v>
       </c>
       <c r="K26" s="3">
         <v>82100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>208000</v>
+        <v>227700</v>
       </c>
       <c r="E27" s="3">
-        <v>238000</v>
+        <v>260600</v>
       </c>
       <c r="F27" s="3">
-        <v>200000</v>
+        <v>218900</v>
       </c>
       <c r="G27" s="3">
-        <v>218200</v>
+        <v>238900</v>
       </c>
       <c r="H27" s="3">
-        <v>212300</v>
+        <v>232500</v>
       </c>
       <c r="I27" s="3">
-        <v>101200</v>
+        <v>110800</v>
       </c>
       <c r="J27" s="3">
-        <v>99900</v>
+        <v>109400</v>
       </c>
       <c r="K27" s="3">
         <v>82100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-75400</v>
+        <v>-82500</v>
       </c>
       <c r="E32" s="3">
-        <v>-72800</v>
+        <v>-79700</v>
       </c>
       <c r="F32" s="3">
-        <v>-34700</v>
+        <v>-38000</v>
       </c>
       <c r="G32" s="3">
-        <v>-41600</v>
+        <v>-45600</v>
       </c>
       <c r="H32" s="3">
-        <v>-37800</v>
+        <v>-41400</v>
       </c>
       <c r="I32" s="3">
-        <v>-18300</v>
+        <v>-20000</v>
       </c>
       <c r="J32" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="K32" s="3">
         <v>-12800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>208000</v>
+        <v>227700</v>
       </c>
       <c r="E33" s="3">
-        <v>238000</v>
+        <v>260600</v>
       </c>
       <c r="F33" s="3">
-        <v>199600</v>
+        <v>218500</v>
       </c>
       <c r="G33" s="3">
-        <v>218200</v>
+        <v>238900</v>
       </c>
       <c r="H33" s="3">
-        <v>211500</v>
+        <v>231600</v>
       </c>
       <c r="I33" s="3">
-        <v>101100</v>
+        <v>110700</v>
       </c>
       <c r="J33" s="3">
-        <v>99900</v>
+        <v>109300</v>
       </c>
       <c r="K33" s="3">
         <v>82000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>208000</v>
+        <v>227700</v>
       </c>
       <c r="E35" s="3">
-        <v>238000</v>
+        <v>260600</v>
       </c>
       <c r="F35" s="3">
-        <v>199600</v>
+        <v>218500</v>
       </c>
       <c r="G35" s="3">
-        <v>218200</v>
+        <v>238900</v>
       </c>
       <c r="H35" s="3">
-        <v>211500</v>
+        <v>231600</v>
       </c>
       <c r="I35" s="3">
-        <v>101100</v>
+        <v>110700</v>
       </c>
       <c r="J35" s="3">
-        <v>99900</v>
+        <v>109300</v>
       </c>
       <c r="K35" s="3">
         <v>82000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22100</v>
+        <v>24200</v>
       </c>
       <c r="E41" s="3">
-        <v>10200</v>
+        <v>11100</v>
       </c>
       <c r="F41" s="3">
-        <v>20800</v>
+        <v>22800</v>
       </c>
       <c r="G41" s="3">
-        <v>700700</v>
+        <v>767200</v>
       </c>
       <c r="H41" s="3">
-        <v>468400</v>
+        <v>512900</v>
       </c>
       <c r="I41" s="3">
-        <v>15800</v>
+        <v>17300</v>
       </c>
       <c r="J41" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="K41" s="3">
         <v>2900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1289500</v>
+        <v>1411900</v>
       </c>
       <c r="E42" s="3">
-        <v>1131400</v>
+        <v>1238900</v>
       </c>
       <c r="F42" s="3">
-        <v>946300</v>
+        <v>1036100</v>
       </c>
       <c r="G42" s="3">
-        <v>636400</v>
+        <v>696800</v>
       </c>
       <c r="H42" s="3">
-        <v>403200</v>
+        <v>441500</v>
       </c>
       <c r="I42" s="3">
-        <v>412100</v>
+        <v>451300</v>
       </c>
       <c r="J42" s="3">
-        <v>271200</v>
+        <v>297000</v>
       </c>
       <c r="K42" s="3">
         <v>158300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85500</v>
+        <v>93600</v>
       </c>
       <c r="E43" s="3">
-        <v>68900</v>
+        <v>75500</v>
       </c>
       <c r="F43" s="3">
-        <v>113100</v>
+        <v>123800</v>
       </c>
       <c r="G43" s="3">
-        <v>203500</v>
+        <v>222800</v>
       </c>
       <c r="H43" s="3">
-        <v>140500</v>
+        <v>153900</v>
       </c>
       <c r="I43" s="3">
-        <v>37000</v>
+        <v>40500</v>
       </c>
       <c r="J43" s="3">
-        <v>42500</v>
+        <v>46500</v>
       </c>
       <c r="K43" s="3">
         <v>77500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4700</v>
-      </c>
       <c r="G44" s="3">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="H44" s="3">
-        <v>6500</v>
+        <v>7100</v>
       </c>
       <c r="I44" s="3">
-        <v>9000</v>
+        <v>9800</v>
       </c>
       <c r="J44" s="3">
-        <v>7800</v>
+        <v>8600</v>
       </c>
       <c r="K44" s="3">
         <v>7700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18300</v>
+        <v>20000</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>22800</v>
+        <v>25000</v>
       </c>
       <c r="G45" s="3">
-        <v>62700</v>
+        <v>68700</v>
       </c>
       <c r="H45" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="I45" s="3">
-        <v>17700</v>
+        <v>19400</v>
       </c>
       <c r="J45" s="3">
-        <v>12300</v>
+        <v>13500</v>
       </c>
       <c r="K45" s="3">
         <v>39500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1420500</v>
+        <v>1555400</v>
       </c>
       <c r="E46" s="3">
-        <v>1221300</v>
+        <v>1337200</v>
       </c>
       <c r="F46" s="3">
-        <v>1107700</v>
+        <v>1212900</v>
       </c>
       <c r="G46" s="3">
-        <v>807800</v>
+        <v>884500</v>
       </c>
       <c r="H46" s="3">
-        <v>525100</v>
+        <v>575000</v>
       </c>
       <c r="I46" s="3">
-        <v>460000</v>
+        <v>503700</v>
       </c>
       <c r="J46" s="3">
-        <v>170800</v>
+        <v>187000</v>
       </c>
       <c r="K46" s="3">
         <v>131400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124800</v>
+        <v>136700</v>
       </c>
       <c r="E47" s="3">
-        <v>172400</v>
+        <v>188800</v>
       </c>
       <c r="F47" s="3">
-        <v>192200</v>
+        <v>210500</v>
       </c>
       <c r="G47" s="3">
-        <v>176700</v>
+        <v>193400</v>
       </c>
       <c r="H47" s="3">
-        <v>160900</v>
+        <v>176200</v>
       </c>
       <c r="I47" s="3">
-        <v>106800</v>
+        <v>117000</v>
       </c>
       <c r="J47" s="3">
-        <v>78100</v>
+        <v>85500</v>
       </c>
       <c r="K47" s="3">
         <v>101500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52700</v>
+        <v>57700</v>
       </c>
       <c r="E48" s="3">
-        <v>47800</v>
+        <v>52300</v>
       </c>
       <c r="F48" s="3">
-        <v>48200</v>
+        <v>52800</v>
       </c>
       <c r="G48" s="3">
-        <v>96500</v>
+        <v>105700</v>
       </c>
       <c r="H48" s="3">
-        <v>78700</v>
+        <v>88500</v>
       </c>
       <c r="I48" s="3">
-        <v>37700</v>
+        <v>41300</v>
       </c>
       <c r="J48" s="3">
-        <v>57400</v>
+        <v>62900</v>
       </c>
       <c r="K48" s="3">
         <v>70300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1629100</v>
+        <v>1783700</v>
       </c>
       <c r="E49" s="3">
-        <v>971800</v>
+        <v>1064100</v>
       </c>
       <c r="F49" s="3">
-        <v>865700</v>
+        <v>947900</v>
       </c>
       <c r="G49" s="3">
-        <v>1516100</v>
+        <v>1660100</v>
       </c>
       <c r="H49" s="3">
-        <v>1366600</v>
+        <v>1496300</v>
       </c>
       <c r="I49" s="3">
-        <v>1158800</v>
+        <v>1268800</v>
       </c>
       <c r="J49" s="3">
-        <v>1550700</v>
+        <v>1697900</v>
       </c>
       <c r="K49" s="3">
         <v>927300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>103500</v>
+        <v>113300</v>
       </c>
       <c r="E52" s="3">
-        <v>87200</v>
+        <v>95500</v>
       </c>
       <c r="F52" s="3">
-        <v>63000</v>
+        <v>69000</v>
       </c>
       <c r="G52" s="3">
-        <v>78700</v>
+        <v>86200</v>
       </c>
       <c r="H52" s="3">
-        <v>75500</v>
+        <v>82700</v>
       </c>
       <c r="I52" s="3">
-        <v>111100</v>
+        <v>121700</v>
       </c>
       <c r="J52" s="3">
-        <v>114400</v>
+        <v>125200</v>
       </c>
       <c r="K52" s="3">
         <v>114800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3330600</v>
+        <v>3646800</v>
       </c>
       <c r="E54" s="3">
-        <v>2500500</v>
+        <v>2738000</v>
       </c>
       <c r="F54" s="3">
-        <v>2276900</v>
+        <v>2493100</v>
       </c>
       <c r="G54" s="3">
-        <v>1863800</v>
+        <v>2040800</v>
       </c>
       <c r="H54" s="3">
-        <v>1464600</v>
+        <v>1603700</v>
       </c>
       <c r="I54" s="3">
-        <v>1243400</v>
+        <v>1361500</v>
       </c>
       <c r="J54" s="3">
-        <v>853600</v>
+        <v>934600</v>
       </c>
       <c r="K54" s="3">
         <v>748800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18900</v>
+        <v>20700</v>
       </c>
       <c r="E57" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="F57" s="3">
-        <v>10800</v>
+        <v>11900</v>
       </c>
       <c r="G57" s="3">
-        <v>11900</v>
+        <v>13000</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="I57" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>2700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10300</v>
+        <v>11200</v>
       </c>
       <c r="E58" s="3">
-        <v>14600</v>
+        <v>16000</v>
       </c>
       <c r="F58" s="3">
-        <v>32300</v>
+        <v>35400</v>
       </c>
       <c r="G58" s="3">
-        <v>53500</v>
+        <v>58600</v>
       </c>
       <c r="H58" s="3">
-        <v>51100</v>
+        <v>56000</v>
       </c>
       <c r="I58" s="3">
-        <v>24300</v>
+        <v>26600</v>
       </c>
       <c r="J58" s="3">
-        <v>33900</v>
+        <v>37200</v>
       </c>
       <c r="K58" s="3">
         <v>42100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>230800</v>
+        <v>252700</v>
       </c>
       <c r="E59" s="3">
-        <v>204100</v>
+        <v>223500</v>
       </c>
       <c r="F59" s="3">
-        <v>94800</v>
+        <v>103800</v>
       </c>
       <c r="G59" s="3">
-        <v>97700</v>
+        <v>107000</v>
       </c>
       <c r="H59" s="3">
-        <v>153900</v>
+        <v>168500</v>
       </c>
       <c r="I59" s="3">
-        <v>58800</v>
+        <v>64400</v>
       </c>
       <c r="J59" s="3">
-        <v>38800</v>
+        <v>42500</v>
       </c>
       <c r="K59" s="3">
         <v>55500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259900</v>
+        <v>284600</v>
       </c>
       <c r="E60" s="3">
-        <v>229400</v>
+        <v>251200</v>
       </c>
       <c r="F60" s="3">
-        <v>138000</v>
+        <v>151100</v>
       </c>
       <c r="G60" s="3">
-        <v>126700</v>
+        <v>138700</v>
       </c>
       <c r="H60" s="3">
-        <v>151100</v>
+        <v>165400</v>
       </c>
       <c r="I60" s="3">
-        <v>72400</v>
+        <v>79300</v>
       </c>
       <c r="J60" s="3">
-        <v>64100</v>
+        <v>70200</v>
       </c>
       <c r="K60" s="3">
         <v>66100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>729600</v>
+        <v>798900</v>
       </c>
       <c r="E61" s="3">
-        <v>249400</v>
+        <v>273100</v>
       </c>
       <c r="F61" s="3">
-        <v>196200</v>
+        <v>214800</v>
       </c>
       <c r="G61" s="3">
-        <v>209100</v>
+        <v>229000</v>
       </c>
       <c r="H61" s="3">
-        <v>246800</v>
+        <v>270300</v>
       </c>
       <c r="I61" s="3">
-        <v>301400</v>
+        <v>330000</v>
       </c>
       <c r="J61" s="3">
-        <v>381800</v>
+        <v>418000</v>
       </c>
       <c r="K61" s="3">
         <v>381700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67200</v>
+        <v>73600</v>
       </c>
       <c r="E62" s="3">
-        <v>15200</v>
+        <v>16600</v>
       </c>
       <c r="F62" s="3">
-        <v>9300</v>
+        <v>10200</v>
       </c>
       <c r="G62" s="3">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="H62" s="3">
-        <v>24900</v>
+        <v>27300</v>
       </c>
       <c r="I62" s="3">
-        <v>20300</v>
+        <v>22300</v>
       </c>
       <c r="J62" s="3">
-        <v>9100</v>
+        <v>10000</v>
       </c>
       <c r="K62" s="3">
         <v>5300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1354200</v>
+        <v>1482800</v>
       </c>
       <c r="E66" s="3">
-        <v>680000</v>
+        <v>744500</v>
       </c>
       <c r="F66" s="3">
-        <v>519100</v>
+        <v>568300</v>
       </c>
       <c r="G66" s="3">
-        <v>451600</v>
+        <v>494500</v>
       </c>
       <c r="H66" s="3">
-        <v>423000</v>
+        <v>463200</v>
       </c>
       <c r="I66" s="3">
-        <v>386200</v>
+        <v>422800</v>
       </c>
       <c r="J66" s="3">
-        <v>455100</v>
+        <v>498400</v>
       </c>
       <c r="K66" s="3">
         <v>453300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>869100</v>
+        <v>951600</v>
       </c>
       <c r="E72" s="3">
-        <v>973600</v>
+        <v>1066100</v>
       </c>
       <c r="F72" s="3">
-        <v>1126700</v>
+        <v>1233700</v>
       </c>
       <c r="G72" s="3">
-        <v>1481200</v>
+        <v>1621800</v>
       </c>
       <c r="H72" s="3">
-        <v>927200</v>
+        <v>1015200</v>
       </c>
       <c r="I72" s="3">
-        <v>540700</v>
+        <v>592000</v>
       </c>
       <c r="J72" s="3">
-        <v>384100</v>
+        <v>420500</v>
       </c>
       <c r="K72" s="3">
         <v>279400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1976300</v>
+        <v>2164000</v>
       </c>
       <c r="E76" s="3">
-        <v>1820600</v>
+        <v>1993400</v>
       </c>
       <c r="F76" s="3">
-        <v>1757800</v>
+        <v>1924700</v>
       </c>
       <c r="G76" s="3">
-        <v>1412200</v>
+        <v>1546300</v>
       </c>
       <c r="H76" s="3">
-        <v>1041600</v>
+        <v>1140500</v>
       </c>
       <c r="I76" s="3">
-        <v>857200</v>
+        <v>938600</v>
       </c>
       <c r="J76" s="3">
-        <v>398400</v>
+        <v>436300</v>
       </c>
       <c r="K76" s="3">
         <v>295500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>208000</v>
+        <v>227700</v>
       </c>
       <c r="E81" s="3">
-        <v>238000</v>
+        <v>260600</v>
       </c>
       <c r="F81" s="3">
-        <v>199600</v>
+        <v>218500</v>
       </c>
       <c r="G81" s="3">
-        <v>218200</v>
+        <v>238900</v>
       </c>
       <c r="H81" s="3">
-        <v>211500</v>
+        <v>231600</v>
       </c>
       <c r="I81" s="3">
-        <v>101100</v>
+        <v>110700</v>
       </c>
       <c r="J81" s="3">
-        <v>99900</v>
+        <v>109300</v>
       </c>
       <c r="K81" s="3">
         <v>82000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27000</v>
+        <v>29600</v>
       </c>
       <c r="E83" s="3">
-        <v>16200</v>
+        <v>17800</v>
       </c>
       <c r="F83" s="3">
-        <v>19300</v>
+        <v>21100</v>
       </c>
       <c r="G83" s="3">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="H83" s="3">
-        <v>12800</v>
+        <v>14000</v>
       </c>
       <c r="I83" s="3">
-        <v>13100</v>
+        <v>14300</v>
       </c>
       <c r="J83" s="3">
-        <v>15700</v>
+        <v>17200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>275000</v>
+        <v>301100</v>
       </c>
       <c r="E89" s="3">
-        <v>345700</v>
+        <v>378500</v>
       </c>
       <c r="F89" s="3">
-        <v>212800</v>
+        <v>233100</v>
       </c>
       <c r="G89" s="3">
-        <v>278900</v>
+        <v>305400</v>
       </c>
       <c r="H89" s="3">
-        <v>261600</v>
+        <v>286400</v>
       </c>
       <c r="I89" s="3">
-        <v>217100</v>
+        <v>237800</v>
       </c>
       <c r="J89" s="3">
-        <v>163900</v>
+        <v>179500</v>
       </c>
       <c r="K89" s="3">
         <v>92100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-12500</v>
       </c>
       <c r="E91" s="3">
-        <v>-5200</v>
+        <v>-5700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-25000</v>
+        <v>-27400</v>
       </c>
       <c r="H91" s="3">
-        <v>-7800</v>
+        <v>-8500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8600</v>
+        <v>-9400</v>
       </c>
       <c r="J91" s="3">
-        <v>-3200</v>
+        <v>-3500</v>
       </c>
       <c r="K91" s="3">
         <v>-2300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-412200</v>
+        <v>-451300</v>
       </c>
       <c r="E94" s="3">
-        <v>-254600</v>
+        <v>-278800</v>
       </c>
       <c r="F94" s="3">
-        <v>-395000</v>
+        <v>-432500</v>
       </c>
       <c r="G94" s="3">
-        <v>-373200</v>
+        <v>-408600</v>
       </c>
       <c r="H94" s="3">
-        <v>-164700</v>
+        <v>-180300</v>
       </c>
       <c r="I94" s="3">
-        <v>-407900</v>
+        <v>-446600</v>
       </c>
       <c r="J94" s="3">
-        <v>-98500</v>
+        <v>-107900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-91200</v>
+        <v>-99900</v>
       </c>
       <c r="E96" s="3">
-        <v>-91200</v>
+        <v>-99900</v>
       </c>
       <c r="F96" s="3">
-        <v>-36500</v>
+        <v>-39900</v>
       </c>
       <c r="G96" s="3">
-        <v>-18200</v>
+        <v>-20000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>169800</v>
+        <v>185900</v>
       </c>
       <c r="E100" s="3">
-        <v>-106700</v>
+        <v>-116900</v>
       </c>
       <c r="F100" s="3">
-        <v>172900</v>
+        <v>189300</v>
       </c>
       <c r="G100" s="3">
-        <v>113400</v>
+        <v>124100</v>
       </c>
       <c r="H100" s="3">
-        <v>-81500</v>
+        <v>-89200</v>
       </c>
       <c r="I100" s="3">
-        <v>200200</v>
+        <v>219200</v>
       </c>
       <c r="J100" s="3">
-        <v>-63500</v>
+        <v>-69500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20700</v>
+        <v>-22600</v>
       </c>
       <c r="E101" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
-        <v>309400</v>
+        <v>338800</v>
       </c>
       <c r="G101" s="3">
-        <v>-12400</v>
+        <v>-13600</v>
       </c>
       <c r="H101" s="3">
-        <v>-7300</v>
+        <v>-8000</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11900</v>
+        <v>13000</v>
       </c>
       <c r="E102" s="3">
-        <v>-10700</v>
+        <v>-11700</v>
       </c>
       <c r="F102" s="3">
-        <v>300200</v>
+        <v>328700</v>
       </c>
       <c r="G102" s="3">
-        <v>6700</v>
+        <v>7300</v>
       </c>
       <c r="H102" s="3">
-        <v>8100</v>
+        <v>8800</v>
       </c>
       <c r="I102" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="J102" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>592900</v>
+        <v>574300</v>
       </c>
       <c r="E8" s="3">
-        <v>573200</v>
+        <v>555300</v>
       </c>
       <c r="F8" s="3">
-        <v>499700</v>
+        <v>484100</v>
       </c>
       <c r="G8" s="3">
-        <v>526200</v>
+        <v>509800</v>
       </c>
       <c r="H8" s="3">
-        <v>523600</v>
+        <v>507300</v>
       </c>
       <c r="I8" s="3">
-        <v>338000</v>
+        <v>327500</v>
       </c>
       <c r="J8" s="3">
-        <v>290700</v>
+        <v>281600</v>
       </c>
       <c r="K8" s="3">
         <v>206700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>269500</v>
+        <v>261000</v>
       </c>
       <c r="E9" s="3">
-        <v>241300</v>
+        <v>233700</v>
       </c>
       <c r="F9" s="3">
-        <v>206400</v>
+        <v>199900</v>
       </c>
       <c r="G9" s="3">
-        <v>234800</v>
+        <v>227500</v>
       </c>
       <c r="H9" s="3">
-        <v>276400</v>
+        <v>267800</v>
       </c>
       <c r="I9" s="3">
-        <v>153800</v>
+        <v>149000</v>
       </c>
       <c r="J9" s="3">
-        <v>124700</v>
+        <v>120800</v>
       </c>
       <c r="K9" s="3">
         <v>81100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>323400</v>
+        <v>313300</v>
       </c>
       <c r="E10" s="3">
-        <v>331900</v>
+        <v>321500</v>
       </c>
       <c r="F10" s="3">
-        <v>293300</v>
+        <v>284100</v>
       </c>
       <c r="G10" s="3">
-        <v>291400</v>
+        <v>282300</v>
       </c>
       <c r="H10" s="3">
-        <v>247200</v>
+        <v>239500</v>
       </c>
       <c r="I10" s="3">
-        <v>184300</v>
+        <v>178500</v>
       </c>
       <c r="J10" s="3">
-        <v>166000</v>
+        <v>160800</v>
       </c>
       <c r="K10" s="3">
         <v>125700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>271700</v>
+        <v>263200</v>
       </c>
       <c r="E17" s="3">
-        <v>241400</v>
+        <v>233900</v>
       </c>
       <c r="F17" s="3">
-        <v>203600</v>
+        <v>197300</v>
       </c>
       <c r="G17" s="3">
-        <v>231900</v>
+        <v>224600</v>
       </c>
       <c r="H17" s="3">
-        <v>271700</v>
+        <v>263300</v>
       </c>
       <c r="I17" s="3">
-        <v>147900</v>
+        <v>143300</v>
       </c>
       <c r="J17" s="3">
-        <v>122500</v>
+        <v>118600</v>
       </c>
       <c r="K17" s="3">
         <v>81800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>321200</v>
+        <v>311100</v>
       </c>
       <c r="E18" s="3">
-        <v>331800</v>
+        <v>321400</v>
       </c>
       <c r="F18" s="3">
-        <v>296000</v>
+        <v>286800</v>
       </c>
       <c r="G18" s="3">
-        <v>294400</v>
+        <v>285200</v>
       </c>
       <c r="H18" s="3">
-        <v>251900</v>
+        <v>244000</v>
       </c>
       <c r="I18" s="3">
-        <v>190100</v>
+        <v>184200</v>
       </c>
       <c r="J18" s="3">
-        <v>168200</v>
+        <v>163000</v>
       </c>
       <c r="K18" s="3">
         <v>125000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>82500</v>
+        <v>80000</v>
       </c>
       <c r="E20" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="F20" s="3">
-        <v>38000</v>
+        <v>36800</v>
       </c>
       <c r="G20" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="H20" s="3">
-        <v>41400</v>
+        <v>40100</v>
       </c>
       <c r="I20" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="J20" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K20" s="3">
         <v>12800</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>433300</v>
+        <v>419400</v>
       </c>
       <c r="E21" s="3">
-        <v>429200</v>
+        <v>415600</v>
       </c>
       <c r="F21" s="3">
-        <v>355200</v>
+        <v>343800</v>
       </c>
       <c r="G21" s="3">
-        <v>358400</v>
+        <v>347000</v>
       </c>
       <c r="H21" s="3">
-        <v>307300</v>
+        <v>297500</v>
       </c>
       <c r="I21" s="3">
-        <v>224500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>198800</v>
+        <v>217300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="E22" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="F22" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="G22" s="3">
-        <v>58900</v>
+        <v>57100</v>
       </c>
       <c r="H22" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="I22" s="3">
-        <v>80100</v>
+        <v>77600</v>
       </c>
       <c r="J22" s="3">
-        <v>56600</v>
+        <v>54800</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>357800</v>
+        <v>346600</v>
       </c>
       <c r="E23" s="3">
-        <v>379100</v>
+        <v>367300</v>
       </c>
       <c r="F23" s="3">
-        <v>301500</v>
+        <v>292100</v>
       </c>
       <c r="G23" s="3">
-        <v>281100</v>
+        <v>272300</v>
       </c>
       <c r="H23" s="3">
-        <v>256500</v>
+        <v>248500</v>
       </c>
       <c r="I23" s="3">
-        <v>130100</v>
+        <v>126000</v>
       </c>
       <c r="J23" s="3">
-        <v>125000</v>
+        <v>121100</v>
       </c>
       <c r="K23" s="3">
         <v>82900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89500</v>
+        <v>86700</v>
       </c>
       <c r="E24" s="3">
-        <v>81300</v>
+        <v>78700</v>
       </c>
       <c r="F24" s="3">
-        <v>60200</v>
+        <v>58300</v>
       </c>
       <c r="G24" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="H24" s="3">
-        <v>24000</v>
+        <v>23200</v>
       </c>
       <c r="I24" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="J24" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="K24" s="3">
         <v>800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>268300</v>
+        <v>259900</v>
       </c>
       <c r="E26" s="3">
-        <v>297800</v>
+        <v>288500</v>
       </c>
       <c r="F26" s="3">
-        <v>241300</v>
+        <v>233800</v>
       </c>
       <c r="G26" s="3">
-        <v>241700</v>
+        <v>234200</v>
       </c>
       <c r="H26" s="3">
-        <v>232500</v>
+        <v>225300</v>
       </c>
       <c r="I26" s="3">
-        <v>110800</v>
+        <v>107400</v>
       </c>
       <c r="J26" s="3">
-        <v>109500</v>
+        <v>106000</v>
       </c>
       <c r="K26" s="3">
         <v>82100</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>227700</v>
+        <v>220600</v>
       </c>
       <c r="E27" s="3">
-        <v>260600</v>
+        <v>252400</v>
       </c>
       <c r="F27" s="3">
-        <v>218900</v>
+        <v>212100</v>
       </c>
       <c r="G27" s="3">
-        <v>238900</v>
+        <v>231400</v>
       </c>
       <c r="H27" s="3">
-        <v>232500</v>
+        <v>225200</v>
       </c>
       <c r="I27" s="3">
-        <v>110800</v>
+        <v>107300</v>
       </c>
       <c r="J27" s="3">
-        <v>109400</v>
+        <v>106000</v>
       </c>
       <c r="K27" s="3">
         <v>82100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-82500</v>
+        <v>-80000</v>
       </c>
       <c r="E32" s="3">
-        <v>-79700</v>
+        <v>-77200</v>
       </c>
       <c r="F32" s="3">
-        <v>-38000</v>
+        <v>-36800</v>
       </c>
       <c r="G32" s="3">
-        <v>-45600</v>
+        <v>-44200</v>
       </c>
       <c r="H32" s="3">
-        <v>-41400</v>
+        <v>-40100</v>
       </c>
       <c r="I32" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="J32" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="K32" s="3">
         <v>-12800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>227700</v>
+        <v>220600</v>
       </c>
       <c r="E33" s="3">
-        <v>260600</v>
+        <v>252400</v>
       </c>
       <c r="F33" s="3">
-        <v>218500</v>
+        <v>211700</v>
       </c>
       <c r="G33" s="3">
-        <v>238900</v>
+        <v>231400</v>
       </c>
       <c r="H33" s="3">
-        <v>231600</v>
+        <v>224300</v>
       </c>
       <c r="I33" s="3">
-        <v>110700</v>
+        <v>107200</v>
       </c>
       <c r="J33" s="3">
-        <v>109300</v>
+        <v>105900</v>
       </c>
       <c r="K33" s="3">
         <v>82000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>227700</v>
+        <v>220600</v>
       </c>
       <c r="E35" s="3">
-        <v>260600</v>
+        <v>252400</v>
       </c>
       <c r="F35" s="3">
-        <v>218500</v>
+        <v>211700</v>
       </c>
       <c r="G35" s="3">
-        <v>238900</v>
+        <v>231400</v>
       </c>
       <c r="H35" s="3">
-        <v>231600</v>
+        <v>224300</v>
       </c>
       <c r="I35" s="3">
-        <v>110700</v>
+        <v>107200</v>
       </c>
       <c r="J35" s="3">
-        <v>109300</v>
+        <v>105900</v>
       </c>
       <c r="K35" s="3">
         <v>82000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="E41" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F41" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="G41" s="3">
-        <v>767200</v>
+        <v>743300</v>
       </c>
       <c r="H41" s="3">
-        <v>512900</v>
+        <v>496900</v>
       </c>
       <c r="I41" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="J41" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K41" s="3">
         <v>2900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1411900</v>
+        <v>1367800</v>
       </c>
       <c r="E42" s="3">
-        <v>1238900</v>
+        <v>1200200</v>
       </c>
       <c r="F42" s="3">
-        <v>1036100</v>
+        <v>1003700</v>
       </c>
       <c r="G42" s="3">
-        <v>696800</v>
+        <v>675000</v>
       </c>
       <c r="H42" s="3">
-        <v>441500</v>
+        <v>427700</v>
       </c>
       <c r="I42" s="3">
-        <v>451300</v>
+        <v>437200</v>
       </c>
       <c r="J42" s="3">
-        <v>297000</v>
+        <v>287700</v>
       </c>
       <c r="K42" s="3">
         <v>158300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>93600</v>
+        <v>90700</v>
       </c>
       <c r="E43" s="3">
-        <v>75500</v>
+        <v>73100</v>
       </c>
       <c r="F43" s="3">
-        <v>123800</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="3">
-        <v>222800</v>
+        <v>215900</v>
       </c>
       <c r="H43" s="3">
-        <v>153900</v>
+        <v>149100</v>
       </c>
       <c r="I43" s="3">
-        <v>40500</v>
+        <v>39300</v>
       </c>
       <c r="J43" s="3">
-        <v>46500</v>
+        <v>45000</v>
       </c>
       <c r="K43" s="3">
         <v>77500</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E44" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F44" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G44" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="H44" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I44" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J44" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="K44" s="3">
         <v>7700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="F45" s="3">
-        <v>25000</v>
+        <v>24200</v>
       </c>
       <c r="G45" s="3">
-        <v>68700</v>
+        <v>66500</v>
       </c>
       <c r="H45" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="I45" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="J45" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="K45" s="3">
         <v>39500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1555400</v>
+        <v>1506800</v>
       </c>
       <c r="E46" s="3">
-        <v>1337200</v>
+        <v>1295400</v>
       </c>
       <c r="F46" s="3">
-        <v>1212900</v>
+        <v>1175000</v>
       </c>
       <c r="G46" s="3">
-        <v>884500</v>
+        <v>856900</v>
       </c>
       <c r="H46" s="3">
-        <v>575000</v>
+        <v>557000</v>
       </c>
       <c r="I46" s="3">
-        <v>503700</v>
+        <v>488000</v>
       </c>
       <c r="J46" s="3">
-        <v>187000</v>
+        <v>181200</v>
       </c>
       <c r="K46" s="3">
         <v>131400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>136700</v>
+        <v>132400</v>
       </c>
       <c r="E47" s="3">
-        <v>188800</v>
+        <v>182900</v>
       </c>
       <c r="F47" s="3">
-        <v>210500</v>
+        <v>203900</v>
       </c>
       <c r="G47" s="3">
-        <v>193400</v>
+        <v>187400</v>
       </c>
       <c r="H47" s="3">
-        <v>176200</v>
+        <v>170700</v>
       </c>
       <c r="I47" s="3">
-        <v>117000</v>
+        <v>113300</v>
       </c>
       <c r="J47" s="3">
-        <v>85500</v>
+        <v>82800</v>
       </c>
       <c r="K47" s="3">
         <v>101500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57700</v>
+        <v>55900</v>
       </c>
       <c r="E48" s="3">
-        <v>52300</v>
+        <v>50700</v>
       </c>
       <c r="F48" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="G48" s="3">
-        <v>105700</v>
+        <v>102400</v>
       </c>
       <c r="H48" s="3">
-        <v>88500</v>
+        <v>85700</v>
       </c>
       <c r="I48" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="J48" s="3">
-        <v>62900</v>
+        <v>60900</v>
       </c>
       <c r="K48" s="3">
         <v>70300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1783700</v>
+        <v>1728000</v>
       </c>
       <c r="E49" s="3">
-        <v>1064100</v>
+        <v>1030900</v>
       </c>
       <c r="F49" s="3">
-        <v>947900</v>
+        <v>918300</v>
       </c>
       <c r="G49" s="3">
-        <v>1660100</v>
+        <v>1608200</v>
       </c>
       <c r="H49" s="3">
-        <v>1496300</v>
+        <v>1449600</v>
       </c>
       <c r="I49" s="3">
-        <v>1268800</v>
+        <v>1229200</v>
       </c>
       <c r="J49" s="3">
-        <v>1697900</v>
+        <v>1644800</v>
       </c>
       <c r="K49" s="3">
         <v>927300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>113300</v>
+        <v>109800</v>
       </c>
       <c r="E52" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="F52" s="3">
-        <v>69000</v>
+        <v>66800</v>
       </c>
       <c r="G52" s="3">
-        <v>86200</v>
+        <v>83500</v>
       </c>
       <c r="H52" s="3">
-        <v>82700</v>
+        <v>80100</v>
       </c>
       <c r="I52" s="3">
-        <v>121700</v>
+        <v>117900</v>
       </c>
       <c r="J52" s="3">
-        <v>125200</v>
+        <v>121300</v>
       </c>
       <c r="K52" s="3">
         <v>114800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3646800</v>
+        <v>3532900</v>
       </c>
       <c r="E54" s="3">
-        <v>2738000</v>
+        <v>2652400</v>
       </c>
       <c r="F54" s="3">
-        <v>2493100</v>
+        <v>2415200</v>
       </c>
       <c r="G54" s="3">
-        <v>2040800</v>
+        <v>1977000</v>
       </c>
       <c r="H54" s="3">
-        <v>1603700</v>
+        <v>1553600</v>
       </c>
       <c r="I54" s="3">
-        <v>1361500</v>
+        <v>1319000</v>
       </c>
       <c r="J54" s="3">
-        <v>934600</v>
+        <v>905400</v>
       </c>
       <c r="K54" s="3">
         <v>748800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20700</v>
+        <v>20100</v>
       </c>
       <c r="E57" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="F57" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="G57" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H57" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I57" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>2700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="E58" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="F58" s="3">
-        <v>35400</v>
+        <v>34300</v>
       </c>
       <c r="G58" s="3">
-        <v>58600</v>
+        <v>56700</v>
       </c>
       <c r="H58" s="3">
-        <v>56000</v>
+        <v>54200</v>
       </c>
       <c r="I58" s="3">
-        <v>26600</v>
+        <v>25700</v>
       </c>
       <c r="J58" s="3">
-        <v>37200</v>
+        <v>36000</v>
       </c>
       <c r="K58" s="3">
         <v>42100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>252700</v>
+        <v>244800</v>
       </c>
       <c r="E59" s="3">
-        <v>223500</v>
+        <v>216500</v>
       </c>
       <c r="F59" s="3">
-        <v>103800</v>
+        <v>100600</v>
       </c>
       <c r="G59" s="3">
-        <v>107000</v>
+        <v>103600</v>
       </c>
       <c r="H59" s="3">
-        <v>168500</v>
+        <v>163300</v>
       </c>
       <c r="I59" s="3">
-        <v>64400</v>
+        <v>62400</v>
       </c>
       <c r="J59" s="3">
-        <v>42500</v>
+        <v>41100</v>
       </c>
       <c r="K59" s="3">
         <v>55500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>284600</v>
+        <v>275700</v>
       </c>
       <c r="E60" s="3">
-        <v>251200</v>
+        <v>243300</v>
       </c>
       <c r="F60" s="3">
-        <v>151100</v>
+        <v>146400</v>
       </c>
       <c r="G60" s="3">
-        <v>138700</v>
+        <v>134400</v>
       </c>
       <c r="H60" s="3">
-        <v>165400</v>
+        <v>160200</v>
       </c>
       <c r="I60" s="3">
-        <v>79300</v>
+        <v>76800</v>
       </c>
       <c r="J60" s="3">
-        <v>70200</v>
+        <v>68000</v>
       </c>
       <c r="K60" s="3">
         <v>66100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>798900</v>
+        <v>773900</v>
       </c>
       <c r="E61" s="3">
-        <v>273100</v>
+        <v>264500</v>
       </c>
       <c r="F61" s="3">
-        <v>214800</v>
+        <v>208100</v>
       </c>
       <c r="G61" s="3">
-        <v>229000</v>
+        <v>221800</v>
       </c>
       <c r="H61" s="3">
-        <v>270300</v>
+        <v>261800</v>
       </c>
       <c r="I61" s="3">
-        <v>330000</v>
+        <v>319700</v>
       </c>
       <c r="J61" s="3">
-        <v>418000</v>
+        <v>405000</v>
       </c>
       <c r="K61" s="3">
         <v>381700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>73600</v>
+        <v>71300</v>
       </c>
       <c r="E62" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="F62" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="G62" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="H62" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="I62" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="J62" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="K62" s="3">
         <v>5300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1482800</v>
+        <v>1436500</v>
       </c>
       <c r="E66" s="3">
-        <v>744500</v>
+        <v>721300</v>
       </c>
       <c r="F66" s="3">
-        <v>568300</v>
+        <v>550600</v>
       </c>
       <c r="G66" s="3">
-        <v>494500</v>
+        <v>479100</v>
       </c>
       <c r="H66" s="3">
-        <v>463200</v>
+        <v>448700</v>
       </c>
       <c r="I66" s="3">
-        <v>422800</v>
+        <v>409600</v>
       </c>
       <c r="J66" s="3">
-        <v>498400</v>
+        <v>482800</v>
       </c>
       <c r="K66" s="3">
         <v>453300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>951600</v>
+        <v>921900</v>
       </c>
       <c r="E72" s="3">
-        <v>1066100</v>
+        <v>1032800</v>
       </c>
       <c r="F72" s="3">
-        <v>1233700</v>
+        <v>1195200</v>
       </c>
       <c r="G72" s="3">
-        <v>1621800</v>
+        <v>1571200</v>
       </c>
       <c r="H72" s="3">
-        <v>1015200</v>
+        <v>983500</v>
       </c>
       <c r="I72" s="3">
-        <v>592000</v>
+        <v>573500</v>
       </c>
       <c r="J72" s="3">
-        <v>420500</v>
+        <v>407400</v>
       </c>
       <c r="K72" s="3">
         <v>279400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2164000</v>
+        <v>2096400</v>
       </c>
       <c r="E76" s="3">
-        <v>1993400</v>
+        <v>1931200</v>
       </c>
       <c r="F76" s="3">
-        <v>1924700</v>
+        <v>1864600</v>
       </c>
       <c r="G76" s="3">
-        <v>1546300</v>
+        <v>1498000</v>
       </c>
       <c r="H76" s="3">
-        <v>1140500</v>
+        <v>1104800</v>
       </c>
       <c r="I76" s="3">
-        <v>938600</v>
+        <v>909300</v>
       </c>
       <c r="J76" s="3">
-        <v>436300</v>
+        <v>422600</v>
       </c>
       <c r="K76" s="3">
         <v>295500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>227700</v>
+        <v>220600</v>
       </c>
       <c r="E81" s="3">
-        <v>260600</v>
+        <v>252400</v>
       </c>
       <c r="F81" s="3">
-        <v>218500</v>
+        <v>211700</v>
       </c>
       <c r="G81" s="3">
-        <v>238900</v>
+        <v>231400</v>
       </c>
       <c r="H81" s="3">
-        <v>231600</v>
+        <v>224300</v>
       </c>
       <c r="I81" s="3">
-        <v>110700</v>
+        <v>107200</v>
       </c>
       <c r="J81" s="3">
-        <v>109300</v>
+        <v>105900</v>
       </c>
       <c r="K81" s="3">
         <v>82000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29600</v>
+        <v>28600</v>
       </c>
       <c r="E83" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="F83" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="G83" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="I83" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>17200</v>
+        <v>13900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>301100</v>
+        <v>291700</v>
       </c>
       <c r="E89" s="3">
-        <v>378500</v>
+        <v>366700</v>
       </c>
       <c r="F89" s="3">
-        <v>233100</v>
+        <v>225800</v>
       </c>
       <c r="G89" s="3">
-        <v>305400</v>
+        <v>295900</v>
       </c>
       <c r="H89" s="3">
-        <v>286400</v>
+        <v>277500</v>
       </c>
       <c r="I89" s="3">
-        <v>237800</v>
+        <v>230300</v>
       </c>
       <c r="J89" s="3">
-        <v>179500</v>
+        <v>173900</v>
       </c>
       <c r="K89" s="3">
         <v>92100</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-27400</v>
+        <v>-26500</v>
       </c>
       <c r="H91" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="K91" s="3">
         <v>-2300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-451300</v>
+        <v>-437200</v>
       </c>
       <c r="E94" s="3">
-        <v>-278800</v>
+        <v>-270100</v>
       </c>
       <c r="F94" s="3">
-        <v>-432500</v>
+        <v>-418900</v>
       </c>
       <c r="G94" s="3">
-        <v>-408600</v>
+        <v>-395900</v>
       </c>
       <c r="H94" s="3">
-        <v>-180300</v>
+        <v>-174700</v>
       </c>
       <c r="I94" s="3">
-        <v>-446600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-107900</v>
+        <v>-432600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99900</v>
+        <v>-96700</v>
       </c>
       <c r="E96" s="3">
-        <v>-99900</v>
+        <v>-96700</v>
       </c>
       <c r="F96" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="G96" s="3">
-        <v>-20000</v>
+        <v>-19300</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>185900</v>
+        <v>180100</v>
       </c>
       <c r="E100" s="3">
-        <v>-116900</v>
+        <v>-113200</v>
       </c>
       <c r="F100" s="3">
-        <v>189300</v>
+        <v>183400</v>
       </c>
       <c r="G100" s="3">
-        <v>124100</v>
+        <v>120200</v>
       </c>
       <c r="H100" s="3">
-        <v>-89200</v>
+        <v>-86400</v>
       </c>
       <c r="I100" s="3">
-        <v>219200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-69500</v>
+        <v>212400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22600</v>
+        <v>-21900</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
-        <v>338800</v>
+        <v>328200</v>
       </c>
       <c r="G101" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="H101" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
-        <v>100</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="F102" s="3">
-        <v>328700</v>
+        <v>318400</v>
       </c>
       <c r="G102" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="H102" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="I102" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>574300</v>
+        <v>498800</v>
       </c>
       <c r="E8" s="3">
-        <v>555300</v>
+        <v>605100</v>
       </c>
       <c r="F8" s="3">
-        <v>484100</v>
+        <v>611400</v>
       </c>
       <c r="G8" s="3">
-        <v>509800</v>
+        <v>502600</v>
       </c>
       <c r="H8" s="3">
-        <v>507300</v>
+        <v>529300</v>
       </c>
       <c r="I8" s="3">
-        <v>327500</v>
+        <v>526700</v>
       </c>
       <c r="J8" s="3">
+        <v>340000</v>
+      </c>
+      <c r="K8" s="3">
         <v>281600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>206700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>215400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>261000</v>
+        <v>240500</v>
       </c>
       <c r="E9" s="3">
-        <v>233700</v>
+        <v>279300</v>
       </c>
       <c r="F9" s="3">
-        <v>199900</v>
+        <v>277500</v>
       </c>
       <c r="G9" s="3">
-        <v>227500</v>
+        <v>207600</v>
       </c>
       <c r="H9" s="3">
-        <v>267800</v>
+        <v>236200</v>
       </c>
       <c r="I9" s="3">
-        <v>149000</v>
+        <v>278100</v>
       </c>
       <c r="J9" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K9" s="3">
         <v>120800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>81100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>313300</v>
+        <v>258300</v>
       </c>
       <c r="E10" s="3">
-        <v>321500</v>
+        <v>325800</v>
       </c>
       <c r="F10" s="3">
-        <v>284100</v>
+        <v>333900</v>
       </c>
       <c r="G10" s="3">
-        <v>282300</v>
+        <v>295000</v>
       </c>
       <c r="H10" s="3">
-        <v>239500</v>
+        <v>293100</v>
       </c>
       <c r="I10" s="3">
-        <v>178500</v>
+        <v>248600</v>
       </c>
       <c r="J10" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K10" s="3">
         <v>160800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>129400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,29 +942,32 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>263200</v>
+        <v>242800</v>
       </c>
       <c r="E17" s="3">
-        <v>233900</v>
+        <v>282700</v>
       </c>
       <c r="F17" s="3">
-        <v>197300</v>
+        <v>277700</v>
       </c>
       <c r="G17" s="3">
-        <v>224600</v>
+        <v>204800</v>
       </c>
       <c r="H17" s="3">
-        <v>263300</v>
+        <v>233200</v>
       </c>
       <c r="I17" s="3">
-        <v>143300</v>
+        <v>273300</v>
       </c>
       <c r="J17" s="3">
+        <v>148800</v>
+      </c>
+      <c r="K17" s="3">
         <v>118600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>311100</v>
+        <v>256000</v>
       </c>
       <c r="E18" s="3">
-        <v>321400</v>
+        <v>322500</v>
       </c>
       <c r="F18" s="3">
-        <v>286800</v>
+        <v>333700</v>
       </c>
       <c r="G18" s="3">
-        <v>285200</v>
+        <v>297800</v>
       </c>
       <c r="H18" s="3">
-        <v>244000</v>
+        <v>296100</v>
       </c>
       <c r="I18" s="3">
-        <v>184200</v>
+        <v>253300</v>
       </c>
       <c r="J18" s="3">
+        <v>191300</v>
+      </c>
+      <c r="K18" s="3">
         <v>163000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>125000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,64 +1082,68 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E20" s="3">
         <v>80000</v>
       </c>
-      <c r="E20" s="3">
-        <v>77200</v>
-      </c>
       <c r="F20" s="3">
-        <v>36800</v>
+        <v>79400</v>
       </c>
       <c r="G20" s="3">
-        <v>44200</v>
+        <v>38200</v>
       </c>
       <c r="H20" s="3">
-        <v>40100</v>
+        <v>45800</v>
       </c>
       <c r="I20" s="3">
-        <v>19400</v>
+        <v>41700</v>
       </c>
       <c r="J20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-55500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>419400</v>
+        <v>253400</v>
       </c>
       <c r="E21" s="3">
-        <v>415600</v>
+        <v>437300</v>
       </c>
       <c r="F21" s="3">
-        <v>343800</v>
+        <v>435900</v>
       </c>
       <c r="G21" s="3">
-        <v>347000</v>
+        <v>357300</v>
       </c>
       <c r="H21" s="3">
-        <v>297500</v>
+        <v>360600</v>
       </c>
       <c r="I21" s="3">
-        <v>217300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>309100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>225800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1115,108 +1151,120 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>44500</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>31300</v>
+        <v>46200</v>
       </c>
       <c r="F22" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="G22" s="3">
-        <v>57100</v>
+        <v>32700</v>
       </c>
       <c r="H22" s="3">
-        <v>35700</v>
+        <v>59300</v>
       </c>
       <c r="I22" s="3">
-        <v>77600</v>
+        <v>37000</v>
       </c>
       <c r="J22" s="3">
-        <v>54800</v>
+        <v>80500</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>346600</v>
+        <v>210000</v>
       </c>
       <c r="E23" s="3">
-        <v>367300</v>
+        <v>356400</v>
       </c>
       <c r="F23" s="3">
-        <v>292100</v>
+        <v>380500</v>
       </c>
       <c r="G23" s="3">
-        <v>272300</v>
+        <v>303200</v>
       </c>
       <c r="H23" s="3">
-        <v>248500</v>
+        <v>282700</v>
       </c>
       <c r="I23" s="3">
-        <v>126000</v>
+        <v>258000</v>
       </c>
       <c r="J23" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K23" s="3">
         <v>121100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86700</v>
+        <v>38400</v>
       </c>
       <c r="E24" s="3">
-        <v>78700</v>
+        <v>90300</v>
       </c>
       <c r="F24" s="3">
-        <v>58300</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="3">
-        <v>38100</v>
+        <v>60500</v>
       </c>
       <c r="H24" s="3">
-        <v>23200</v>
+        <v>39600</v>
       </c>
       <c r="I24" s="3">
-        <v>18700</v>
+        <v>24100</v>
       </c>
       <c r="J24" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>259900</v>
+        <v>171600</v>
       </c>
       <c r="E26" s="3">
-        <v>288500</v>
+        <v>266000</v>
       </c>
       <c r="F26" s="3">
-        <v>233800</v>
+        <v>300500</v>
       </c>
       <c r="G26" s="3">
-        <v>234200</v>
+        <v>242700</v>
       </c>
       <c r="H26" s="3">
-        <v>225300</v>
+        <v>243100</v>
       </c>
       <c r="I26" s="3">
-        <v>107400</v>
+        <v>233900</v>
       </c>
       <c r="J26" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K26" s="3">
         <v>106000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>82100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>220600</v>
+        <v>133600</v>
       </c>
       <c r="E27" s="3">
-        <v>252400</v>
+        <v>229100</v>
       </c>
       <c r="F27" s="3">
-        <v>212100</v>
+        <v>262100</v>
       </c>
       <c r="G27" s="3">
-        <v>231400</v>
+        <v>220200</v>
       </c>
       <c r="H27" s="3">
-        <v>225200</v>
+        <v>240300</v>
       </c>
       <c r="I27" s="3">
-        <v>107300</v>
+        <v>233900</v>
       </c>
       <c r="J27" s="3">
+        <v>111400</v>
+      </c>
+      <c r="K27" s="3">
         <v>106000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,29 +1403,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-900</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-100</v>
       </c>
       <c r="J29" s="3">
         <v>-100</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-80000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-77200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-36800</v>
+        <v>-79400</v>
       </c>
       <c r="G32" s="3">
-        <v>-44200</v>
+        <v>-38200</v>
       </c>
       <c r="H32" s="3">
-        <v>-40100</v>
+        <v>-45800</v>
       </c>
       <c r="I32" s="3">
-        <v>-19400</v>
+        <v>-41700</v>
       </c>
       <c r="J32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>55500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220600</v>
+        <v>133600</v>
       </c>
       <c r="E33" s="3">
-        <v>252400</v>
+        <v>229100</v>
       </c>
       <c r="F33" s="3">
-        <v>211700</v>
+        <v>262100</v>
       </c>
       <c r="G33" s="3">
-        <v>231400</v>
+        <v>219800</v>
       </c>
       <c r="H33" s="3">
-        <v>224300</v>
+        <v>240300</v>
       </c>
       <c r="I33" s="3">
-        <v>107200</v>
+        <v>232900</v>
       </c>
       <c r="J33" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K33" s="3">
         <v>105900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220600</v>
+        <v>133600</v>
       </c>
       <c r="E35" s="3">
-        <v>252400</v>
+        <v>229100</v>
       </c>
       <c r="F35" s="3">
-        <v>211700</v>
+        <v>262100</v>
       </c>
       <c r="G35" s="3">
-        <v>231400</v>
+        <v>219800</v>
       </c>
       <c r="H35" s="3">
-        <v>224300</v>
+        <v>240300</v>
       </c>
       <c r="I35" s="3">
-        <v>107200</v>
+        <v>232900</v>
       </c>
       <c r="J35" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K35" s="3">
         <v>105900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23400</v>
+        <v>56900</v>
       </c>
       <c r="E41" s="3">
-        <v>10800</v>
+        <v>24400</v>
       </c>
       <c r="F41" s="3">
-        <v>22100</v>
+        <v>11300</v>
       </c>
       <c r="G41" s="3">
-        <v>743300</v>
+        <v>22900</v>
       </c>
       <c r="H41" s="3">
-        <v>496900</v>
+        <v>771700</v>
       </c>
       <c r="I41" s="3">
-        <v>16800</v>
+        <v>515900</v>
       </c>
       <c r="J41" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1367800</v>
+        <v>1196200</v>
       </c>
       <c r="E42" s="3">
-        <v>1200200</v>
+        <v>1426100</v>
       </c>
       <c r="F42" s="3">
-        <v>1003700</v>
+        <v>1253800</v>
       </c>
       <c r="G42" s="3">
-        <v>675000</v>
+        <v>1042100</v>
       </c>
       <c r="H42" s="3">
-        <v>427700</v>
+        <v>700800</v>
       </c>
       <c r="I42" s="3">
-        <v>437200</v>
+        <v>444100</v>
       </c>
       <c r="J42" s="3">
+        <v>453900</v>
+      </c>
+      <c r="K42" s="3">
         <v>287700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>158300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>142400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90700</v>
+        <v>71800</v>
       </c>
       <c r="E43" s="3">
-        <v>73100</v>
+        <v>84300</v>
       </c>
       <c r="F43" s="3">
-        <v>120000</v>
+        <v>78900</v>
       </c>
       <c r="G43" s="3">
-        <v>215900</v>
+        <v>124500</v>
       </c>
       <c r="H43" s="3">
-        <v>149100</v>
+        <v>224100</v>
       </c>
       <c r="I43" s="3">
-        <v>39300</v>
+        <v>154800</v>
       </c>
       <c r="J43" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K43" s="3">
         <v>45000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>77500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="E44" s="3">
-        <v>4700</v>
+        <v>7400</v>
       </c>
       <c r="F44" s="3">
-        <v>5000</v>
+        <v>5900</v>
       </c>
       <c r="G44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L44" s="3">
         <v>7700</v>
       </c>
-      <c r="H44" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>7700</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19400</v>
+        <v>11800</v>
       </c>
       <c r="E45" s="3">
-        <v>6600</v>
+        <v>22900</v>
       </c>
       <c r="F45" s="3">
-        <v>24200</v>
+        <v>9900</v>
       </c>
       <c r="G45" s="3">
-        <v>66500</v>
+        <v>25100</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>69100</v>
       </c>
       <c r="I45" s="3">
-        <v>18800</v>
+        <v>12900</v>
       </c>
       <c r="J45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1506800</v>
+        <v>1343500</v>
       </c>
       <c r="E46" s="3">
-        <v>1295400</v>
+        <v>1567300</v>
       </c>
       <c r="F46" s="3">
-        <v>1175000</v>
+        <v>1362600</v>
       </c>
       <c r="G46" s="3">
-        <v>856900</v>
+        <v>1219900</v>
       </c>
       <c r="H46" s="3">
-        <v>557000</v>
+        <v>889700</v>
       </c>
       <c r="I46" s="3">
-        <v>488000</v>
+        <v>578300</v>
       </c>
       <c r="J46" s="3">
+        <v>506600</v>
+      </c>
+      <c r="K46" s="3">
         <v>181200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>178600</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132400</v>
+        <v>182700</v>
       </c>
       <c r="E47" s="3">
-        <v>182900</v>
+        <v>96100</v>
       </c>
       <c r="F47" s="3">
-        <v>203900</v>
+        <v>144200</v>
       </c>
       <c r="G47" s="3">
-        <v>187400</v>
+        <v>211700</v>
       </c>
       <c r="H47" s="3">
-        <v>170700</v>
+        <v>194500</v>
       </c>
       <c r="I47" s="3">
-        <v>113300</v>
+        <v>177200</v>
       </c>
       <c r="J47" s="3">
+        <v>117700</v>
+      </c>
+      <c r="K47" s="3">
         <v>82800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>86200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55900</v>
+        <v>56300</v>
       </c>
       <c r="E48" s="3">
-        <v>50700</v>
+        <v>58100</v>
       </c>
       <c r="F48" s="3">
-        <v>51200</v>
+        <v>52700</v>
       </c>
       <c r="G48" s="3">
-        <v>102400</v>
+        <v>53100</v>
       </c>
       <c r="H48" s="3">
-        <v>85700</v>
+        <v>106300</v>
       </c>
       <c r="I48" s="3">
-        <v>40000</v>
+        <v>89000</v>
       </c>
       <c r="J48" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K48" s="3">
         <v>60900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1728000</v>
+        <v>2015200</v>
       </c>
       <c r="E49" s="3">
-        <v>1030900</v>
+        <v>1986500</v>
       </c>
       <c r="F49" s="3">
-        <v>918300</v>
+        <v>2324400</v>
       </c>
       <c r="G49" s="3">
-        <v>1608200</v>
+        <v>953400</v>
       </c>
       <c r="H49" s="3">
-        <v>1449600</v>
+        <v>1669700</v>
       </c>
       <c r="I49" s="3">
-        <v>1229200</v>
+        <v>1505000</v>
       </c>
       <c r="J49" s="3">
+        <v>1276200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1644800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>927300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>385500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109800</v>
+        <v>169800</v>
       </c>
       <c r="E52" s="3">
-        <v>92500</v>
+        <v>116300</v>
       </c>
       <c r="F52" s="3">
-        <v>66800</v>
+        <v>100200</v>
       </c>
       <c r="G52" s="3">
-        <v>83500</v>
+        <v>69400</v>
       </c>
       <c r="H52" s="3">
-        <v>80100</v>
+        <v>86700</v>
       </c>
       <c r="I52" s="3">
-        <v>117900</v>
+        <v>83100</v>
       </c>
       <c r="J52" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K52" s="3">
         <v>121300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3532900</v>
+        <v>3767600</v>
       </c>
       <c r="E54" s="3">
-        <v>2652400</v>
+        <v>3824300</v>
       </c>
       <c r="F54" s="3">
-        <v>2415200</v>
+        <v>2913700</v>
       </c>
       <c r="G54" s="3">
-        <v>1977000</v>
+        <v>2507500</v>
       </c>
       <c r="H54" s="3">
-        <v>1553600</v>
+        <v>2052700</v>
       </c>
       <c r="I54" s="3">
-        <v>1319000</v>
+        <v>1613000</v>
       </c>
       <c r="J54" s="3">
+        <v>1369400</v>
+      </c>
+      <c r="K54" s="3">
         <v>905400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>748800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>728600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20100</v>
+        <v>32200</v>
       </c>
       <c r="E57" s="3">
-        <v>11400</v>
+        <v>30900</v>
       </c>
       <c r="F57" s="3">
-        <v>11500</v>
+        <v>21400</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="H57" s="3">
-        <v>6700</v>
+        <v>13100</v>
       </c>
       <c r="I57" s="3">
-        <v>4600</v>
+        <v>6900</v>
       </c>
       <c r="J57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10900</v>
+        <v>32400</v>
       </c>
       <c r="E58" s="3">
-        <v>15500</v>
+        <v>11300</v>
       </c>
       <c r="F58" s="3">
-        <v>34300</v>
+        <v>19200</v>
       </c>
       <c r="G58" s="3">
-        <v>56700</v>
+        <v>35600</v>
       </c>
       <c r="H58" s="3">
-        <v>54200</v>
+        <v>58900</v>
       </c>
       <c r="I58" s="3">
-        <v>25700</v>
+        <v>56300</v>
       </c>
       <c r="J58" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K58" s="3">
         <v>36000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>244800</v>
+        <v>115000</v>
       </c>
       <c r="E59" s="3">
-        <v>216500</v>
+        <v>267600</v>
       </c>
       <c r="F59" s="3">
-        <v>100600</v>
+        <v>234800</v>
       </c>
       <c r="G59" s="3">
-        <v>103600</v>
+        <v>104400</v>
       </c>
       <c r="H59" s="3">
-        <v>163300</v>
+        <v>107600</v>
       </c>
       <c r="I59" s="3">
-        <v>62400</v>
+        <v>169500</v>
       </c>
       <c r="J59" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K59" s="3">
         <v>41100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>275700</v>
+        <v>179500</v>
       </c>
       <c r="E60" s="3">
-        <v>243300</v>
+        <v>309800</v>
       </c>
       <c r="F60" s="3">
-        <v>146400</v>
+        <v>275400</v>
       </c>
       <c r="G60" s="3">
-        <v>134400</v>
+        <v>152000</v>
       </c>
       <c r="H60" s="3">
-        <v>160200</v>
+        <v>139500</v>
       </c>
       <c r="I60" s="3">
-        <v>76800</v>
+        <v>166400</v>
       </c>
       <c r="J60" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K60" s="3">
         <v>68000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>773900</v>
+        <v>794700</v>
       </c>
       <c r="E61" s="3">
-        <v>264500</v>
+        <v>862500</v>
       </c>
       <c r="F61" s="3">
-        <v>208100</v>
+        <v>333300</v>
       </c>
       <c r="G61" s="3">
-        <v>221800</v>
+        <v>216100</v>
       </c>
       <c r="H61" s="3">
-        <v>261800</v>
+        <v>230300</v>
       </c>
       <c r="I61" s="3">
-        <v>319700</v>
+        <v>271900</v>
       </c>
       <c r="J61" s="3">
+        <v>331900</v>
+      </c>
+      <c r="K61" s="3">
         <v>405000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>381700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>497000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71300</v>
+        <v>127700</v>
       </c>
       <c r="E62" s="3">
-        <v>16100</v>
+        <v>117800</v>
       </c>
       <c r="F62" s="3">
-        <v>9800</v>
+        <v>59300</v>
       </c>
       <c r="G62" s="3">
-        <v>23300</v>
+        <v>10200</v>
       </c>
       <c r="H62" s="3">
-        <v>26400</v>
+        <v>24200</v>
       </c>
       <c r="I62" s="3">
-        <v>21600</v>
+        <v>27500</v>
       </c>
       <c r="J62" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1436500</v>
+        <v>1470100</v>
       </c>
       <c r="E66" s="3">
-        <v>721300</v>
+        <v>1647800</v>
       </c>
       <c r="F66" s="3">
-        <v>550600</v>
+        <v>908700</v>
       </c>
       <c r="G66" s="3">
-        <v>479100</v>
+        <v>571600</v>
       </c>
       <c r="H66" s="3">
-        <v>448700</v>
+        <v>497400</v>
       </c>
       <c r="I66" s="3">
-        <v>409600</v>
+        <v>465900</v>
       </c>
       <c r="J66" s="3">
+        <v>425300</v>
+      </c>
+      <c r="K66" s="3">
         <v>482800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>549700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>921900</v>
+        <v>1397200</v>
       </c>
       <c r="E72" s="3">
-        <v>1032800</v>
+        <v>957200</v>
       </c>
       <c r="F72" s="3">
-        <v>1195200</v>
+        <v>1072300</v>
       </c>
       <c r="G72" s="3">
-        <v>1571200</v>
+        <v>1240900</v>
       </c>
       <c r="H72" s="3">
-        <v>983500</v>
+        <v>1631300</v>
       </c>
       <c r="I72" s="3">
-        <v>573500</v>
+        <v>1021100</v>
       </c>
       <c r="J72" s="3">
+        <v>595500</v>
+      </c>
+      <c r="K72" s="3">
         <v>407400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>279400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2096400</v>
+        <v>2297500</v>
       </c>
       <c r="E76" s="3">
-        <v>1931200</v>
+        <v>2176500</v>
       </c>
       <c r="F76" s="3">
-        <v>1864600</v>
+        <v>2005000</v>
       </c>
       <c r="G76" s="3">
-        <v>1498000</v>
+        <v>1935900</v>
       </c>
       <c r="H76" s="3">
-        <v>1104800</v>
+        <v>1555300</v>
       </c>
       <c r="I76" s="3">
-        <v>909300</v>
+        <v>1147100</v>
       </c>
       <c r="J76" s="3">
+        <v>944100</v>
+      </c>
+      <c r="K76" s="3">
         <v>422600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>295500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>178900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220600</v>
+        <v>133600</v>
       </c>
       <c r="E81" s="3">
-        <v>252400</v>
+        <v>229100</v>
       </c>
       <c r="F81" s="3">
-        <v>211700</v>
+        <v>262100</v>
       </c>
       <c r="G81" s="3">
-        <v>231400</v>
+        <v>219800</v>
       </c>
       <c r="H81" s="3">
-        <v>224300</v>
+        <v>240300</v>
       </c>
       <c r="I81" s="3">
-        <v>107200</v>
+        <v>232900</v>
       </c>
       <c r="J81" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K81" s="3">
         <v>105900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,31 +3096,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28600</v>
+        <v>43300</v>
       </c>
       <c r="E83" s="3">
-        <v>17200</v>
+        <v>34700</v>
       </c>
       <c r="F83" s="3">
-        <v>20500</v>
+        <v>22800</v>
       </c>
       <c r="G83" s="3">
-        <v>17900</v>
+        <v>21300</v>
       </c>
       <c r="H83" s="3">
-        <v>13500</v>
+        <v>18600</v>
       </c>
       <c r="I83" s="3">
-        <v>13900</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>14100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>291700</v>
+        <v>206300</v>
       </c>
       <c r="E89" s="3">
-        <v>366700</v>
+        <v>-88600</v>
       </c>
       <c r="F89" s="3">
-        <v>225800</v>
+        <v>385100</v>
       </c>
       <c r="G89" s="3">
-        <v>295900</v>
+        <v>234400</v>
       </c>
       <c r="H89" s="3">
-        <v>277500</v>
+        <v>307200</v>
       </c>
       <c r="I89" s="3">
-        <v>230300</v>
+        <v>288100</v>
       </c>
       <c r="J89" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K89" s="3">
         <v>173900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>123900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12100</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
-        <v>-5500</v>
+        <v>-12500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-5800</v>
       </c>
       <c r="G91" s="3">
-        <v>-26500</v>
+        <v>-3200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8300</v>
+        <v>-27500</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="J91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,32 +3469,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-437200</v>
+        <v>161600</v>
       </c>
       <c r="E94" s="3">
-        <v>-270100</v>
+        <v>-51800</v>
       </c>
       <c r="F94" s="3">
-        <v>-418900</v>
+        <v>-254500</v>
       </c>
       <c r="G94" s="3">
-        <v>-395900</v>
+        <v>-435000</v>
       </c>
       <c r="H94" s="3">
-        <v>-174700</v>
+        <v>-411000</v>
       </c>
       <c r="I94" s="3">
-        <v>-432600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-181400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-449200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3276,9 +3505,12 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,25 +3524,26 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-96700</v>
+        <v>-100400</v>
       </c>
       <c r="E96" s="3">
-        <v>-96700</v>
+        <v>-100400</v>
       </c>
       <c r="F96" s="3">
-        <v>-38700</v>
+        <v>-100400</v>
       </c>
       <c r="G96" s="3">
-        <v>-19300</v>
+        <v>-40200</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-20100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,32 +3665,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>180100</v>
+        <v>-269100</v>
       </c>
       <c r="E100" s="3">
-        <v>-113200</v>
+        <v>176300</v>
       </c>
       <c r="F100" s="3">
-        <v>183400</v>
+        <v>-147800</v>
       </c>
       <c r="G100" s="3">
-        <v>120200</v>
+        <v>190400</v>
       </c>
       <c r="H100" s="3">
-        <v>-86400</v>
+        <v>124800</v>
       </c>
       <c r="I100" s="3">
-        <v>212400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-89700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>220500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3456,32 +3701,35 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-21900</v>
+        <v>-66400</v>
       </c>
       <c r="E101" s="3">
-        <v>5300</v>
+        <v>-22800</v>
       </c>
       <c r="F101" s="3">
-        <v>328200</v>
+        <v>5500</v>
       </c>
       <c r="G101" s="3">
-        <v>-13200</v>
+        <v>340800</v>
       </c>
       <c r="H101" s="3">
-        <v>-7800</v>
+        <v>-13700</v>
       </c>
       <c r="I101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J101" s="3">
         <v>1400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12600</v>
+        <v>32500</v>
       </c>
       <c r="E102" s="3">
-        <v>-11300</v>
+        <v>13100</v>
       </c>
       <c r="F102" s="3">
-        <v>318400</v>
+        <v>-11800</v>
       </c>
       <c r="G102" s="3">
-        <v>7100</v>
+        <v>330600</v>
       </c>
       <c r="H102" s="3">
-        <v>8600</v>
+        <v>7300</v>
       </c>
       <c r="I102" s="3">
-        <v>11400</v>
+        <v>8900</v>
       </c>
       <c r="J102" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>498800</v>
+        <v>492900</v>
       </c>
       <c r="E8" s="3">
-        <v>605100</v>
+        <v>597900</v>
       </c>
       <c r="F8" s="3">
-        <v>611400</v>
+        <v>604100</v>
       </c>
       <c r="G8" s="3">
-        <v>502600</v>
+        <v>496600</v>
       </c>
       <c r="H8" s="3">
-        <v>529300</v>
+        <v>523000</v>
       </c>
       <c r="I8" s="3">
-        <v>526700</v>
+        <v>520400</v>
       </c>
       <c r="J8" s="3">
-        <v>340000</v>
+        <v>335900</v>
       </c>
       <c r="K8" s="3">
         <v>281600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>240500</v>
+        <v>237600</v>
       </c>
       <c r="E9" s="3">
-        <v>279300</v>
+        <v>276000</v>
       </c>
       <c r="F9" s="3">
-        <v>277500</v>
+        <v>274200</v>
       </c>
       <c r="G9" s="3">
-        <v>207600</v>
+        <v>205100</v>
       </c>
       <c r="H9" s="3">
-        <v>236200</v>
+        <v>233400</v>
       </c>
       <c r="I9" s="3">
-        <v>278100</v>
+        <v>274700</v>
       </c>
       <c r="J9" s="3">
-        <v>154700</v>
+        <v>152800</v>
       </c>
       <c r="K9" s="3">
         <v>120800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>258300</v>
+        <v>255200</v>
       </c>
       <c r="E10" s="3">
-        <v>325800</v>
+        <v>321900</v>
       </c>
       <c r="F10" s="3">
-        <v>333900</v>
+        <v>329900</v>
       </c>
       <c r="G10" s="3">
-        <v>295000</v>
+        <v>291500</v>
       </c>
       <c r="H10" s="3">
-        <v>293100</v>
+        <v>289600</v>
       </c>
       <c r="I10" s="3">
-        <v>248600</v>
+        <v>245600</v>
       </c>
       <c r="J10" s="3">
-        <v>185300</v>
+        <v>183100</v>
       </c>
       <c r="K10" s="3">
         <v>160800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242800</v>
+        <v>239900</v>
       </c>
       <c r="E17" s="3">
-        <v>282700</v>
+        <v>279300</v>
       </c>
       <c r="F17" s="3">
-        <v>277700</v>
+        <v>274400</v>
       </c>
       <c r="G17" s="3">
-        <v>204800</v>
+        <v>202400</v>
       </c>
       <c r="H17" s="3">
-        <v>233200</v>
+        <v>230400</v>
       </c>
       <c r="I17" s="3">
-        <v>273300</v>
+        <v>270100</v>
       </c>
       <c r="J17" s="3">
-        <v>148800</v>
+        <v>147000</v>
       </c>
       <c r="K17" s="3">
         <v>118600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>256000</v>
+        <v>253000</v>
       </c>
       <c r="E18" s="3">
-        <v>322500</v>
+        <v>318600</v>
       </c>
       <c r="F18" s="3">
-        <v>333700</v>
+        <v>329700</v>
       </c>
       <c r="G18" s="3">
-        <v>297800</v>
+        <v>294200</v>
       </c>
       <c r="H18" s="3">
-        <v>296100</v>
+        <v>292600</v>
       </c>
       <c r="I18" s="3">
-        <v>253300</v>
+        <v>250300</v>
       </c>
       <c r="J18" s="3">
-        <v>191300</v>
+        <v>189000</v>
       </c>
       <c r="K18" s="3">
         <v>163000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-46100</v>
+        <v>-45500</v>
       </c>
       <c r="E20" s="3">
-        <v>80000</v>
+        <v>79100</v>
       </c>
       <c r="F20" s="3">
-        <v>79400</v>
+        <v>78400</v>
       </c>
       <c r="G20" s="3">
-        <v>38200</v>
+        <v>37700</v>
       </c>
       <c r="H20" s="3">
-        <v>45800</v>
+        <v>45300</v>
       </c>
       <c r="I20" s="3">
-        <v>41700</v>
+        <v>41200</v>
       </c>
       <c r="J20" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>253400</v>
+        <v>250500</v>
       </c>
       <c r="E21" s="3">
-        <v>437300</v>
+        <v>432200</v>
       </c>
       <c r="F21" s="3">
-        <v>435900</v>
+        <v>430800</v>
       </c>
       <c r="G21" s="3">
-        <v>357300</v>
+        <v>353100</v>
       </c>
       <c r="H21" s="3">
-        <v>360600</v>
+        <v>356300</v>
       </c>
       <c r="I21" s="3">
-        <v>309100</v>
+        <v>305500</v>
       </c>
       <c r="J21" s="3">
-        <v>225800</v>
+        <v>223100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1164,22 +1164,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>46200</v>
+        <v>45600</v>
       </c>
       <c r="F22" s="3">
-        <v>32500</v>
+        <v>32200</v>
       </c>
       <c r="G22" s="3">
-        <v>32700</v>
+        <v>32300</v>
       </c>
       <c r="H22" s="3">
-        <v>59300</v>
+        <v>58600</v>
       </c>
       <c r="I22" s="3">
-        <v>37000</v>
+        <v>36600</v>
       </c>
       <c r="J22" s="3">
-        <v>80500</v>
+        <v>79600</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>210000</v>
+        <v>207400</v>
       </c>
       <c r="E23" s="3">
-        <v>356400</v>
+        <v>352100</v>
       </c>
       <c r="F23" s="3">
-        <v>380500</v>
+        <v>376000</v>
       </c>
       <c r="G23" s="3">
-        <v>303200</v>
+        <v>299600</v>
       </c>
       <c r="H23" s="3">
-        <v>282700</v>
+        <v>279300</v>
       </c>
       <c r="I23" s="3">
-        <v>258000</v>
+        <v>254900</v>
       </c>
       <c r="J23" s="3">
-        <v>130900</v>
+        <v>129300</v>
       </c>
       <c r="K23" s="3">
         <v>121100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38400</v>
+        <v>37900</v>
       </c>
       <c r="E24" s="3">
-        <v>90300</v>
+        <v>89200</v>
       </c>
       <c r="F24" s="3">
-        <v>80000</v>
+        <v>79100</v>
       </c>
       <c r="G24" s="3">
-        <v>60500</v>
+        <v>59800</v>
       </c>
       <c r="H24" s="3">
-        <v>39600</v>
+        <v>39100</v>
       </c>
       <c r="I24" s="3">
-        <v>24100</v>
+        <v>23800</v>
       </c>
       <c r="J24" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="K24" s="3">
         <v>15000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>171600</v>
+        <v>169500</v>
       </c>
       <c r="E26" s="3">
-        <v>266000</v>
+        <v>262900</v>
       </c>
       <c r="F26" s="3">
-        <v>300500</v>
+        <v>296900</v>
       </c>
       <c r="G26" s="3">
-        <v>242700</v>
+        <v>239800</v>
       </c>
       <c r="H26" s="3">
-        <v>243100</v>
+        <v>240200</v>
       </c>
       <c r="I26" s="3">
-        <v>233900</v>
+        <v>231100</v>
       </c>
       <c r="J26" s="3">
-        <v>111500</v>
+        <v>110100</v>
       </c>
       <c r="K26" s="3">
         <v>106000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>133600</v>
+        <v>132000</v>
       </c>
       <c r="E27" s="3">
-        <v>229100</v>
+        <v>226300</v>
       </c>
       <c r="F27" s="3">
-        <v>262100</v>
+        <v>259000</v>
       </c>
       <c r="G27" s="3">
-        <v>220200</v>
+        <v>217600</v>
       </c>
       <c r="H27" s="3">
-        <v>240300</v>
+        <v>237400</v>
       </c>
       <c r="I27" s="3">
-        <v>233900</v>
+        <v>231100</v>
       </c>
       <c r="J27" s="3">
-        <v>111400</v>
+        <v>110100</v>
       </c>
       <c r="K27" s="3">
         <v>106000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>46100</v>
+        <v>45500</v>
       </c>
       <c r="E32" s="3">
-        <v>-80000</v>
+        <v>-79100</v>
       </c>
       <c r="F32" s="3">
-        <v>-79400</v>
+        <v>-78400</v>
       </c>
       <c r="G32" s="3">
-        <v>-38200</v>
+        <v>-37700</v>
       </c>
       <c r="H32" s="3">
-        <v>-45800</v>
+        <v>-45300</v>
       </c>
       <c r="I32" s="3">
-        <v>-41700</v>
+        <v>-41200</v>
       </c>
       <c r="J32" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>133600</v>
+        <v>132000</v>
       </c>
       <c r="E33" s="3">
-        <v>229100</v>
+        <v>226300</v>
       </c>
       <c r="F33" s="3">
-        <v>262100</v>
+        <v>259000</v>
       </c>
       <c r="G33" s="3">
-        <v>219800</v>
+        <v>217200</v>
       </c>
       <c r="H33" s="3">
-        <v>240300</v>
+        <v>237400</v>
       </c>
       <c r="I33" s="3">
-        <v>232900</v>
+        <v>230100</v>
       </c>
       <c r="J33" s="3">
-        <v>111300</v>
+        <v>110000</v>
       </c>
       <c r="K33" s="3">
         <v>105900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>133600</v>
+        <v>132000</v>
       </c>
       <c r="E35" s="3">
-        <v>229100</v>
+        <v>226300</v>
       </c>
       <c r="F35" s="3">
-        <v>262100</v>
+        <v>259000</v>
       </c>
       <c r="G35" s="3">
-        <v>219800</v>
+        <v>217200</v>
       </c>
       <c r="H35" s="3">
-        <v>240300</v>
+        <v>237400</v>
       </c>
       <c r="I35" s="3">
-        <v>232900</v>
+        <v>230100</v>
       </c>
       <c r="J35" s="3">
-        <v>111300</v>
+        <v>110000</v>
       </c>
       <c r="K35" s="3">
         <v>105900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56900</v>
+        <v>56200</v>
       </c>
       <c r="E41" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="F41" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="G41" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="H41" s="3">
-        <v>771700</v>
+        <v>762500</v>
       </c>
       <c r="I41" s="3">
-        <v>515900</v>
+        <v>509700</v>
       </c>
       <c r="J41" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="K41" s="3">
         <v>5300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1196200</v>
+        <v>1181900</v>
       </c>
       <c r="E42" s="3">
-        <v>1426100</v>
+        <v>1409100</v>
       </c>
       <c r="F42" s="3">
-        <v>1253800</v>
+        <v>1238900</v>
       </c>
       <c r="G42" s="3">
-        <v>1042100</v>
+        <v>1029700</v>
       </c>
       <c r="H42" s="3">
-        <v>700800</v>
+        <v>692500</v>
       </c>
       <c r="I42" s="3">
-        <v>444100</v>
+        <v>438800</v>
       </c>
       <c r="J42" s="3">
-        <v>453900</v>
+        <v>448500</v>
       </c>
       <c r="K42" s="3">
         <v>287700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71800</v>
+        <v>71000</v>
       </c>
       <c r="E43" s="3">
-        <v>84300</v>
+        <v>83300</v>
       </c>
       <c r="F43" s="3">
-        <v>78900</v>
+        <v>77900</v>
       </c>
       <c r="G43" s="3">
-        <v>124500</v>
+        <v>123100</v>
       </c>
       <c r="H43" s="3">
-        <v>224100</v>
+        <v>221400</v>
       </c>
       <c r="I43" s="3">
-        <v>154800</v>
+        <v>152900</v>
       </c>
       <c r="J43" s="3">
-        <v>40800</v>
+        <v>40300</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E44" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F44" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G44" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H44" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I44" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="J44" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="F45" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G45" s="3">
-        <v>25100</v>
+        <v>24800</v>
       </c>
       <c r="H45" s="3">
-        <v>69100</v>
+        <v>68300</v>
       </c>
       <c r="I45" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="J45" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1343500</v>
+        <v>1327500</v>
       </c>
       <c r="E46" s="3">
-        <v>1567300</v>
+        <v>1548600</v>
       </c>
       <c r="F46" s="3">
-        <v>1362600</v>
+        <v>1346300</v>
       </c>
       <c r="G46" s="3">
-        <v>1219900</v>
+        <v>1205400</v>
       </c>
       <c r="H46" s="3">
-        <v>889700</v>
+        <v>879000</v>
       </c>
       <c r="I46" s="3">
-        <v>578300</v>
+        <v>571400</v>
       </c>
       <c r="J46" s="3">
-        <v>506600</v>
+        <v>500600</v>
       </c>
       <c r="K46" s="3">
         <v>181200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>182700</v>
+        <v>180500</v>
       </c>
       <c r="E47" s="3">
-        <v>96100</v>
+        <v>95000</v>
       </c>
       <c r="F47" s="3">
-        <v>144200</v>
+        <v>142400</v>
       </c>
       <c r="G47" s="3">
-        <v>211700</v>
+        <v>209200</v>
       </c>
       <c r="H47" s="3">
-        <v>194500</v>
+        <v>192200</v>
       </c>
       <c r="I47" s="3">
-        <v>177200</v>
+        <v>175100</v>
       </c>
       <c r="J47" s="3">
-        <v>117700</v>
+        <v>116300</v>
       </c>
       <c r="K47" s="3">
         <v>82800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56300</v>
+        <v>55700</v>
       </c>
       <c r="E48" s="3">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="F48" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="3">
-        <v>53100</v>
+        <v>52500</v>
       </c>
       <c r="H48" s="3">
-        <v>106300</v>
+        <v>105000</v>
       </c>
       <c r="I48" s="3">
-        <v>89000</v>
+        <v>87900</v>
       </c>
       <c r="J48" s="3">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="K48" s="3">
         <v>60900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2015200</v>
+        <v>1991100</v>
       </c>
       <c r="E49" s="3">
-        <v>1986500</v>
+        <v>1962700</v>
       </c>
       <c r="F49" s="3">
-        <v>2324400</v>
+        <v>2296600</v>
       </c>
       <c r="G49" s="3">
-        <v>953400</v>
+        <v>942000</v>
       </c>
       <c r="H49" s="3">
-        <v>1669700</v>
+        <v>1649800</v>
       </c>
       <c r="I49" s="3">
-        <v>1505000</v>
+        <v>1487000</v>
       </c>
       <c r="J49" s="3">
-        <v>1276200</v>
+        <v>1260900</v>
       </c>
       <c r="K49" s="3">
         <v>1644800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>169800</v>
+        <v>167800</v>
       </c>
       <c r="E52" s="3">
-        <v>116300</v>
+        <v>114900</v>
       </c>
       <c r="F52" s="3">
-        <v>100200</v>
+        <v>99000</v>
       </c>
       <c r="G52" s="3">
-        <v>69400</v>
+        <v>68600</v>
       </c>
       <c r="H52" s="3">
-        <v>86700</v>
+        <v>85600</v>
       </c>
       <c r="I52" s="3">
-        <v>83100</v>
+        <v>82200</v>
       </c>
       <c r="J52" s="3">
-        <v>122400</v>
+        <v>120900</v>
       </c>
       <c r="K52" s="3">
         <v>121300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3767600</v>
+        <v>3722600</v>
       </c>
       <c r="E54" s="3">
-        <v>3824300</v>
+        <v>3778600</v>
       </c>
       <c r="F54" s="3">
-        <v>2913700</v>
+        <v>2878900</v>
       </c>
       <c r="G54" s="3">
-        <v>2507500</v>
+        <v>2477600</v>
       </c>
       <c r="H54" s="3">
-        <v>2052700</v>
+        <v>2028100</v>
       </c>
       <c r="I54" s="3">
-        <v>1613000</v>
+        <v>1593700</v>
       </c>
       <c r="J54" s="3">
-        <v>1369400</v>
+        <v>1353000</v>
       </c>
       <c r="K54" s="3">
         <v>905400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="E57" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="F57" s="3">
-        <v>21400</v>
+        <v>21100</v>
       </c>
       <c r="G57" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="H57" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="I57" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J57" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32400</v>
+        <v>32000</v>
       </c>
       <c r="E58" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="F58" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="G58" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H58" s="3">
-        <v>58900</v>
+        <v>58200</v>
       </c>
       <c r="I58" s="3">
-        <v>56300</v>
+        <v>55600</v>
       </c>
       <c r="J58" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="K58" s="3">
         <v>36000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>115000</v>
+        <v>113600</v>
       </c>
       <c r="E59" s="3">
-        <v>267600</v>
+        <v>264400</v>
       </c>
       <c r="F59" s="3">
-        <v>234800</v>
+        <v>232000</v>
       </c>
       <c r="G59" s="3">
-        <v>104400</v>
+        <v>103200</v>
       </c>
       <c r="H59" s="3">
-        <v>107600</v>
+        <v>106300</v>
       </c>
       <c r="I59" s="3">
-        <v>169500</v>
+        <v>167500</v>
       </c>
       <c r="J59" s="3">
-        <v>64800</v>
+        <v>64000</v>
       </c>
       <c r="K59" s="3">
         <v>41100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>179500</v>
+        <v>177400</v>
       </c>
       <c r="E60" s="3">
-        <v>309800</v>
+        <v>306100</v>
       </c>
       <c r="F60" s="3">
-        <v>275400</v>
+        <v>272100</v>
       </c>
       <c r="G60" s="3">
-        <v>152000</v>
+        <v>150200</v>
       </c>
       <c r="H60" s="3">
-        <v>139500</v>
+        <v>137800</v>
       </c>
       <c r="I60" s="3">
-        <v>166400</v>
+        <v>164400</v>
       </c>
       <c r="J60" s="3">
-        <v>79700</v>
+        <v>78800</v>
       </c>
       <c r="K60" s="3">
         <v>68000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>794700</v>
+        <v>785200</v>
       </c>
       <c r="E61" s="3">
-        <v>862500</v>
+        <v>852200</v>
       </c>
       <c r="F61" s="3">
-        <v>333300</v>
+        <v>329300</v>
       </c>
       <c r="G61" s="3">
-        <v>216100</v>
+        <v>213500</v>
       </c>
       <c r="H61" s="3">
-        <v>230300</v>
+        <v>227500</v>
       </c>
       <c r="I61" s="3">
-        <v>271900</v>
+        <v>268600</v>
       </c>
       <c r="J61" s="3">
-        <v>331900</v>
+        <v>328000</v>
       </c>
       <c r="K61" s="3">
         <v>405000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127700</v>
+        <v>126100</v>
       </c>
       <c r="E62" s="3">
-        <v>117800</v>
+        <v>116400</v>
       </c>
       <c r="F62" s="3">
-        <v>59300</v>
+        <v>58600</v>
       </c>
       <c r="G62" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="I62" s="3">
-        <v>27500</v>
+        <v>27100</v>
       </c>
       <c r="J62" s="3">
-        <v>22400</v>
+        <v>22100</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1470100</v>
+        <v>1452500</v>
       </c>
       <c r="E66" s="3">
-        <v>1647800</v>
+        <v>1628100</v>
       </c>
       <c r="F66" s="3">
-        <v>908700</v>
+        <v>897800</v>
       </c>
       <c r="G66" s="3">
-        <v>571600</v>
+        <v>564800</v>
       </c>
       <c r="H66" s="3">
-        <v>497400</v>
+        <v>491400</v>
       </c>
       <c r="I66" s="3">
-        <v>465900</v>
+        <v>460300</v>
       </c>
       <c r="J66" s="3">
-        <v>425300</v>
+        <v>420200</v>
       </c>
       <c r="K66" s="3">
         <v>482800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1397200</v>
+        <v>1380500</v>
       </c>
       <c r="E72" s="3">
-        <v>957200</v>
+        <v>945700</v>
       </c>
       <c r="F72" s="3">
-        <v>1072300</v>
+        <v>1059500</v>
       </c>
       <c r="G72" s="3">
-        <v>1240900</v>
+        <v>1226100</v>
       </c>
       <c r="H72" s="3">
-        <v>1631300</v>
+        <v>1611800</v>
       </c>
       <c r="I72" s="3">
-        <v>1021100</v>
+        <v>1008900</v>
       </c>
       <c r="J72" s="3">
-        <v>595500</v>
+        <v>588300</v>
       </c>
       <c r="K72" s="3">
         <v>407400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2297500</v>
+        <v>2270000</v>
       </c>
       <c r="E76" s="3">
-        <v>2176500</v>
+        <v>2150500</v>
       </c>
       <c r="F76" s="3">
-        <v>2005000</v>
+        <v>1981100</v>
       </c>
       <c r="G76" s="3">
-        <v>1935900</v>
+        <v>1912800</v>
       </c>
       <c r="H76" s="3">
-        <v>1555300</v>
+        <v>1536700</v>
       </c>
       <c r="I76" s="3">
-        <v>1147100</v>
+        <v>1133400</v>
       </c>
       <c r="J76" s="3">
-        <v>944100</v>
+        <v>932800</v>
       </c>
       <c r="K76" s="3">
         <v>422600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>133600</v>
+        <v>132000</v>
       </c>
       <c r="E81" s="3">
-        <v>229100</v>
+        <v>226300</v>
       </c>
       <c r="F81" s="3">
-        <v>262100</v>
+        <v>259000</v>
       </c>
       <c r="G81" s="3">
-        <v>219800</v>
+        <v>217200</v>
       </c>
       <c r="H81" s="3">
-        <v>240300</v>
+        <v>237400</v>
       </c>
       <c r="I81" s="3">
-        <v>232900</v>
+        <v>230100</v>
       </c>
       <c r="J81" s="3">
-        <v>111300</v>
+        <v>110000</v>
       </c>
       <c r="K81" s="3">
         <v>105900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="E83" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="F83" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="G83" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="H83" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="I83" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="J83" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>206300</v>
+        <v>203800</v>
       </c>
       <c r="E89" s="3">
-        <v>-88600</v>
+        <v>-87600</v>
       </c>
       <c r="F89" s="3">
-        <v>385100</v>
+        <v>380500</v>
       </c>
       <c r="G89" s="3">
-        <v>234400</v>
+        <v>231600</v>
       </c>
       <c r="H89" s="3">
-        <v>307200</v>
+        <v>303500</v>
       </c>
       <c r="I89" s="3">
-        <v>288100</v>
+        <v>284700</v>
       </c>
       <c r="J89" s="3">
-        <v>239100</v>
+        <v>236300</v>
       </c>
       <c r="K89" s="3">
         <v>173900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E91" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="F91" s="3">
         <v>-5800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H91" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="J91" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>161600</v>
+        <v>159700</v>
       </c>
       <c r="E94" s="3">
-        <v>-51800</v>
+        <v>-51200</v>
       </c>
       <c r="F94" s="3">
-        <v>-254500</v>
+        <v>-251500</v>
       </c>
       <c r="G94" s="3">
-        <v>-435000</v>
+        <v>-429800</v>
       </c>
       <c r="H94" s="3">
-        <v>-411000</v>
+        <v>-406100</v>
       </c>
       <c r="I94" s="3">
-        <v>-181400</v>
+        <v>-179200</v>
       </c>
       <c r="J94" s="3">
-        <v>-449200</v>
+        <v>-443800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100400</v>
+        <v>-99200</v>
       </c>
       <c r="E96" s="3">
-        <v>-100400</v>
+        <v>-99200</v>
       </c>
       <c r="F96" s="3">
-        <v>-100400</v>
+        <v>-99200</v>
       </c>
       <c r="G96" s="3">
-        <v>-40200</v>
+        <v>-39700</v>
       </c>
       <c r="H96" s="3">
-        <v>-20100</v>
+        <v>-19800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-269100</v>
+        <v>-265900</v>
       </c>
       <c r="E100" s="3">
-        <v>176300</v>
+        <v>174200</v>
       </c>
       <c r="F100" s="3">
-        <v>-147800</v>
+        <v>-146000</v>
       </c>
       <c r="G100" s="3">
-        <v>190400</v>
+        <v>188100</v>
       </c>
       <c r="H100" s="3">
-        <v>124800</v>
+        <v>123300</v>
       </c>
       <c r="I100" s="3">
-        <v>-89700</v>
+        <v>-88700</v>
       </c>
       <c r="J100" s="3">
-        <v>220500</v>
+        <v>217800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66400</v>
+        <v>-65600</v>
       </c>
       <c r="E101" s="3">
-        <v>-22800</v>
+        <v>-22500</v>
       </c>
       <c r="F101" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G101" s="3">
-        <v>340800</v>
+        <v>336700</v>
       </c>
       <c r="H101" s="3">
-        <v>-13700</v>
+        <v>-13500</v>
       </c>
       <c r="I101" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="J101" s="3">
         <v>1400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="E102" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="F102" s="3">
-        <v>-11800</v>
+        <v>-11600</v>
       </c>
       <c r="G102" s="3">
-        <v>330600</v>
+        <v>326600</v>
       </c>
       <c r="H102" s="3">
         <v>7300</v>
       </c>
       <c r="I102" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="J102" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>492900</v>
+        <v>458400</v>
       </c>
       <c r="E8" s="3">
-        <v>597900</v>
+        <v>556100</v>
       </c>
       <c r="F8" s="3">
-        <v>604100</v>
+        <v>561800</v>
       </c>
       <c r="G8" s="3">
-        <v>496600</v>
+        <v>461800</v>
       </c>
       <c r="H8" s="3">
-        <v>523000</v>
+        <v>486400</v>
       </c>
       <c r="I8" s="3">
-        <v>520400</v>
+        <v>484000</v>
       </c>
       <c r="J8" s="3">
-        <v>335900</v>
+        <v>312500</v>
       </c>
       <c r="K8" s="3">
         <v>281600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>237600</v>
+        <v>221000</v>
       </c>
       <c r="E9" s="3">
-        <v>276000</v>
+        <v>256700</v>
       </c>
       <c r="F9" s="3">
-        <v>274200</v>
+        <v>255000</v>
       </c>
       <c r="G9" s="3">
-        <v>205100</v>
+        <v>190700</v>
       </c>
       <c r="H9" s="3">
-        <v>233400</v>
+        <v>217100</v>
       </c>
       <c r="I9" s="3">
-        <v>274700</v>
+        <v>255500</v>
       </c>
       <c r="J9" s="3">
-        <v>152800</v>
+        <v>142100</v>
       </c>
       <c r="K9" s="3">
         <v>120800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>255200</v>
+        <v>237400</v>
       </c>
       <c r="E10" s="3">
-        <v>321900</v>
+        <v>299400</v>
       </c>
       <c r="F10" s="3">
-        <v>329900</v>
+        <v>306800</v>
       </c>
       <c r="G10" s="3">
-        <v>291500</v>
+        <v>271100</v>
       </c>
       <c r="H10" s="3">
-        <v>289600</v>
+        <v>269400</v>
       </c>
       <c r="I10" s="3">
-        <v>245600</v>
+        <v>228500</v>
       </c>
       <c r="J10" s="3">
-        <v>183100</v>
+        <v>170300</v>
       </c>
       <c r="K10" s="3">
         <v>160800</v>
@@ -958,10 +958,10 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>239900</v>
+        <v>223100</v>
       </c>
       <c r="E17" s="3">
-        <v>279300</v>
+        <v>259700</v>
       </c>
       <c r="F17" s="3">
-        <v>274400</v>
+        <v>255200</v>
       </c>
       <c r="G17" s="3">
-        <v>202400</v>
+        <v>188200</v>
       </c>
       <c r="H17" s="3">
-        <v>230400</v>
+        <v>214300</v>
       </c>
       <c r="I17" s="3">
-        <v>270100</v>
+        <v>251200</v>
       </c>
       <c r="J17" s="3">
-        <v>147000</v>
+        <v>136700</v>
       </c>
       <c r="K17" s="3">
         <v>118600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>253000</v>
+        <v>235300</v>
       </c>
       <c r="E18" s="3">
-        <v>318600</v>
+        <v>296400</v>
       </c>
       <c r="F18" s="3">
-        <v>329700</v>
+        <v>306600</v>
       </c>
       <c r="G18" s="3">
-        <v>294200</v>
+        <v>273600</v>
       </c>
       <c r="H18" s="3">
-        <v>292600</v>
+        <v>272100</v>
       </c>
       <c r="I18" s="3">
-        <v>250300</v>
+        <v>232800</v>
       </c>
       <c r="J18" s="3">
-        <v>189000</v>
+        <v>175800</v>
       </c>
       <c r="K18" s="3">
         <v>163000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45500</v>
+        <v>-42300</v>
       </c>
       <c r="E20" s="3">
-        <v>79100</v>
+        <v>73500</v>
       </c>
       <c r="F20" s="3">
-        <v>78400</v>
+        <v>72900</v>
       </c>
       <c r="G20" s="3">
-        <v>37700</v>
+        <v>35100</v>
       </c>
       <c r="H20" s="3">
-        <v>45300</v>
+        <v>42100</v>
       </c>
       <c r="I20" s="3">
-        <v>41200</v>
+        <v>38300</v>
       </c>
       <c r="J20" s="3">
-        <v>19900</v>
+        <v>18500</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>250500</v>
+        <v>232300</v>
       </c>
       <c r="E21" s="3">
-        <v>432200</v>
+        <v>401400</v>
       </c>
       <c r="F21" s="3">
-        <v>430800</v>
+        <v>400300</v>
       </c>
       <c r="G21" s="3">
-        <v>353100</v>
+        <v>328100</v>
       </c>
       <c r="H21" s="3">
-        <v>356300</v>
+        <v>331100</v>
       </c>
       <c r="I21" s="3">
-        <v>305500</v>
+        <v>283900</v>
       </c>
       <c r="J21" s="3">
-        <v>223100</v>
+        <v>207300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1164,22 +1164,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>45600</v>
+        <v>42400</v>
       </c>
       <c r="F22" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="G22" s="3">
-        <v>32300</v>
+        <v>30100</v>
       </c>
       <c r="H22" s="3">
-        <v>58600</v>
+        <v>54500</v>
       </c>
       <c r="I22" s="3">
-        <v>36600</v>
+        <v>34000</v>
       </c>
       <c r="J22" s="3">
-        <v>79600</v>
+        <v>74000</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>207400</v>
+        <v>192900</v>
       </c>
       <c r="E23" s="3">
-        <v>352100</v>
+        <v>327500</v>
       </c>
       <c r="F23" s="3">
-        <v>376000</v>
+        <v>349700</v>
       </c>
       <c r="G23" s="3">
-        <v>299600</v>
+        <v>278700</v>
       </c>
       <c r="H23" s="3">
-        <v>279300</v>
+        <v>259800</v>
       </c>
       <c r="I23" s="3">
-        <v>254900</v>
+        <v>237100</v>
       </c>
       <c r="J23" s="3">
-        <v>129300</v>
+        <v>120300</v>
       </c>
       <c r="K23" s="3">
         <v>121100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37900</v>
+        <v>35300</v>
       </c>
       <c r="E24" s="3">
-        <v>89200</v>
+        <v>83000</v>
       </c>
       <c r="F24" s="3">
-        <v>79100</v>
+        <v>73600</v>
       </c>
       <c r="G24" s="3">
-        <v>59800</v>
+        <v>55600</v>
       </c>
       <c r="H24" s="3">
-        <v>39100</v>
+        <v>36300</v>
       </c>
       <c r="I24" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="J24" s="3">
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="K24" s="3">
         <v>15000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169500</v>
+        <v>157700</v>
       </c>
       <c r="E26" s="3">
-        <v>262900</v>
+        <v>244500</v>
       </c>
       <c r="F26" s="3">
-        <v>296900</v>
+        <v>276100</v>
       </c>
       <c r="G26" s="3">
-        <v>239800</v>
+        <v>223100</v>
       </c>
       <c r="H26" s="3">
-        <v>240200</v>
+        <v>223400</v>
       </c>
       <c r="I26" s="3">
-        <v>231100</v>
+        <v>214900</v>
       </c>
       <c r="J26" s="3">
-        <v>110100</v>
+        <v>102400</v>
       </c>
       <c r="K26" s="3">
         <v>106000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132000</v>
+        <v>122800</v>
       </c>
       <c r="E27" s="3">
-        <v>226300</v>
+        <v>210500</v>
       </c>
       <c r="F27" s="3">
-        <v>259000</v>
+        <v>240800</v>
       </c>
       <c r="G27" s="3">
-        <v>217600</v>
+        <v>202400</v>
       </c>
       <c r="H27" s="3">
-        <v>237400</v>
+        <v>220800</v>
       </c>
       <c r="I27" s="3">
-        <v>231100</v>
+        <v>214900</v>
       </c>
       <c r="J27" s="3">
-        <v>110100</v>
+        <v>102400</v>
       </c>
       <c r="K27" s="3">
         <v>106000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45500</v>
+        <v>42300</v>
       </c>
       <c r="E32" s="3">
-        <v>-79100</v>
+        <v>-73500</v>
       </c>
       <c r="F32" s="3">
-        <v>-78400</v>
+        <v>-72900</v>
       </c>
       <c r="G32" s="3">
-        <v>-37700</v>
+        <v>-35100</v>
       </c>
       <c r="H32" s="3">
-        <v>-45300</v>
+        <v>-42100</v>
       </c>
       <c r="I32" s="3">
-        <v>-41200</v>
+        <v>-38300</v>
       </c>
       <c r="J32" s="3">
-        <v>-19900</v>
+        <v>-18500</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132000</v>
+        <v>122800</v>
       </c>
       <c r="E33" s="3">
-        <v>226300</v>
+        <v>210500</v>
       </c>
       <c r="F33" s="3">
-        <v>259000</v>
+        <v>240800</v>
       </c>
       <c r="G33" s="3">
-        <v>217200</v>
+        <v>202000</v>
       </c>
       <c r="H33" s="3">
-        <v>237400</v>
+        <v>220800</v>
       </c>
       <c r="I33" s="3">
-        <v>230100</v>
+        <v>214000</v>
       </c>
       <c r="J33" s="3">
-        <v>110000</v>
+        <v>102300</v>
       </c>
       <c r="K33" s="3">
         <v>105900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132000</v>
+        <v>122800</v>
       </c>
       <c r="E35" s="3">
-        <v>226300</v>
+        <v>210500</v>
       </c>
       <c r="F35" s="3">
-        <v>259000</v>
+        <v>240800</v>
       </c>
       <c r="G35" s="3">
-        <v>217200</v>
+        <v>202000</v>
       </c>
       <c r="H35" s="3">
-        <v>237400</v>
+        <v>220800</v>
       </c>
       <c r="I35" s="3">
-        <v>230100</v>
+        <v>214000</v>
       </c>
       <c r="J35" s="3">
-        <v>110000</v>
+        <v>102300</v>
       </c>
       <c r="K35" s="3">
         <v>105900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>56200</v>
+        <v>52300</v>
       </c>
       <c r="E41" s="3">
-        <v>24100</v>
+        <v>22400</v>
       </c>
       <c r="F41" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G41" s="3">
-        <v>22700</v>
+        <v>21100</v>
       </c>
       <c r="H41" s="3">
-        <v>762500</v>
+        <v>709100</v>
       </c>
       <c r="I41" s="3">
-        <v>509700</v>
+        <v>474100</v>
       </c>
       <c r="J41" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="K41" s="3">
         <v>5300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1181900</v>
+        <v>1099200</v>
       </c>
       <c r="E42" s="3">
-        <v>1409100</v>
+        <v>1310600</v>
       </c>
       <c r="F42" s="3">
-        <v>1238900</v>
+        <v>1152200</v>
       </c>
       <c r="G42" s="3">
-        <v>1029700</v>
+        <v>957700</v>
       </c>
       <c r="H42" s="3">
-        <v>692500</v>
+        <v>644000</v>
       </c>
       <c r="I42" s="3">
-        <v>438800</v>
+        <v>408100</v>
       </c>
       <c r="J42" s="3">
-        <v>448500</v>
+        <v>417100</v>
       </c>
       <c r="K42" s="3">
         <v>287700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>71000</v>
+        <v>66000</v>
       </c>
       <c r="E43" s="3">
-        <v>83300</v>
+        <v>77400</v>
       </c>
       <c r="F43" s="3">
-        <v>77900</v>
+        <v>72500</v>
       </c>
       <c r="G43" s="3">
-        <v>123100</v>
+        <v>114400</v>
       </c>
       <c r="H43" s="3">
-        <v>221400</v>
+        <v>205900</v>
       </c>
       <c r="I43" s="3">
-        <v>152900</v>
+        <v>142200</v>
       </c>
       <c r="J43" s="3">
-        <v>40300</v>
+        <v>37500</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
         <v>6800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H44" s="3">
         <v>7300</v>
       </c>
-      <c r="F44" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7900</v>
-      </c>
       <c r="I44" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="J44" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="E45" s="3">
-        <v>22700</v>
+        <v>21100</v>
       </c>
       <c r="F45" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="G45" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="H45" s="3">
-        <v>68300</v>
+        <v>63500</v>
       </c>
       <c r="I45" s="3">
-        <v>12800</v>
+        <v>11900</v>
       </c>
       <c r="J45" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1327500</v>
+        <v>1234600</v>
       </c>
       <c r="E46" s="3">
-        <v>1548600</v>
+        <v>1440300</v>
       </c>
       <c r="F46" s="3">
-        <v>1346300</v>
+        <v>1252200</v>
       </c>
       <c r="G46" s="3">
-        <v>1205400</v>
+        <v>1121100</v>
       </c>
       <c r="H46" s="3">
-        <v>879000</v>
+        <v>817600</v>
       </c>
       <c r="I46" s="3">
-        <v>571400</v>
+        <v>531400</v>
       </c>
       <c r="J46" s="3">
-        <v>500600</v>
+        <v>465600</v>
       </c>
       <c r="K46" s="3">
         <v>181200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>180500</v>
+        <v>167900</v>
       </c>
       <c r="E47" s="3">
-        <v>95000</v>
+        <v>88400</v>
       </c>
       <c r="F47" s="3">
-        <v>142400</v>
+        <v>132500</v>
       </c>
       <c r="G47" s="3">
-        <v>209200</v>
+        <v>194500</v>
       </c>
       <c r="H47" s="3">
-        <v>192200</v>
+        <v>178800</v>
       </c>
       <c r="I47" s="3">
-        <v>175100</v>
+        <v>162800</v>
       </c>
       <c r="J47" s="3">
-        <v>116300</v>
+        <v>108100</v>
       </c>
       <c r="K47" s="3">
         <v>82800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55700</v>
+        <v>51800</v>
       </c>
       <c r="E48" s="3">
-        <v>57400</v>
+        <v>53400</v>
       </c>
       <c r="F48" s="3">
-        <v>52000</v>
+        <v>48400</v>
       </c>
       <c r="G48" s="3">
-        <v>52500</v>
+        <v>48800</v>
       </c>
       <c r="H48" s="3">
-        <v>105000</v>
+        <v>97700</v>
       </c>
       <c r="I48" s="3">
-        <v>87900</v>
+        <v>81800</v>
       </c>
       <c r="J48" s="3">
-        <v>41000</v>
+        <v>38100</v>
       </c>
       <c r="K48" s="3">
         <v>60900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1991100</v>
+        <v>1851900</v>
       </c>
       <c r="E49" s="3">
-        <v>1962700</v>
+        <v>1825500</v>
       </c>
       <c r="F49" s="3">
-        <v>2296600</v>
+        <v>2136000</v>
       </c>
       <c r="G49" s="3">
-        <v>942000</v>
+        <v>876100</v>
       </c>
       <c r="H49" s="3">
-        <v>1649800</v>
+        <v>1534400</v>
       </c>
       <c r="I49" s="3">
-        <v>1487000</v>
+        <v>1383000</v>
       </c>
       <c r="J49" s="3">
-        <v>1260900</v>
+        <v>1172700</v>
       </c>
       <c r="K49" s="3">
         <v>1644800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>167800</v>
+        <v>156100</v>
       </c>
       <c r="E52" s="3">
-        <v>114900</v>
+        <v>106900</v>
       </c>
       <c r="F52" s="3">
-        <v>99000</v>
+        <v>92000</v>
       </c>
       <c r="G52" s="3">
-        <v>68600</v>
+        <v>63800</v>
       </c>
       <c r="H52" s="3">
-        <v>85600</v>
+        <v>79600</v>
       </c>
       <c r="I52" s="3">
-        <v>82200</v>
+        <v>76400</v>
       </c>
       <c r="J52" s="3">
-        <v>120900</v>
+        <v>112500</v>
       </c>
       <c r="K52" s="3">
         <v>121300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3722600</v>
+        <v>3462200</v>
       </c>
       <c r="E54" s="3">
-        <v>3778600</v>
+        <v>3514400</v>
       </c>
       <c r="F54" s="3">
-        <v>2878900</v>
+        <v>2677500</v>
       </c>
       <c r="G54" s="3">
-        <v>2477600</v>
+        <v>2304300</v>
       </c>
       <c r="H54" s="3">
-        <v>2028100</v>
+        <v>1886300</v>
       </c>
       <c r="I54" s="3">
-        <v>1593700</v>
+        <v>1482300</v>
       </c>
       <c r="J54" s="3">
-        <v>1353000</v>
+        <v>1258400</v>
       </c>
       <c r="K54" s="3">
         <v>905400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31800</v>
+        <v>29600</v>
       </c>
       <c r="E57" s="3">
-        <v>30500</v>
+        <v>28400</v>
       </c>
       <c r="F57" s="3">
-        <v>21100</v>
+        <v>19600</v>
       </c>
       <c r="G57" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="H57" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="I57" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="J57" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32000</v>
+        <v>29800</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
+        <v>10400</v>
       </c>
       <c r="F58" s="3">
-        <v>19000</v>
+        <v>17700</v>
       </c>
       <c r="G58" s="3">
-        <v>35200</v>
+        <v>32700</v>
       </c>
       <c r="H58" s="3">
-        <v>58200</v>
+        <v>54100</v>
       </c>
       <c r="I58" s="3">
-        <v>55600</v>
+        <v>51700</v>
       </c>
       <c r="J58" s="3">
-        <v>26400</v>
+        <v>24600</v>
       </c>
       <c r="K58" s="3">
         <v>36000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>113600</v>
+        <v>105700</v>
       </c>
       <c r="E59" s="3">
-        <v>264400</v>
+        <v>246000</v>
       </c>
       <c r="F59" s="3">
-        <v>232000</v>
+        <v>215800</v>
       </c>
       <c r="G59" s="3">
-        <v>103200</v>
+        <v>96000</v>
       </c>
       <c r="H59" s="3">
-        <v>106300</v>
+        <v>98900</v>
       </c>
       <c r="I59" s="3">
-        <v>167500</v>
+        <v>155800</v>
       </c>
       <c r="J59" s="3">
-        <v>64000</v>
+        <v>59500</v>
       </c>
       <c r="K59" s="3">
         <v>41100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177400</v>
+        <v>165000</v>
       </c>
       <c r="E60" s="3">
-        <v>306100</v>
+        <v>284700</v>
       </c>
       <c r="F60" s="3">
-        <v>272100</v>
+        <v>253100</v>
       </c>
       <c r="G60" s="3">
-        <v>150200</v>
+        <v>139700</v>
       </c>
       <c r="H60" s="3">
-        <v>137800</v>
+        <v>128200</v>
       </c>
       <c r="I60" s="3">
-        <v>164400</v>
+        <v>152900</v>
       </c>
       <c r="J60" s="3">
-        <v>78800</v>
+        <v>73300</v>
       </c>
       <c r="K60" s="3">
         <v>68000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>785200</v>
+        <v>730300</v>
       </c>
       <c r="E61" s="3">
-        <v>852200</v>
+        <v>792600</v>
       </c>
       <c r="F61" s="3">
-        <v>329300</v>
+        <v>306300</v>
       </c>
       <c r="G61" s="3">
-        <v>213500</v>
+        <v>198600</v>
       </c>
       <c r="H61" s="3">
-        <v>227500</v>
+        <v>211600</v>
       </c>
       <c r="I61" s="3">
-        <v>268600</v>
+        <v>249800</v>
       </c>
       <c r="J61" s="3">
-        <v>328000</v>
+        <v>305000</v>
       </c>
       <c r="K61" s="3">
         <v>405000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>126100</v>
+        <v>117300</v>
       </c>
       <c r="E62" s="3">
-        <v>116400</v>
+        <v>108300</v>
       </c>
       <c r="F62" s="3">
-        <v>58600</v>
+        <v>54500</v>
       </c>
       <c r="G62" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="H62" s="3">
-        <v>23900</v>
+        <v>22200</v>
       </c>
       <c r="I62" s="3">
-        <v>27100</v>
+        <v>25200</v>
       </c>
       <c r="J62" s="3">
-        <v>22100</v>
+        <v>20600</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1452500</v>
+        <v>1350900</v>
       </c>
       <c r="E66" s="3">
-        <v>1628100</v>
+        <v>1514200</v>
       </c>
       <c r="F66" s="3">
-        <v>897800</v>
+        <v>835000</v>
       </c>
       <c r="G66" s="3">
-        <v>564800</v>
+        <v>525300</v>
       </c>
       <c r="H66" s="3">
-        <v>491400</v>
+        <v>457100</v>
       </c>
       <c r="I66" s="3">
-        <v>460300</v>
+        <v>428100</v>
       </c>
       <c r="J66" s="3">
-        <v>420200</v>
+        <v>390800</v>
       </c>
       <c r="K66" s="3">
         <v>482800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1380500</v>
+        <v>1284000</v>
       </c>
       <c r="E72" s="3">
-        <v>945700</v>
+        <v>879600</v>
       </c>
       <c r="F72" s="3">
-        <v>1059500</v>
+        <v>985400</v>
       </c>
       <c r="G72" s="3">
-        <v>1226100</v>
+        <v>1140300</v>
       </c>
       <c r="H72" s="3">
-        <v>1611800</v>
+        <v>1499100</v>
       </c>
       <c r="I72" s="3">
-        <v>1008900</v>
+        <v>938300</v>
       </c>
       <c r="J72" s="3">
-        <v>588300</v>
+        <v>547200</v>
       </c>
       <c r="K72" s="3">
         <v>407400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2270000</v>
+        <v>2111300</v>
       </c>
       <c r="E76" s="3">
-        <v>2150500</v>
+        <v>2000200</v>
       </c>
       <c r="F76" s="3">
-        <v>1981100</v>
+        <v>1842500</v>
       </c>
       <c r="G76" s="3">
-        <v>1912800</v>
+        <v>1779000</v>
       </c>
       <c r="H76" s="3">
-        <v>1536700</v>
+        <v>1429200</v>
       </c>
       <c r="I76" s="3">
-        <v>1133400</v>
+        <v>1054100</v>
       </c>
       <c r="J76" s="3">
-        <v>932800</v>
+        <v>867600</v>
       </c>
       <c r="K76" s="3">
         <v>422600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132000</v>
+        <v>122800</v>
       </c>
       <c r="E81" s="3">
-        <v>226300</v>
+        <v>210500</v>
       </c>
       <c r="F81" s="3">
-        <v>259000</v>
+        <v>240800</v>
       </c>
       <c r="G81" s="3">
-        <v>217200</v>
+        <v>202000</v>
       </c>
       <c r="H81" s="3">
-        <v>237400</v>
+        <v>220800</v>
       </c>
       <c r="I81" s="3">
-        <v>230100</v>
+        <v>214000</v>
       </c>
       <c r="J81" s="3">
-        <v>110000</v>
+        <v>102300</v>
       </c>
       <c r="K81" s="3">
         <v>105900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42800</v>
+        <v>39800</v>
       </c>
       <c r="E83" s="3">
-        <v>34300</v>
+        <v>31900</v>
       </c>
       <c r="F83" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="G83" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="H83" s="3">
-        <v>18400</v>
+        <v>17100</v>
       </c>
       <c r="I83" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="J83" s="3">
-        <v>14200</v>
+        <v>13200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>203800</v>
+        <v>189600</v>
       </c>
       <c r="E89" s="3">
-        <v>-87600</v>
+        <v>-81400</v>
       </c>
       <c r="F89" s="3">
-        <v>380500</v>
+        <v>353900</v>
       </c>
       <c r="G89" s="3">
-        <v>231600</v>
+        <v>215400</v>
       </c>
       <c r="H89" s="3">
-        <v>303500</v>
+        <v>282300</v>
       </c>
       <c r="I89" s="3">
-        <v>284700</v>
+        <v>264800</v>
       </c>
       <c r="J89" s="3">
-        <v>236300</v>
+        <v>219800</v>
       </c>
       <c r="K89" s="3">
         <v>173900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
-        <v>-12400</v>
+        <v>-11500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5800</v>
+        <v>-5400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="H91" s="3">
-        <v>-27200</v>
+        <v>-25300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8500</v>
+        <v>-7900</v>
       </c>
       <c r="J91" s="3">
-        <v>-9400</v>
+        <v>-8700</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>159700</v>
+        <v>148500</v>
       </c>
       <c r="E94" s="3">
-        <v>-51200</v>
+        <v>-47600</v>
       </c>
       <c r="F94" s="3">
-        <v>-251500</v>
+        <v>-233900</v>
       </c>
       <c r="G94" s="3">
-        <v>-429800</v>
+        <v>-399700</v>
       </c>
       <c r="H94" s="3">
-        <v>-406100</v>
+        <v>-377700</v>
       </c>
       <c r="I94" s="3">
-        <v>-179200</v>
+        <v>-166700</v>
       </c>
       <c r="J94" s="3">
-        <v>-443800</v>
+        <v>-412800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99200</v>
+        <v>-92300</v>
       </c>
       <c r="E96" s="3">
-        <v>-99200</v>
+        <v>-92300</v>
       </c>
       <c r="F96" s="3">
-        <v>-99200</v>
+        <v>-92300</v>
       </c>
       <c r="G96" s="3">
-        <v>-39700</v>
+        <v>-36900</v>
       </c>
       <c r="H96" s="3">
-        <v>-19800</v>
+        <v>-18500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-265900</v>
+        <v>-247300</v>
       </c>
       <c r="E100" s="3">
-        <v>174200</v>
+        <v>162000</v>
       </c>
       <c r="F100" s="3">
-        <v>-146000</v>
+        <v>-135800</v>
       </c>
       <c r="G100" s="3">
-        <v>188100</v>
+        <v>174900</v>
       </c>
       <c r="H100" s="3">
-        <v>123300</v>
+        <v>114700</v>
       </c>
       <c r="I100" s="3">
-        <v>-88700</v>
+        <v>-82500</v>
       </c>
       <c r="J100" s="3">
-        <v>217800</v>
+        <v>202600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65600</v>
+        <v>-61000</v>
       </c>
       <c r="E101" s="3">
-        <v>-22500</v>
+        <v>-20900</v>
       </c>
       <c r="F101" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>336700</v>
+        <v>313200</v>
       </c>
       <c r="H101" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="I101" s="3">
-        <v>-8000</v>
+        <v>-7400</v>
       </c>
       <c r="J101" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32100</v>
+        <v>29800</v>
       </c>
       <c r="E102" s="3">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="F102" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="G102" s="3">
-        <v>326600</v>
+        <v>303800</v>
       </c>
       <c r="H102" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="J102" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>458400</v>
+        <v>475300</v>
       </c>
       <c r="E8" s="3">
-        <v>556100</v>
+        <v>576600</v>
       </c>
       <c r="F8" s="3">
-        <v>561800</v>
+        <v>582500</v>
       </c>
       <c r="G8" s="3">
-        <v>461800</v>
+        <v>478900</v>
       </c>
       <c r="H8" s="3">
-        <v>486400</v>
+        <v>504300</v>
       </c>
       <c r="I8" s="3">
-        <v>484000</v>
+        <v>501800</v>
       </c>
       <c r="J8" s="3">
-        <v>312500</v>
+        <v>324000</v>
       </c>
       <c r="K8" s="3">
         <v>281600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>221000</v>
+        <v>229200</v>
       </c>
       <c r="E9" s="3">
-        <v>256700</v>
+        <v>266200</v>
       </c>
       <c r="F9" s="3">
-        <v>255000</v>
+        <v>264400</v>
       </c>
       <c r="G9" s="3">
-        <v>190700</v>
+        <v>197800</v>
       </c>
       <c r="H9" s="3">
-        <v>217100</v>
+        <v>225000</v>
       </c>
       <c r="I9" s="3">
-        <v>255500</v>
+        <v>264900</v>
       </c>
       <c r="J9" s="3">
-        <v>142100</v>
+        <v>147400</v>
       </c>
       <c r="K9" s="3">
         <v>120800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>237400</v>
+        <v>246100</v>
       </c>
       <c r="E10" s="3">
-        <v>299400</v>
+        <v>310400</v>
       </c>
       <c r="F10" s="3">
-        <v>306800</v>
+        <v>318100</v>
       </c>
       <c r="G10" s="3">
-        <v>271100</v>
+        <v>281100</v>
       </c>
       <c r="H10" s="3">
-        <v>269400</v>
+        <v>279300</v>
       </c>
       <c r="I10" s="3">
-        <v>228500</v>
+        <v>236900</v>
       </c>
       <c r="J10" s="3">
-        <v>170300</v>
+        <v>176600</v>
       </c>
       <c r="K10" s="3">
         <v>160800</v>
@@ -958,10 +958,10 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>223100</v>
+        <v>231400</v>
       </c>
       <c r="E17" s="3">
-        <v>259700</v>
+        <v>269300</v>
       </c>
       <c r="F17" s="3">
-        <v>255200</v>
+        <v>264600</v>
       </c>
       <c r="G17" s="3">
-        <v>188200</v>
+        <v>195100</v>
       </c>
       <c r="H17" s="3">
-        <v>214300</v>
+        <v>222200</v>
       </c>
       <c r="I17" s="3">
-        <v>251200</v>
+        <v>260400</v>
       </c>
       <c r="J17" s="3">
-        <v>136700</v>
+        <v>141700</v>
       </c>
       <c r="K17" s="3">
         <v>118600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>235300</v>
+        <v>243900</v>
       </c>
       <c r="E18" s="3">
-        <v>296400</v>
+        <v>307300</v>
       </c>
       <c r="F18" s="3">
-        <v>306600</v>
+        <v>317900</v>
       </c>
       <c r="G18" s="3">
-        <v>273600</v>
+        <v>283700</v>
       </c>
       <c r="H18" s="3">
-        <v>272100</v>
+        <v>282100</v>
       </c>
       <c r="I18" s="3">
-        <v>232800</v>
+        <v>241400</v>
       </c>
       <c r="J18" s="3">
-        <v>175800</v>
+        <v>182200</v>
       </c>
       <c r="K18" s="3">
         <v>163000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42300</v>
+        <v>-43900</v>
       </c>
       <c r="E20" s="3">
-        <v>73500</v>
+        <v>76200</v>
       </c>
       <c r="F20" s="3">
-        <v>72900</v>
+        <v>75600</v>
       </c>
       <c r="G20" s="3">
-        <v>35100</v>
+        <v>36400</v>
       </c>
       <c r="H20" s="3">
-        <v>42100</v>
+        <v>43700</v>
       </c>
       <c r="I20" s="3">
-        <v>38300</v>
+        <v>39700</v>
       </c>
       <c r="J20" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232300</v>
+        <v>241400</v>
       </c>
       <c r="E21" s="3">
-        <v>401400</v>
+        <v>416600</v>
       </c>
       <c r="F21" s="3">
-        <v>400300</v>
+        <v>415300</v>
       </c>
       <c r="G21" s="3">
-        <v>328100</v>
+        <v>340400</v>
       </c>
       <c r="H21" s="3">
-        <v>331100</v>
+        <v>343500</v>
       </c>
       <c r="I21" s="3">
-        <v>283900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>207300</v>
+        <v>294500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1164,22 +1164,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>42400</v>
+        <v>44000</v>
       </c>
       <c r="F22" s="3">
-        <v>29900</v>
+        <v>31000</v>
       </c>
       <c r="G22" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="H22" s="3">
-        <v>54500</v>
+        <v>56500</v>
       </c>
       <c r="I22" s="3">
-        <v>34000</v>
+        <v>35300</v>
       </c>
       <c r="J22" s="3">
-        <v>74000</v>
+        <v>76700</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>192900</v>
+        <v>200000</v>
       </c>
       <c r="E23" s="3">
-        <v>327500</v>
+        <v>339500</v>
       </c>
       <c r="F23" s="3">
-        <v>349700</v>
+        <v>362500</v>
       </c>
       <c r="G23" s="3">
-        <v>278700</v>
+        <v>288900</v>
       </c>
       <c r="H23" s="3">
-        <v>259800</v>
+        <v>269400</v>
       </c>
       <c r="I23" s="3">
-        <v>237100</v>
+        <v>245800</v>
       </c>
       <c r="J23" s="3">
-        <v>120300</v>
+        <v>124700</v>
       </c>
       <c r="K23" s="3">
         <v>121100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35300</v>
+        <v>36600</v>
       </c>
       <c r="E24" s="3">
-        <v>83000</v>
+        <v>86000</v>
       </c>
       <c r="F24" s="3">
-        <v>73600</v>
+        <v>76300</v>
       </c>
       <c r="G24" s="3">
-        <v>55600</v>
+        <v>57700</v>
       </c>
       <c r="H24" s="3">
-        <v>36300</v>
+        <v>37700</v>
       </c>
       <c r="I24" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="J24" s="3">
-        <v>17800</v>
+        <v>18500</v>
       </c>
       <c r="K24" s="3">
         <v>15000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157700</v>
+        <v>163500</v>
       </c>
       <c r="E26" s="3">
-        <v>244500</v>
+        <v>253500</v>
       </c>
       <c r="F26" s="3">
-        <v>276100</v>
+        <v>286300</v>
       </c>
       <c r="G26" s="3">
-        <v>223100</v>
+        <v>231300</v>
       </c>
       <c r="H26" s="3">
-        <v>223400</v>
+        <v>231700</v>
       </c>
       <c r="I26" s="3">
-        <v>214900</v>
+        <v>222800</v>
       </c>
       <c r="J26" s="3">
-        <v>102400</v>
+        <v>106200</v>
       </c>
       <c r="K26" s="3">
         <v>106000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>122800</v>
+        <v>127300</v>
       </c>
       <c r="E27" s="3">
-        <v>210500</v>
+        <v>218300</v>
       </c>
       <c r="F27" s="3">
-        <v>240800</v>
+        <v>249700</v>
       </c>
       <c r="G27" s="3">
-        <v>202400</v>
+        <v>209800</v>
       </c>
       <c r="H27" s="3">
-        <v>220800</v>
+        <v>228900</v>
       </c>
       <c r="I27" s="3">
-        <v>214900</v>
+        <v>222800</v>
       </c>
       <c r="J27" s="3">
-        <v>102400</v>
+        <v>106200</v>
       </c>
       <c r="K27" s="3">
         <v>106000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42300</v>
+        <v>43900</v>
       </c>
       <c r="E32" s="3">
-        <v>-73500</v>
+        <v>-76200</v>
       </c>
       <c r="F32" s="3">
-        <v>-72900</v>
+        <v>-75600</v>
       </c>
       <c r="G32" s="3">
-        <v>-35100</v>
+        <v>-36400</v>
       </c>
       <c r="H32" s="3">
-        <v>-42100</v>
+        <v>-43700</v>
       </c>
       <c r="I32" s="3">
-        <v>-38300</v>
+        <v>-39700</v>
       </c>
       <c r="J32" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>122800</v>
+        <v>127300</v>
       </c>
       <c r="E33" s="3">
-        <v>210500</v>
+        <v>218300</v>
       </c>
       <c r="F33" s="3">
-        <v>240800</v>
+        <v>249700</v>
       </c>
       <c r="G33" s="3">
-        <v>202000</v>
+        <v>209400</v>
       </c>
       <c r="H33" s="3">
-        <v>220800</v>
+        <v>228900</v>
       </c>
       <c r="I33" s="3">
-        <v>214000</v>
+        <v>221900</v>
       </c>
       <c r="J33" s="3">
-        <v>102300</v>
+        <v>106100</v>
       </c>
       <c r="K33" s="3">
         <v>105900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>122800</v>
+        <v>127300</v>
       </c>
       <c r="E35" s="3">
-        <v>210500</v>
+        <v>218300</v>
       </c>
       <c r="F35" s="3">
-        <v>240800</v>
+        <v>249700</v>
       </c>
       <c r="G35" s="3">
-        <v>202000</v>
+        <v>209400</v>
       </c>
       <c r="H35" s="3">
-        <v>220800</v>
+        <v>228900</v>
       </c>
       <c r="I35" s="3">
-        <v>214000</v>
+        <v>221900</v>
       </c>
       <c r="J35" s="3">
-        <v>102300</v>
+        <v>106100</v>
       </c>
       <c r="K35" s="3">
         <v>105900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52300</v>
+        <v>1318800</v>
       </c>
       <c r="E41" s="3">
-        <v>22400</v>
+        <v>54200</v>
       </c>
       <c r="F41" s="3">
-        <v>10400</v>
+        <v>23200</v>
       </c>
       <c r="G41" s="3">
-        <v>21100</v>
+        <v>10700</v>
       </c>
       <c r="H41" s="3">
-        <v>709100</v>
+        <v>21900</v>
       </c>
       <c r="I41" s="3">
-        <v>474100</v>
+        <v>735300</v>
       </c>
       <c r="J41" s="3">
-        <v>16000</v>
+        <v>491600</v>
       </c>
       <c r="K41" s="3">
         <v>5300</v>
@@ -1773,26 +1773,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>1099200</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>1310600</v>
+        <v>1139700</v>
       </c>
       <c r="F42" s="3">
-        <v>1152200</v>
+        <v>1358800</v>
       </c>
       <c r="G42" s="3">
-        <v>957700</v>
+        <v>1194700</v>
       </c>
       <c r="H42" s="3">
-        <v>644000</v>
+        <v>993000</v>
       </c>
       <c r="I42" s="3">
-        <v>408100</v>
+        <v>667800</v>
       </c>
       <c r="J42" s="3">
-        <v>417100</v>
+        <v>423100</v>
       </c>
       <c r="K42" s="3">
         <v>287700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66000</v>
+        <v>86200</v>
       </c>
       <c r="E43" s="3">
-        <v>77400</v>
+        <v>68400</v>
       </c>
       <c r="F43" s="3">
-        <v>72500</v>
+        <v>80300</v>
       </c>
       <c r="G43" s="3">
-        <v>114400</v>
+        <v>75100</v>
       </c>
       <c r="H43" s="3">
-        <v>205900</v>
+        <v>118700</v>
       </c>
       <c r="I43" s="3">
-        <v>142200</v>
+        <v>213500</v>
       </c>
       <c r="J43" s="3">
-        <v>37500</v>
+        <v>147500</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6300</v>
+        <v>7300</v>
       </c>
       <c r="E44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J44" s="3">
         <v>6800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>9100</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10800</v>
+        <v>13800</v>
       </c>
       <c r="E45" s="3">
-        <v>21100</v>
+        <v>11200</v>
       </c>
       <c r="F45" s="3">
-        <v>9100</v>
+        <v>21900</v>
       </c>
       <c r="G45" s="3">
-        <v>23100</v>
+        <v>9400</v>
       </c>
       <c r="H45" s="3">
-        <v>63500</v>
+        <v>24000</v>
       </c>
       <c r="I45" s="3">
-        <v>11900</v>
+        <v>65800</v>
       </c>
       <c r="J45" s="3">
-        <v>17900</v>
+        <v>12300</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1234600</v>
+        <v>1426100</v>
       </c>
       <c r="E46" s="3">
-        <v>1440300</v>
+        <v>1280100</v>
       </c>
       <c r="F46" s="3">
-        <v>1252200</v>
+        <v>1493300</v>
       </c>
       <c r="G46" s="3">
-        <v>1121100</v>
+        <v>1298300</v>
       </c>
       <c r="H46" s="3">
-        <v>817600</v>
+        <v>1162400</v>
       </c>
       <c r="I46" s="3">
-        <v>531400</v>
+        <v>847700</v>
       </c>
       <c r="J46" s="3">
-        <v>465600</v>
+        <v>551000</v>
       </c>
       <c r="K46" s="3">
         <v>181200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>167900</v>
+        <v>92800</v>
       </c>
       <c r="E47" s="3">
-        <v>88400</v>
+        <v>174000</v>
       </c>
       <c r="F47" s="3">
-        <v>132500</v>
+        <v>91600</v>
       </c>
       <c r="G47" s="3">
-        <v>194500</v>
+        <v>137400</v>
       </c>
       <c r="H47" s="3">
-        <v>178800</v>
+        <v>201700</v>
       </c>
       <c r="I47" s="3">
-        <v>162800</v>
+        <v>185400</v>
       </c>
       <c r="J47" s="3">
-        <v>108100</v>
+        <v>168800</v>
       </c>
       <c r="K47" s="3">
         <v>82800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51800</v>
+        <v>66200</v>
       </c>
       <c r="E48" s="3">
-        <v>53400</v>
+        <v>53700</v>
       </c>
       <c r="F48" s="3">
-        <v>48400</v>
+        <v>55400</v>
       </c>
       <c r="G48" s="3">
-        <v>48800</v>
+        <v>50200</v>
       </c>
       <c r="H48" s="3">
-        <v>97700</v>
+        <v>50600</v>
       </c>
       <c r="I48" s="3">
-        <v>81800</v>
+        <v>101300</v>
       </c>
       <c r="J48" s="3">
-        <v>38100</v>
+        <v>84800</v>
       </c>
       <c r="K48" s="3">
         <v>60900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1851900</v>
+        <v>1953500</v>
       </c>
       <c r="E49" s="3">
-        <v>1825500</v>
+        <v>1920100</v>
       </c>
       <c r="F49" s="3">
-        <v>2136000</v>
+        <v>1892700</v>
       </c>
       <c r="G49" s="3">
-        <v>876100</v>
+        <v>2214700</v>
       </c>
       <c r="H49" s="3">
-        <v>1534400</v>
+        <v>908400</v>
       </c>
       <c r="I49" s="3">
-        <v>1383000</v>
+        <v>1591000</v>
       </c>
       <c r="J49" s="3">
-        <v>1172700</v>
+        <v>1434000</v>
       </c>
       <c r="K49" s="3">
         <v>1644800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>156100</v>
+        <v>130500</v>
       </c>
       <c r="E52" s="3">
-        <v>106900</v>
+        <v>161800</v>
       </c>
       <c r="F52" s="3">
-        <v>92000</v>
+        <v>110800</v>
       </c>
       <c r="G52" s="3">
-        <v>63800</v>
+        <v>95400</v>
       </c>
       <c r="H52" s="3">
-        <v>79600</v>
+        <v>66100</v>
       </c>
       <c r="I52" s="3">
-        <v>76400</v>
+        <v>82600</v>
       </c>
       <c r="J52" s="3">
-        <v>112500</v>
+        <v>79200</v>
       </c>
       <c r="K52" s="3">
         <v>121300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3462200</v>
+        <v>3669200</v>
       </c>
       <c r="E54" s="3">
-        <v>3514400</v>
+        <v>3589800</v>
       </c>
       <c r="F54" s="3">
-        <v>2677500</v>
+        <v>3643800</v>
       </c>
       <c r="G54" s="3">
-        <v>2304300</v>
+        <v>2776200</v>
       </c>
       <c r="H54" s="3">
-        <v>1886300</v>
+        <v>2389200</v>
       </c>
       <c r="I54" s="3">
-        <v>1482300</v>
+        <v>1955800</v>
       </c>
       <c r="J54" s="3">
-        <v>1258400</v>
+        <v>1536900</v>
       </c>
       <c r="K54" s="3">
         <v>905400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="E57" s="3">
-        <v>28400</v>
+        <v>30700</v>
       </c>
       <c r="F57" s="3">
-        <v>19600</v>
+        <v>29400</v>
       </c>
       <c r="G57" s="3">
-        <v>11000</v>
+        <v>20400</v>
       </c>
       <c r="H57" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I57" s="3">
-        <v>6400</v>
+        <v>12500</v>
       </c>
       <c r="J57" s="3">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29800</v>
+        <v>38600</v>
       </c>
       <c r="E58" s="3">
-        <v>10400</v>
+        <v>30800</v>
       </c>
       <c r="F58" s="3">
-        <v>17700</v>
+        <v>10800</v>
       </c>
       <c r="G58" s="3">
-        <v>32700</v>
+        <v>18300</v>
       </c>
       <c r="H58" s="3">
-        <v>54100</v>
+        <v>33900</v>
       </c>
       <c r="I58" s="3">
-        <v>51700</v>
+        <v>56100</v>
       </c>
       <c r="J58" s="3">
-        <v>24600</v>
+        <v>53600</v>
       </c>
       <c r="K58" s="3">
         <v>36000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>105700</v>
+        <v>121600</v>
       </c>
       <c r="E59" s="3">
-        <v>246000</v>
+        <v>109600</v>
       </c>
       <c r="F59" s="3">
-        <v>215800</v>
+        <v>255000</v>
       </c>
       <c r="G59" s="3">
-        <v>96000</v>
+        <v>223700</v>
       </c>
       <c r="H59" s="3">
-        <v>98900</v>
+        <v>99500</v>
       </c>
       <c r="I59" s="3">
-        <v>155800</v>
+        <v>102500</v>
       </c>
       <c r="J59" s="3">
-        <v>59500</v>
+        <v>161500</v>
       </c>
       <c r="K59" s="3">
         <v>41100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>165000</v>
+        <v>188400</v>
       </c>
       <c r="E60" s="3">
-        <v>284700</v>
+        <v>171100</v>
       </c>
       <c r="F60" s="3">
-        <v>253100</v>
+        <v>295200</v>
       </c>
       <c r="G60" s="3">
-        <v>139700</v>
+        <v>262400</v>
       </c>
       <c r="H60" s="3">
-        <v>128200</v>
+        <v>144800</v>
       </c>
       <c r="I60" s="3">
-        <v>152900</v>
+        <v>132900</v>
       </c>
       <c r="J60" s="3">
-        <v>73300</v>
+        <v>158500</v>
       </c>
       <c r="K60" s="3">
         <v>68000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>730300</v>
+        <v>727500</v>
       </c>
       <c r="E61" s="3">
-        <v>792600</v>
+        <v>757200</v>
       </c>
       <c r="F61" s="3">
-        <v>306300</v>
+        <v>821800</v>
       </c>
       <c r="G61" s="3">
-        <v>198600</v>
+        <v>317500</v>
       </c>
       <c r="H61" s="3">
-        <v>211600</v>
+        <v>205900</v>
       </c>
       <c r="I61" s="3">
-        <v>249800</v>
+        <v>219400</v>
       </c>
       <c r="J61" s="3">
-        <v>305000</v>
+        <v>259000</v>
       </c>
       <c r="K61" s="3">
         <v>405000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117300</v>
+        <v>97900</v>
       </c>
       <c r="E62" s="3">
-        <v>108300</v>
+        <v>121600</v>
       </c>
       <c r="F62" s="3">
-        <v>54500</v>
+        <v>112300</v>
       </c>
       <c r="G62" s="3">
-        <v>9400</v>
+        <v>56500</v>
       </c>
       <c r="H62" s="3">
-        <v>22200</v>
+        <v>9700</v>
       </c>
       <c r="I62" s="3">
-        <v>25200</v>
+        <v>23000</v>
       </c>
       <c r="J62" s="3">
-        <v>20600</v>
+        <v>26200</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1350900</v>
+        <v>1371600</v>
       </c>
       <c r="E66" s="3">
-        <v>1514200</v>
+        <v>1400700</v>
       </c>
       <c r="F66" s="3">
-        <v>835000</v>
+        <v>1570000</v>
       </c>
       <c r="G66" s="3">
-        <v>525300</v>
+        <v>865800</v>
       </c>
       <c r="H66" s="3">
-        <v>457100</v>
+        <v>544700</v>
       </c>
       <c r="I66" s="3">
-        <v>428100</v>
+        <v>473900</v>
       </c>
       <c r="J66" s="3">
-        <v>390800</v>
+        <v>443900</v>
       </c>
       <c r="K66" s="3">
         <v>482800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1284000</v>
+        <v>1066600</v>
       </c>
       <c r="E72" s="3">
-        <v>879600</v>
+        <v>1331300</v>
       </c>
       <c r="F72" s="3">
-        <v>985400</v>
+        <v>912000</v>
       </c>
       <c r="G72" s="3">
-        <v>1140300</v>
+        <v>1021700</v>
       </c>
       <c r="H72" s="3">
-        <v>1499100</v>
+        <v>1182300</v>
       </c>
       <c r="I72" s="3">
-        <v>938300</v>
+        <v>1554300</v>
       </c>
       <c r="J72" s="3">
-        <v>547200</v>
+        <v>972900</v>
       </c>
       <c r="K72" s="3">
         <v>407400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2111300</v>
+        <v>2297500</v>
       </c>
       <c r="E76" s="3">
-        <v>2000200</v>
+        <v>2189100</v>
       </c>
       <c r="F76" s="3">
-        <v>1842500</v>
+        <v>2073800</v>
       </c>
       <c r="G76" s="3">
-        <v>1779000</v>
+        <v>1910400</v>
       </c>
       <c r="H76" s="3">
-        <v>1429200</v>
+        <v>1844500</v>
       </c>
       <c r="I76" s="3">
-        <v>1054100</v>
+        <v>1481900</v>
       </c>
       <c r="J76" s="3">
-        <v>867600</v>
+        <v>1093000</v>
       </c>
       <c r="K76" s="3">
         <v>422600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>122800</v>
+        <v>127300</v>
       </c>
       <c r="E81" s="3">
-        <v>210500</v>
+        <v>218300</v>
       </c>
       <c r="F81" s="3">
-        <v>240800</v>
+        <v>249700</v>
       </c>
       <c r="G81" s="3">
-        <v>202000</v>
+        <v>209400</v>
       </c>
       <c r="H81" s="3">
-        <v>220800</v>
+        <v>228900</v>
       </c>
       <c r="I81" s="3">
-        <v>214000</v>
+        <v>221900</v>
       </c>
       <c r="J81" s="3">
-        <v>102300</v>
+        <v>106100</v>
       </c>
       <c r="K81" s="3">
         <v>105900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39800</v>
+        <v>41300</v>
       </c>
       <c r="E83" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="F83" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="G83" s="3">
-        <v>19500</v>
+        <v>20300</v>
       </c>
       <c r="H83" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="I83" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13200</v>
+        <v>13400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>189600</v>
+        <v>196600</v>
       </c>
       <c r="E89" s="3">
-        <v>-81400</v>
+        <v>-84400</v>
       </c>
       <c r="F89" s="3">
-        <v>353900</v>
+        <v>366900</v>
       </c>
       <c r="G89" s="3">
-        <v>215400</v>
+        <v>223300</v>
       </c>
       <c r="H89" s="3">
-        <v>282300</v>
+        <v>285900</v>
       </c>
       <c r="I89" s="3">
-        <v>264800</v>
+        <v>257200</v>
       </c>
       <c r="J89" s="3">
-        <v>219800</v>
+        <v>227900</v>
       </c>
       <c r="K89" s="3">
         <v>173900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H91" s="3">
-        <v>-25300</v>
+        <v>-26200</v>
       </c>
       <c r="I91" s="3">
-        <v>-7900</v>
+        <v>-11600</v>
       </c>
       <c r="J91" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>148500</v>
+        <v>154000</v>
       </c>
       <c r="E94" s="3">
-        <v>-47600</v>
+        <v>-49300</v>
       </c>
       <c r="F94" s="3">
-        <v>-233900</v>
+        <v>-242500</v>
       </c>
       <c r="G94" s="3">
-        <v>-399700</v>
+        <v>-414400</v>
       </c>
       <c r="H94" s="3">
-        <v>-377700</v>
+        <v>-364800</v>
       </c>
       <c r="I94" s="3">
-        <v>-166700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-412800</v>
+        <v>-137200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92300</v>
+        <v>-95700</v>
       </c>
       <c r="E96" s="3">
-        <v>-92300</v>
+        <v>-95700</v>
       </c>
       <c r="F96" s="3">
-        <v>-92300</v>
+        <v>-95700</v>
       </c>
       <c r="G96" s="3">
-        <v>-36900</v>
+        <v>-38300</v>
       </c>
       <c r="H96" s="3">
-        <v>-18500</v>
+        <v>-19100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-247300</v>
+        <v>-256400</v>
       </c>
       <c r="E100" s="3">
-        <v>162000</v>
+        <v>168000</v>
       </c>
       <c r="F100" s="3">
-        <v>-135800</v>
+        <v>-140800</v>
       </c>
       <c r="G100" s="3">
-        <v>174900</v>
+        <v>181400</v>
       </c>
       <c r="H100" s="3">
-        <v>114700</v>
+        <v>123600</v>
       </c>
       <c r="I100" s="3">
-        <v>-82500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>202600</v>
+        <v>-111700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-61000</v>
+        <v>-63300</v>
       </c>
       <c r="E101" s="3">
-        <v>-20900</v>
+        <v>-21700</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G101" s="3">
-        <v>313200</v>
+        <v>324700</v>
       </c>
       <c r="H101" s="3">
-        <v>-12600</v>
+        <v>192000</v>
       </c>
       <c r="I101" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1300</v>
+        <v>-6300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29800</v>
+        <v>30900</v>
       </c>
       <c r="E102" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="F102" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="G102" s="3">
-        <v>303800</v>
+        <v>315000</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>236700</v>
       </c>
       <c r="I102" s="3">
-        <v>8200</v>
+        <v>2100</v>
       </c>
       <c r="J102" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>475300</v>
+        <v>490700</v>
       </c>
       <c r="E8" s="3">
-        <v>576600</v>
+        <v>595300</v>
       </c>
       <c r="F8" s="3">
-        <v>582500</v>
+        <v>601400</v>
       </c>
       <c r="G8" s="3">
-        <v>478900</v>
+        <v>494400</v>
       </c>
       <c r="H8" s="3">
-        <v>504300</v>
+        <v>520700</v>
       </c>
       <c r="I8" s="3">
-        <v>501800</v>
+        <v>518100</v>
       </c>
       <c r="J8" s="3">
-        <v>324000</v>
+        <v>334500</v>
       </c>
       <c r="K8" s="3">
         <v>281600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>229200</v>
+        <v>236600</v>
       </c>
       <c r="E9" s="3">
-        <v>266200</v>
+        <v>274800</v>
       </c>
       <c r="F9" s="3">
-        <v>264400</v>
+        <v>273000</v>
       </c>
       <c r="G9" s="3">
-        <v>197800</v>
+        <v>204200</v>
       </c>
       <c r="H9" s="3">
-        <v>225000</v>
+        <v>232300</v>
       </c>
       <c r="I9" s="3">
-        <v>264900</v>
+        <v>273500</v>
       </c>
       <c r="J9" s="3">
-        <v>147400</v>
+        <v>152200</v>
       </c>
       <c r="K9" s="3">
         <v>120800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>246100</v>
+        <v>254100</v>
       </c>
       <c r="E10" s="3">
-        <v>310400</v>
+        <v>320500</v>
       </c>
       <c r="F10" s="3">
-        <v>318100</v>
+        <v>328400</v>
       </c>
       <c r="G10" s="3">
-        <v>281100</v>
+        <v>290200</v>
       </c>
       <c r="H10" s="3">
-        <v>279300</v>
+        <v>288300</v>
       </c>
       <c r="I10" s="3">
-        <v>236900</v>
+        <v>244600</v>
       </c>
       <c r="J10" s="3">
-        <v>176600</v>
+        <v>182300</v>
       </c>
       <c r="K10" s="3">
         <v>160800</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231400</v>
+        <v>238900</v>
       </c>
       <c r="E17" s="3">
-        <v>269300</v>
+        <v>278000</v>
       </c>
       <c r="F17" s="3">
-        <v>264600</v>
+        <v>273200</v>
       </c>
       <c r="G17" s="3">
-        <v>195100</v>
+        <v>201500</v>
       </c>
       <c r="H17" s="3">
-        <v>222200</v>
+        <v>229400</v>
       </c>
       <c r="I17" s="3">
-        <v>260400</v>
+        <v>268900</v>
       </c>
       <c r="J17" s="3">
-        <v>141700</v>
+        <v>146300</v>
       </c>
       <c r="K17" s="3">
         <v>118600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>243900</v>
+        <v>251800</v>
       </c>
       <c r="E18" s="3">
-        <v>307300</v>
+        <v>317200</v>
       </c>
       <c r="F18" s="3">
-        <v>317900</v>
+        <v>328200</v>
       </c>
       <c r="G18" s="3">
-        <v>283700</v>
+        <v>292900</v>
       </c>
       <c r="H18" s="3">
-        <v>282100</v>
+        <v>291300</v>
       </c>
       <c r="I18" s="3">
-        <v>241400</v>
+        <v>249200</v>
       </c>
       <c r="J18" s="3">
-        <v>182200</v>
+        <v>188100</v>
       </c>
       <c r="K18" s="3">
         <v>163000</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="E20" s="3">
-        <v>76200</v>
+        <v>78700</v>
       </c>
       <c r="F20" s="3">
-        <v>75600</v>
+        <v>78100</v>
       </c>
       <c r="G20" s="3">
-        <v>36400</v>
+        <v>37600</v>
       </c>
       <c r="H20" s="3">
-        <v>43700</v>
+        <v>45100</v>
       </c>
       <c r="I20" s="3">
-        <v>39700</v>
+        <v>41000</v>
       </c>
       <c r="J20" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="K20" s="3">
         <v>12900</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>241400</v>
+        <v>240500</v>
       </c>
       <c r="E21" s="3">
-        <v>416600</v>
+        <v>418300</v>
       </c>
       <c r="F21" s="3">
-        <v>415300</v>
+        <v>427200</v>
       </c>
       <c r="G21" s="3">
-        <v>340400</v>
+        <v>348700</v>
       </c>
       <c r="H21" s="3">
-        <v>343500</v>
+        <v>350200</v>
       </c>
       <c r="I21" s="3">
-        <v>294500</v>
+        <v>304300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1164,22 +1164,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>44000</v>
+        <v>45400</v>
       </c>
       <c r="F22" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="G22" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="H22" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="I22" s="3">
-        <v>35300</v>
+        <v>36400</v>
       </c>
       <c r="J22" s="3">
-        <v>76700</v>
+        <v>79200</v>
       </c>
       <c r="K22" s="3">
         <v>54800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>200000</v>
+        <v>206500</v>
       </c>
       <c r="E23" s="3">
-        <v>339500</v>
+        <v>350500</v>
       </c>
       <c r="F23" s="3">
-        <v>362500</v>
+        <v>374300</v>
       </c>
       <c r="G23" s="3">
-        <v>288900</v>
+        <v>298300</v>
       </c>
       <c r="H23" s="3">
-        <v>269400</v>
+        <v>278100</v>
       </c>
       <c r="I23" s="3">
-        <v>245800</v>
+        <v>253800</v>
       </c>
       <c r="J23" s="3">
-        <v>124700</v>
+        <v>128700</v>
       </c>
       <c r="K23" s="3">
         <v>121100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36600</v>
+        <v>37800</v>
       </c>
       <c r="E24" s="3">
-        <v>86000</v>
+        <v>88800</v>
       </c>
       <c r="F24" s="3">
-        <v>76300</v>
+        <v>78700</v>
       </c>
       <c r="G24" s="3">
-        <v>57700</v>
+        <v>59500</v>
       </c>
       <c r="H24" s="3">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="I24" s="3">
-        <v>23000</v>
+        <v>23700</v>
       </c>
       <c r="J24" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="K24" s="3">
         <v>15000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>163500</v>
+        <v>168800</v>
       </c>
       <c r="E26" s="3">
-        <v>253500</v>
+        <v>261700</v>
       </c>
       <c r="F26" s="3">
-        <v>286300</v>
+        <v>295600</v>
       </c>
       <c r="G26" s="3">
-        <v>231300</v>
+        <v>238800</v>
       </c>
       <c r="H26" s="3">
-        <v>231700</v>
+        <v>239200</v>
       </c>
       <c r="I26" s="3">
-        <v>222800</v>
+        <v>230100</v>
       </c>
       <c r="J26" s="3">
-        <v>106200</v>
+        <v>109600</v>
       </c>
       <c r="K26" s="3">
         <v>106000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127300</v>
+        <v>131400</v>
       </c>
       <c r="E27" s="3">
-        <v>218300</v>
+        <v>225300</v>
       </c>
       <c r="F27" s="3">
-        <v>249700</v>
+        <v>257800</v>
       </c>
       <c r="G27" s="3">
-        <v>209800</v>
+        <v>216600</v>
       </c>
       <c r="H27" s="3">
-        <v>228900</v>
+        <v>236300</v>
       </c>
       <c r="I27" s="3">
-        <v>222800</v>
+        <v>230000</v>
       </c>
       <c r="J27" s="3">
-        <v>106200</v>
+        <v>109600</v>
       </c>
       <c r="K27" s="3">
         <v>106000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="E32" s="3">
-        <v>-76200</v>
+        <v>-78700</v>
       </c>
       <c r="F32" s="3">
-        <v>-75600</v>
+        <v>-78100</v>
       </c>
       <c r="G32" s="3">
-        <v>-36400</v>
+        <v>-37600</v>
       </c>
       <c r="H32" s="3">
-        <v>-43700</v>
+        <v>-45100</v>
       </c>
       <c r="I32" s="3">
-        <v>-39700</v>
+        <v>-41000</v>
       </c>
       <c r="J32" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="K32" s="3">
         <v>-12900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>127300</v>
+        <v>131400</v>
       </c>
       <c r="E33" s="3">
-        <v>218300</v>
+        <v>225300</v>
       </c>
       <c r="F33" s="3">
-        <v>249700</v>
+        <v>257800</v>
       </c>
       <c r="G33" s="3">
-        <v>209400</v>
+        <v>216200</v>
       </c>
       <c r="H33" s="3">
-        <v>228900</v>
+        <v>236300</v>
       </c>
       <c r="I33" s="3">
-        <v>221900</v>
+        <v>229100</v>
       </c>
       <c r="J33" s="3">
-        <v>106100</v>
+        <v>109500</v>
       </c>
       <c r="K33" s="3">
         <v>105900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>127300</v>
+        <v>131400</v>
       </c>
       <c r="E35" s="3">
-        <v>218300</v>
+        <v>225300</v>
       </c>
       <c r="F35" s="3">
-        <v>249700</v>
+        <v>257800</v>
       </c>
       <c r="G35" s="3">
-        <v>209400</v>
+        <v>216200</v>
       </c>
       <c r="H35" s="3">
-        <v>228900</v>
+        <v>236300</v>
       </c>
       <c r="I35" s="3">
-        <v>221900</v>
+        <v>229100</v>
       </c>
       <c r="J35" s="3">
-        <v>106100</v>
+        <v>109500</v>
       </c>
       <c r="K35" s="3">
         <v>105900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1318800</v>
+        <v>55900</v>
       </c>
       <c r="E41" s="3">
-        <v>54200</v>
+        <v>24000</v>
       </c>
       <c r="F41" s="3">
-        <v>23200</v>
+        <v>11100</v>
       </c>
       <c r="G41" s="3">
-        <v>10700</v>
+        <v>22600</v>
       </c>
       <c r="H41" s="3">
-        <v>21900</v>
+        <v>759100</v>
       </c>
       <c r="I41" s="3">
-        <v>735300</v>
+        <v>507500</v>
       </c>
       <c r="J41" s="3">
-        <v>491600</v>
+        <v>17100</v>
       </c>
       <c r="K41" s="3">
         <v>5300</v>
@@ -1773,26 +1773,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>1176700</v>
       </c>
       <c r="E42" s="3">
-        <v>1139700</v>
+        <v>1402900</v>
       </c>
       <c r="F42" s="3">
-        <v>1358800</v>
+        <v>1233400</v>
       </c>
       <c r="G42" s="3">
-        <v>1194700</v>
+        <v>1025100</v>
       </c>
       <c r="H42" s="3">
-        <v>993000</v>
+        <v>689400</v>
       </c>
       <c r="I42" s="3">
-        <v>667800</v>
+        <v>436800</v>
       </c>
       <c r="J42" s="3">
-        <v>423100</v>
+        <v>446500</v>
       </c>
       <c r="K42" s="3">
         <v>287700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86200</v>
+        <v>70600</v>
       </c>
       <c r="E43" s="3">
-        <v>68400</v>
+        <v>82900</v>
       </c>
       <c r="F43" s="3">
-        <v>80300</v>
+        <v>77600</v>
       </c>
       <c r="G43" s="3">
-        <v>75100</v>
+        <v>122500</v>
       </c>
       <c r="H43" s="3">
-        <v>118700</v>
+        <v>220400</v>
       </c>
       <c r="I43" s="3">
-        <v>213500</v>
+        <v>152300</v>
       </c>
       <c r="J43" s="3">
-        <v>147500</v>
+        <v>40100</v>
       </c>
       <c r="K43" s="3">
         <v>45000</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E44" s="3">
         <v>7300</v>
       </c>
-      <c r="E44" s="3">
-        <v>6500</v>
-      </c>
       <c r="F44" s="3">
-        <v>7100</v>
+        <v>5800</v>
       </c>
       <c r="G44" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="H44" s="3">
-        <v>4900</v>
+        <v>7800</v>
       </c>
       <c r="I44" s="3">
-        <v>7600</v>
+        <v>7000</v>
       </c>
       <c r="J44" s="3">
-        <v>6800</v>
+        <v>9700</v>
       </c>
       <c r="K44" s="3">
         <v>8300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13800</v>
+        <v>11600</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>22600</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>9700</v>
       </c>
       <c r="G45" s="3">
-        <v>9400</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>24000</v>
+        <v>68000</v>
       </c>
       <c r="I45" s="3">
-        <v>65800</v>
+        <v>12700</v>
       </c>
       <c r="J45" s="3">
-        <v>12300</v>
+        <v>19200</v>
       </c>
       <c r="K45" s="3">
         <v>13100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1426100</v>
+        <v>1321600</v>
       </c>
       <c r="E46" s="3">
-        <v>1280100</v>
+        <v>1541700</v>
       </c>
       <c r="F46" s="3">
-        <v>1493300</v>
+        <v>1340400</v>
       </c>
       <c r="G46" s="3">
-        <v>1298300</v>
+        <v>1200000</v>
       </c>
       <c r="H46" s="3">
-        <v>1162400</v>
+        <v>875100</v>
       </c>
       <c r="I46" s="3">
-        <v>847700</v>
+        <v>568900</v>
       </c>
       <c r="J46" s="3">
-        <v>551000</v>
+        <v>498400</v>
       </c>
       <c r="K46" s="3">
         <v>181200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92800</v>
+        <v>179700</v>
       </c>
       <c r="E47" s="3">
-        <v>174000</v>
+        <v>94600</v>
       </c>
       <c r="F47" s="3">
-        <v>91600</v>
+        <v>141800</v>
       </c>
       <c r="G47" s="3">
-        <v>137400</v>
+        <v>208200</v>
       </c>
       <c r="H47" s="3">
-        <v>201700</v>
+        <v>191400</v>
       </c>
       <c r="I47" s="3">
-        <v>185400</v>
+        <v>174300</v>
       </c>
       <c r="J47" s="3">
-        <v>168800</v>
+        <v>115700</v>
       </c>
       <c r="K47" s="3">
         <v>82800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>66200</v>
+        <v>55400</v>
       </c>
       <c r="E48" s="3">
-        <v>53700</v>
+        <v>57100</v>
       </c>
       <c r="F48" s="3">
-        <v>55400</v>
+        <v>51800</v>
       </c>
       <c r="G48" s="3">
-        <v>50200</v>
+        <v>52300</v>
       </c>
       <c r="H48" s="3">
-        <v>50600</v>
+        <v>104500</v>
       </c>
       <c r="I48" s="3">
-        <v>101300</v>
+        <v>87500</v>
       </c>
       <c r="J48" s="3">
-        <v>84800</v>
+        <v>40800</v>
       </c>
       <c r="K48" s="3">
         <v>60900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1953500</v>
+        <v>1982300</v>
       </c>
       <c r="E49" s="3">
-        <v>1920100</v>
+        <v>1954000</v>
       </c>
       <c r="F49" s="3">
-        <v>1892700</v>
+        <v>2286400</v>
       </c>
       <c r="G49" s="3">
-        <v>2214700</v>
+        <v>937800</v>
       </c>
       <c r="H49" s="3">
-        <v>908400</v>
+        <v>1642500</v>
       </c>
       <c r="I49" s="3">
-        <v>1591000</v>
+        <v>1480400</v>
       </c>
       <c r="J49" s="3">
-        <v>1434000</v>
+        <v>1255300</v>
       </c>
       <c r="K49" s="3">
         <v>1644800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130500</v>
+        <v>167100</v>
       </c>
       <c r="E52" s="3">
-        <v>161800</v>
+        <v>114400</v>
       </c>
       <c r="F52" s="3">
-        <v>110800</v>
+        <v>98500</v>
       </c>
       <c r="G52" s="3">
-        <v>95400</v>
+        <v>68300</v>
       </c>
       <c r="H52" s="3">
-        <v>66100</v>
+        <v>85200</v>
       </c>
       <c r="I52" s="3">
-        <v>82600</v>
+        <v>81800</v>
       </c>
       <c r="J52" s="3">
-        <v>79200</v>
+        <v>120400</v>
       </c>
       <c r="K52" s="3">
         <v>121300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3669200</v>
+        <v>3706100</v>
       </c>
       <c r="E54" s="3">
-        <v>3589800</v>
+        <v>3761900</v>
       </c>
       <c r="F54" s="3">
-        <v>3643800</v>
+        <v>2866100</v>
       </c>
       <c r="G54" s="3">
-        <v>2776200</v>
+        <v>2466600</v>
       </c>
       <c r="H54" s="3">
-        <v>2389200</v>
+        <v>2019100</v>
       </c>
       <c r="I54" s="3">
-        <v>1955800</v>
+        <v>1586700</v>
       </c>
       <c r="J54" s="3">
-        <v>1536900</v>
+        <v>1347000</v>
       </c>
       <c r="K54" s="3">
         <v>905400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28200</v>
+        <v>31600</v>
       </c>
       <c r="E57" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="F57" s="3">
-        <v>29400</v>
+        <v>21000</v>
       </c>
       <c r="G57" s="3">
-        <v>20400</v>
+        <v>11700</v>
       </c>
       <c r="H57" s="3">
-        <v>11400</v>
+        <v>12900</v>
       </c>
       <c r="I57" s="3">
-        <v>12500</v>
+        <v>6800</v>
       </c>
       <c r="J57" s="3">
-        <v>6600</v>
+        <v>4700</v>
       </c>
       <c r="K57" s="3">
         <v>3400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38600</v>
+        <v>31800</v>
       </c>
       <c r="E58" s="3">
-        <v>30800</v>
+        <v>11100</v>
       </c>
       <c r="F58" s="3">
-        <v>10800</v>
+        <v>18900</v>
       </c>
       <c r="G58" s="3">
-        <v>18300</v>
+        <v>35000</v>
       </c>
       <c r="H58" s="3">
-        <v>33900</v>
+        <v>57900</v>
       </c>
       <c r="I58" s="3">
-        <v>56100</v>
+        <v>55400</v>
       </c>
       <c r="J58" s="3">
-        <v>53600</v>
+        <v>26300</v>
       </c>
       <c r="K58" s="3">
         <v>36000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121600</v>
+        <v>113100</v>
       </c>
       <c r="E59" s="3">
-        <v>109600</v>
+        <v>263300</v>
       </c>
       <c r="F59" s="3">
-        <v>255000</v>
+        <v>231000</v>
       </c>
       <c r="G59" s="3">
-        <v>223700</v>
+        <v>102700</v>
       </c>
       <c r="H59" s="3">
-        <v>99500</v>
+        <v>105900</v>
       </c>
       <c r="I59" s="3">
-        <v>102500</v>
+        <v>166700</v>
       </c>
       <c r="J59" s="3">
-        <v>161500</v>
+        <v>63700</v>
       </c>
       <c r="K59" s="3">
         <v>41100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188400</v>
+        <v>176600</v>
       </c>
       <c r="E60" s="3">
-        <v>171100</v>
+        <v>304800</v>
       </c>
       <c r="F60" s="3">
-        <v>295200</v>
+        <v>270900</v>
       </c>
       <c r="G60" s="3">
-        <v>262400</v>
+        <v>149500</v>
       </c>
       <c r="H60" s="3">
-        <v>144800</v>
+        <v>137200</v>
       </c>
       <c r="I60" s="3">
-        <v>132900</v>
+        <v>163700</v>
       </c>
       <c r="J60" s="3">
-        <v>158500</v>
+        <v>78400</v>
       </c>
       <c r="K60" s="3">
         <v>68000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>727500</v>
+        <v>781800</v>
       </c>
       <c r="E61" s="3">
-        <v>757200</v>
+        <v>848500</v>
       </c>
       <c r="F61" s="3">
-        <v>821800</v>
+        <v>327800</v>
       </c>
       <c r="G61" s="3">
-        <v>317500</v>
+        <v>212600</v>
       </c>
       <c r="H61" s="3">
-        <v>205900</v>
+        <v>226500</v>
       </c>
       <c r="I61" s="3">
-        <v>219400</v>
+        <v>267400</v>
       </c>
       <c r="J61" s="3">
-        <v>259000</v>
+        <v>326500</v>
       </c>
       <c r="K61" s="3">
         <v>405000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97900</v>
+        <v>125600</v>
       </c>
       <c r="E62" s="3">
-        <v>121600</v>
+        <v>115900</v>
       </c>
       <c r="F62" s="3">
-        <v>112300</v>
+        <v>58400</v>
       </c>
       <c r="G62" s="3">
-        <v>56500</v>
+        <v>10100</v>
       </c>
       <c r="H62" s="3">
-        <v>9700</v>
+        <v>23800</v>
       </c>
       <c r="I62" s="3">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="J62" s="3">
-        <v>26200</v>
+        <v>22000</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1371600</v>
+        <v>1446100</v>
       </c>
       <c r="E66" s="3">
-        <v>1400700</v>
+        <v>1620900</v>
       </c>
       <c r="F66" s="3">
-        <v>1570000</v>
+        <v>893800</v>
       </c>
       <c r="G66" s="3">
-        <v>865800</v>
+        <v>562300</v>
       </c>
       <c r="H66" s="3">
-        <v>544700</v>
+        <v>489300</v>
       </c>
       <c r="I66" s="3">
-        <v>473900</v>
+        <v>458300</v>
       </c>
       <c r="J66" s="3">
-        <v>443900</v>
+        <v>418400</v>
       </c>
       <c r="K66" s="3">
         <v>482800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1066600</v>
+        <v>1374400</v>
       </c>
       <c r="E72" s="3">
-        <v>1331300</v>
+        <v>941500</v>
       </c>
       <c r="F72" s="3">
-        <v>912000</v>
+        <v>1054800</v>
       </c>
       <c r="G72" s="3">
-        <v>1021700</v>
+        <v>1220600</v>
       </c>
       <c r="H72" s="3">
-        <v>1182300</v>
+        <v>1604600</v>
       </c>
       <c r="I72" s="3">
-        <v>1554300</v>
+        <v>1004400</v>
       </c>
       <c r="J72" s="3">
-        <v>972900</v>
+        <v>585700</v>
       </c>
       <c r="K72" s="3">
         <v>407400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2297500</v>
+        <v>2260000</v>
       </c>
       <c r="E76" s="3">
-        <v>2189100</v>
+        <v>2141000</v>
       </c>
       <c r="F76" s="3">
-        <v>2073800</v>
+        <v>1972300</v>
       </c>
       <c r="G76" s="3">
-        <v>1910400</v>
+        <v>1904300</v>
       </c>
       <c r="H76" s="3">
-        <v>1844500</v>
+        <v>1529900</v>
       </c>
       <c r="I76" s="3">
-        <v>1481900</v>
+        <v>1128400</v>
       </c>
       <c r="J76" s="3">
-        <v>1093000</v>
+        <v>928700</v>
       </c>
       <c r="K76" s="3">
         <v>422600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>127300</v>
+        <v>131400</v>
       </c>
       <c r="E81" s="3">
-        <v>218300</v>
+        <v>225300</v>
       </c>
       <c r="F81" s="3">
-        <v>249700</v>
+        <v>257800</v>
       </c>
       <c r="G81" s="3">
-        <v>209400</v>
+        <v>216200</v>
       </c>
       <c r="H81" s="3">
-        <v>228900</v>
+        <v>236300</v>
       </c>
       <c r="I81" s="3">
-        <v>221900</v>
+        <v>229100</v>
       </c>
       <c r="J81" s="3">
-        <v>106100</v>
+        <v>109500</v>
       </c>
       <c r="K81" s="3">
         <v>105900</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41300</v>
+        <v>34100</v>
       </c>
       <c r="E83" s="3">
-        <v>33000</v>
+        <v>22400</v>
       </c>
       <c r="F83" s="3">
-        <v>21700</v>
+        <v>20900</v>
       </c>
       <c r="G83" s="3">
-        <v>20300</v>
+        <v>18300</v>
       </c>
       <c r="H83" s="3">
-        <v>17700</v>
+        <v>13800</v>
       </c>
       <c r="I83" s="3">
-        <v>13400</v>
+        <v>14200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>196600</v>
+        <v>-87200</v>
       </c>
       <c r="E89" s="3">
-        <v>-84400</v>
+        <v>378800</v>
       </c>
       <c r="F89" s="3">
-        <v>366900</v>
+        <v>230600</v>
       </c>
       <c r="G89" s="3">
-        <v>223300</v>
+        <v>295200</v>
       </c>
       <c r="H89" s="3">
-        <v>285900</v>
+        <v>265600</v>
       </c>
       <c r="I89" s="3">
-        <v>257200</v>
+        <v>235200</v>
       </c>
       <c r="J89" s="3">
-        <v>227900</v>
+        <v>177600</v>
       </c>
       <c r="K89" s="3">
         <v>173900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-27100</v>
       </c>
       <c r="H91" s="3">
-        <v>-26200</v>
+        <v>-12000</v>
       </c>
       <c r="I91" s="3">
-        <v>-11600</v>
+        <v>-9300</v>
       </c>
       <c r="J91" s="3">
-        <v>-9000</v>
+        <v>-3500</v>
       </c>
       <c r="K91" s="3">
         <v>-3400</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>154000</v>
+        <v>-50900</v>
       </c>
       <c r="E94" s="3">
-        <v>-49300</v>
+        <v>-250400</v>
       </c>
       <c r="F94" s="3">
-        <v>-242500</v>
+        <v>-427900</v>
       </c>
       <c r="G94" s="3">
-        <v>-414400</v>
+        <v>-376700</v>
       </c>
       <c r="H94" s="3">
-        <v>-364800</v>
+        <v>-141700</v>
       </c>
       <c r="I94" s="3">
-        <v>-137200</v>
+        <v>-441900</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3531,19 +3531,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-95700</v>
+        <v>-98800</v>
       </c>
       <c r="E96" s="3">
-        <v>-95700</v>
+        <v>-98800</v>
       </c>
       <c r="F96" s="3">
-        <v>-95700</v>
+        <v>-39500</v>
       </c>
       <c r="G96" s="3">
-        <v>-38300</v>
+        <v>-19800</v>
       </c>
       <c r="H96" s="3">
-        <v>-19100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256400</v>
+        <v>173400</v>
       </c>
       <c r="E100" s="3">
-        <v>168000</v>
+        <v>-145400</v>
       </c>
       <c r="F100" s="3">
-        <v>-140800</v>
+        <v>187300</v>
       </c>
       <c r="G100" s="3">
-        <v>181400</v>
+        <v>127600</v>
       </c>
       <c r="H100" s="3">
-        <v>123600</v>
+        <v>-115300</v>
       </c>
       <c r="I100" s="3">
-        <v>-111700</v>
+        <v>216900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-63300</v>
+        <v>-22400</v>
       </c>
       <c r="E101" s="3">
-        <v>-21700</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>5200</v>
+        <v>335200</v>
       </c>
       <c r="G101" s="3">
-        <v>324700</v>
+        <v>198200</v>
       </c>
       <c r="H101" s="3">
-        <v>192000</v>
+        <v>-6500</v>
       </c>
       <c r="I101" s="3">
-        <v>-6300</v>
+        <v>1400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30900</v>
+        <v>12900</v>
       </c>
       <c r="E102" s="3">
-        <v>12500</v>
+        <v>-11600</v>
       </c>
       <c r="F102" s="3">
-        <v>-11200</v>
+        <v>325200</v>
       </c>
       <c r="G102" s="3">
-        <v>315000</v>
+        <v>244400</v>
       </c>
       <c r="H102" s="3">
-        <v>236700</v>
+        <v>2100</v>
       </c>
       <c r="I102" s="3">
-        <v>2100</v>
+        <v>11700</v>
       </c>
       <c r="J102" s="3">
-        <v>11300</v>
+        <v>2200</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>490700</v>
+        <v>623700</v>
       </c>
       <c r="E8" s="3">
-        <v>595300</v>
+        <v>498800</v>
       </c>
       <c r="F8" s="3">
-        <v>601400</v>
+        <v>605100</v>
       </c>
       <c r="G8" s="3">
-        <v>494400</v>
+        <v>611400</v>
       </c>
       <c r="H8" s="3">
-        <v>520700</v>
+        <v>502600</v>
       </c>
       <c r="I8" s="3">
-        <v>518100</v>
+        <v>529300</v>
       </c>
       <c r="J8" s="3">
+        <v>526700</v>
+      </c>
+      <c r="K8" s="3">
         <v>334500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>281600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>206700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>215400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>236600</v>
+        <v>280200</v>
       </c>
       <c r="E9" s="3">
-        <v>274800</v>
+        <v>240500</v>
       </c>
       <c r="F9" s="3">
-        <v>273000</v>
+        <v>279300</v>
       </c>
       <c r="G9" s="3">
-        <v>204200</v>
+        <v>277500</v>
       </c>
       <c r="H9" s="3">
-        <v>232300</v>
+        <v>207600</v>
       </c>
       <c r="I9" s="3">
-        <v>273500</v>
+        <v>236200</v>
       </c>
       <c r="J9" s="3">
+        <v>278100</v>
+      </c>
+      <c r="K9" s="3">
         <v>152200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>120800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>81100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>254100</v>
+        <v>343500</v>
       </c>
       <c r="E10" s="3">
-        <v>320500</v>
+        <v>258300</v>
       </c>
       <c r="F10" s="3">
-        <v>328400</v>
+        <v>325800</v>
       </c>
       <c r="G10" s="3">
-        <v>290200</v>
+        <v>333900</v>
       </c>
       <c r="H10" s="3">
-        <v>288300</v>
+        <v>295000</v>
       </c>
       <c r="I10" s="3">
-        <v>244600</v>
+        <v>293100</v>
       </c>
       <c r="J10" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K10" s="3">
         <v>182300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>160800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>129400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,32 +964,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>500</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>238900</v>
+        <v>286900</v>
       </c>
       <c r="E17" s="3">
-        <v>278000</v>
+        <v>242800</v>
       </c>
       <c r="F17" s="3">
-        <v>273200</v>
+        <v>282700</v>
       </c>
       <c r="G17" s="3">
-        <v>201500</v>
+        <v>277700</v>
       </c>
       <c r="H17" s="3">
-        <v>229400</v>
+        <v>204800</v>
       </c>
       <c r="I17" s="3">
-        <v>268900</v>
+        <v>233200</v>
       </c>
       <c r="J17" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K17" s="3">
         <v>146300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>118600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>251800</v>
+        <v>336800</v>
       </c>
       <c r="E18" s="3">
-        <v>317200</v>
+        <v>256000</v>
       </c>
       <c r="F18" s="3">
-        <v>328200</v>
+        <v>322500</v>
       </c>
       <c r="G18" s="3">
-        <v>292900</v>
+        <v>333700</v>
       </c>
       <c r="H18" s="3">
-        <v>291300</v>
+        <v>297800</v>
       </c>
       <c r="I18" s="3">
-        <v>249200</v>
+        <v>296100</v>
       </c>
       <c r="J18" s="3">
+        <v>253300</v>
+      </c>
+      <c r="K18" s="3">
         <v>188100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>163000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>125000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,67 +1115,71 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45300</v>
+        <v>11100</v>
       </c>
       <c r="E20" s="3">
-        <v>78700</v>
+        <v>-46100</v>
       </c>
       <c r="F20" s="3">
-        <v>78100</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="3">
-        <v>37600</v>
+        <v>79400</v>
       </c>
       <c r="H20" s="3">
-        <v>45100</v>
+        <v>38200</v>
       </c>
       <c r="I20" s="3">
-        <v>41000</v>
+        <v>45800</v>
       </c>
       <c r="J20" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K20" s="3">
         <v>19800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-55500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>240500</v>
+        <v>402200</v>
       </c>
       <c r="E21" s="3">
-        <v>418300</v>
+        <v>253400</v>
       </c>
       <c r="F21" s="3">
-        <v>427200</v>
+        <v>437200</v>
       </c>
       <c r="G21" s="3">
-        <v>348700</v>
+        <v>435900</v>
       </c>
       <c r="H21" s="3">
-        <v>350200</v>
+        <v>357300</v>
       </c>
       <c r="I21" s="3">
-        <v>304300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>360600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>309100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1154,117 +1190,129 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>45400</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>32000</v>
+        <v>46200</v>
       </c>
       <c r="G22" s="3">
-        <v>32200</v>
+        <v>32500</v>
       </c>
       <c r="H22" s="3">
-        <v>58300</v>
+        <v>32700</v>
       </c>
       <c r="I22" s="3">
-        <v>36400</v>
+        <v>59300</v>
       </c>
       <c r="J22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K22" s="3">
         <v>79200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>54800</v>
       </c>
       <c r="L22" s="3">
         <v>54800</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206500</v>
+        <v>348000</v>
       </c>
       <c r="E23" s="3">
-        <v>350500</v>
+        <v>210000</v>
       </c>
       <c r="F23" s="3">
-        <v>374300</v>
+        <v>356400</v>
       </c>
       <c r="G23" s="3">
-        <v>298300</v>
+        <v>380500</v>
       </c>
       <c r="H23" s="3">
-        <v>278100</v>
+        <v>303200</v>
       </c>
       <c r="I23" s="3">
-        <v>253800</v>
+        <v>282700</v>
       </c>
       <c r="J23" s="3">
+        <v>258000</v>
+      </c>
+      <c r="K23" s="3">
         <v>128700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>121100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37800</v>
+        <v>21300</v>
       </c>
       <c r="E24" s="3">
-        <v>88800</v>
+        <v>38400</v>
       </c>
       <c r="F24" s="3">
-        <v>78700</v>
+        <v>90300</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>80000</v>
       </c>
       <c r="H24" s="3">
-        <v>38900</v>
+        <v>60500</v>
       </c>
       <c r="I24" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>800</v>
+      </c>
+      <c r="N24" s="3">
         <v>23700</v>
       </c>
-      <c r="J24" s="3">
-        <v>19100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>23700</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>168800</v>
+        <v>326600</v>
       </c>
       <c r="E26" s="3">
-        <v>261700</v>
+        <v>171600</v>
       </c>
       <c r="F26" s="3">
-        <v>295600</v>
+        <v>266000</v>
       </c>
       <c r="G26" s="3">
-        <v>238800</v>
+        <v>300500</v>
       </c>
       <c r="H26" s="3">
-        <v>239200</v>
+        <v>242700</v>
       </c>
       <c r="I26" s="3">
-        <v>230100</v>
+        <v>243100</v>
       </c>
       <c r="J26" s="3">
+        <v>233900</v>
+      </c>
+      <c r="K26" s="3">
         <v>109600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>82100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>48500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>131400</v>
+        <v>281500</v>
       </c>
       <c r="E27" s="3">
-        <v>225300</v>
+        <v>133600</v>
       </c>
       <c r="F27" s="3">
-        <v>257800</v>
+        <v>229100</v>
       </c>
       <c r="G27" s="3">
-        <v>216600</v>
+        <v>262100</v>
       </c>
       <c r="H27" s="3">
-        <v>236300</v>
+        <v>220200</v>
       </c>
       <c r="I27" s="3">
-        <v>230000</v>
+        <v>240300</v>
       </c>
       <c r="J27" s="3">
+        <v>233900</v>
+      </c>
+      <c r="K27" s="3">
         <v>109600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,32 +1463,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-900</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-100</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45300</v>
+        <v>-11100</v>
       </c>
       <c r="E32" s="3">
-        <v>-78700</v>
+        <v>46100</v>
       </c>
       <c r="F32" s="3">
-        <v>-78100</v>
+        <v>-80000</v>
       </c>
       <c r="G32" s="3">
-        <v>-37600</v>
+        <v>-79400</v>
       </c>
       <c r="H32" s="3">
-        <v>-45100</v>
+        <v>-38200</v>
       </c>
       <c r="I32" s="3">
-        <v>-41000</v>
+        <v>-45800</v>
       </c>
       <c r="J32" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>55500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>131400</v>
+        <v>281500</v>
       </c>
       <c r="E33" s="3">
-        <v>225300</v>
+        <v>133600</v>
       </c>
       <c r="F33" s="3">
-        <v>257800</v>
+        <v>229100</v>
       </c>
       <c r="G33" s="3">
-        <v>216200</v>
+        <v>262100</v>
       </c>
       <c r="H33" s="3">
-        <v>236300</v>
+        <v>219800</v>
       </c>
       <c r="I33" s="3">
-        <v>229100</v>
+        <v>240300</v>
       </c>
       <c r="J33" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K33" s="3">
         <v>109500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>105900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>48400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>131400</v>
+        <v>281500</v>
       </c>
       <c r="E35" s="3">
-        <v>225300</v>
+        <v>133600</v>
       </c>
       <c r="F35" s="3">
-        <v>257800</v>
+        <v>229100</v>
       </c>
       <c r="G35" s="3">
-        <v>216200</v>
+        <v>262100</v>
       </c>
       <c r="H35" s="3">
-        <v>236300</v>
+        <v>219800</v>
       </c>
       <c r="I35" s="3">
-        <v>229100</v>
+        <v>240300</v>
       </c>
       <c r="J35" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K35" s="3">
         <v>109500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>105900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>48400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55900</v>
+        <v>133500</v>
       </c>
       <c r="E41" s="3">
-        <v>24000</v>
+        <v>56900</v>
       </c>
       <c r="F41" s="3">
-        <v>11100</v>
+        <v>24400</v>
       </c>
       <c r="G41" s="3">
-        <v>22600</v>
+        <v>11300</v>
       </c>
       <c r="H41" s="3">
-        <v>759100</v>
+        <v>22900</v>
       </c>
       <c r="I41" s="3">
-        <v>507500</v>
+        <v>771700</v>
       </c>
       <c r="J41" s="3">
+        <v>515900</v>
+      </c>
+      <c r="K41" s="3">
         <v>17100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1176700</v>
+        <v>1144500</v>
       </c>
       <c r="E42" s="3">
-        <v>1402900</v>
+        <v>1196200</v>
       </c>
       <c r="F42" s="3">
-        <v>1233400</v>
+        <v>1426100</v>
       </c>
       <c r="G42" s="3">
-        <v>1025100</v>
+        <v>1253800</v>
       </c>
       <c r="H42" s="3">
-        <v>689400</v>
+        <v>1042100</v>
       </c>
       <c r="I42" s="3">
-        <v>436800</v>
+        <v>700800</v>
       </c>
       <c r="J42" s="3">
+        <v>444100</v>
+      </c>
+      <c r="K42" s="3">
         <v>446500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>287700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>158300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>142400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>70600</v>
+        <v>133700</v>
       </c>
       <c r="E43" s="3">
-        <v>82900</v>
+        <v>71800</v>
       </c>
       <c r="F43" s="3">
-        <v>77600</v>
+        <v>84300</v>
       </c>
       <c r="G43" s="3">
-        <v>122500</v>
+        <v>78900</v>
       </c>
       <c r="H43" s="3">
-        <v>220400</v>
+        <v>124500</v>
       </c>
       <c r="I43" s="3">
-        <v>152300</v>
+        <v>224100</v>
       </c>
       <c r="J43" s="3">
+        <v>154800</v>
+      </c>
+      <c r="K43" s="3">
         <v>40100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>45000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>77500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="E44" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="F44" s="3">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="G44" s="3">
-        <v>5100</v>
+        <v>5900</v>
       </c>
       <c r="H44" s="3">
-        <v>7800</v>
+        <v>5200</v>
       </c>
       <c r="I44" s="3">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="J44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K44" s="3">
         <v>9700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11600</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>22600</v>
+        <v>11800</v>
       </c>
       <c r="F45" s="3">
-        <v>9700</v>
+        <v>22900</v>
       </c>
       <c r="G45" s="3">
-        <v>24700</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>68000</v>
+        <v>25100</v>
       </c>
       <c r="I45" s="3">
-        <v>12700</v>
+        <v>69100</v>
       </c>
       <c r="J45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K45" s="3">
         <v>19200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1321600</v>
+        <v>1434600</v>
       </c>
       <c r="E46" s="3">
-        <v>1541700</v>
+        <v>1343500</v>
       </c>
       <c r="F46" s="3">
-        <v>1340400</v>
+        <v>1567300</v>
       </c>
       <c r="G46" s="3">
-        <v>1200000</v>
+        <v>1362600</v>
       </c>
       <c r="H46" s="3">
-        <v>875100</v>
+        <v>1219900</v>
       </c>
       <c r="I46" s="3">
-        <v>568900</v>
+        <v>889700</v>
       </c>
       <c r="J46" s="3">
+        <v>578300</v>
+      </c>
+      <c r="K46" s="3">
         <v>498400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>181200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>178600</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>179700</v>
+        <v>152500</v>
       </c>
       <c r="E47" s="3">
-        <v>94600</v>
+        <v>182700</v>
       </c>
       <c r="F47" s="3">
-        <v>141800</v>
+        <v>96100</v>
       </c>
       <c r="G47" s="3">
-        <v>208200</v>
+        <v>144200</v>
       </c>
       <c r="H47" s="3">
-        <v>191400</v>
+        <v>211700</v>
       </c>
       <c r="I47" s="3">
-        <v>174300</v>
+        <v>194500</v>
       </c>
       <c r="J47" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K47" s="3">
         <v>115700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55400</v>
+        <v>124200</v>
       </c>
       <c r="E48" s="3">
-        <v>57100</v>
+        <v>56300</v>
       </c>
       <c r="F48" s="3">
-        <v>51800</v>
+        <v>58100</v>
       </c>
       <c r="G48" s="3">
-        <v>52300</v>
+        <v>52700</v>
       </c>
       <c r="H48" s="3">
-        <v>104500</v>
+        <v>53100</v>
       </c>
       <c r="I48" s="3">
-        <v>87500</v>
+        <v>106300</v>
       </c>
       <c r="J48" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K48" s="3">
         <v>40800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>60900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1982300</v>
+        <v>1962800</v>
       </c>
       <c r="E49" s="3">
-        <v>1954000</v>
+        <v>2015200</v>
       </c>
       <c r="F49" s="3">
-        <v>2286400</v>
+        <v>1986500</v>
       </c>
       <c r="G49" s="3">
-        <v>937800</v>
+        <v>2324400</v>
       </c>
       <c r="H49" s="3">
-        <v>1642500</v>
+        <v>953400</v>
       </c>
       <c r="I49" s="3">
-        <v>1480400</v>
+        <v>1669700</v>
       </c>
       <c r="J49" s="3">
+        <v>1505000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1255300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1644800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>927300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>385500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>167100</v>
+        <v>184900</v>
       </c>
       <c r="E52" s="3">
-        <v>114400</v>
+        <v>169800</v>
       </c>
       <c r="F52" s="3">
-        <v>98500</v>
+        <v>116300</v>
       </c>
       <c r="G52" s="3">
-        <v>68300</v>
+        <v>100200</v>
       </c>
       <c r="H52" s="3">
-        <v>85200</v>
+        <v>69400</v>
       </c>
       <c r="I52" s="3">
-        <v>81800</v>
+        <v>86700</v>
       </c>
       <c r="J52" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K52" s="3">
         <v>120400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>121300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3706100</v>
+        <v>3859100</v>
       </c>
       <c r="E54" s="3">
-        <v>3761900</v>
+        <v>3767600</v>
       </c>
       <c r="F54" s="3">
-        <v>2866100</v>
+        <v>3824300</v>
       </c>
       <c r="G54" s="3">
-        <v>2466600</v>
+        <v>2913700</v>
       </c>
       <c r="H54" s="3">
-        <v>2019100</v>
+        <v>2507500</v>
       </c>
       <c r="I54" s="3">
-        <v>1586700</v>
+        <v>2052700</v>
       </c>
       <c r="J54" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1347000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>905400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>748800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>728600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31600</v>
+        <v>29600</v>
       </c>
       <c r="E57" s="3">
-        <v>30400</v>
+        <v>32200</v>
       </c>
       <c r="F57" s="3">
-        <v>21000</v>
+        <v>30900</v>
       </c>
       <c r="G57" s="3">
-        <v>11700</v>
+        <v>21400</v>
       </c>
       <c r="H57" s="3">
-        <v>12900</v>
+        <v>11900</v>
       </c>
       <c r="I57" s="3">
-        <v>6800</v>
+        <v>13100</v>
       </c>
       <c r="J57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31800</v>
+        <v>27100</v>
       </c>
       <c r="E58" s="3">
-        <v>11100</v>
+        <v>20200</v>
       </c>
       <c r="F58" s="3">
-        <v>18900</v>
+        <v>11300</v>
       </c>
       <c r="G58" s="3">
-        <v>35000</v>
+        <v>19200</v>
       </c>
       <c r="H58" s="3">
-        <v>57900</v>
+        <v>35600</v>
       </c>
       <c r="I58" s="3">
-        <v>55400</v>
+        <v>58900</v>
       </c>
       <c r="J58" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K58" s="3">
         <v>26300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>113100</v>
+        <v>149300</v>
       </c>
       <c r="E59" s="3">
-        <v>263300</v>
+        <v>127200</v>
       </c>
       <c r="F59" s="3">
-        <v>231000</v>
+        <v>267600</v>
       </c>
       <c r="G59" s="3">
-        <v>102700</v>
+        <v>234800</v>
       </c>
       <c r="H59" s="3">
-        <v>105900</v>
+        <v>104400</v>
       </c>
       <c r="I59" s="3">
-        <v>166700</v>
+        <v>107600</v>
       </c>
       <c r="J59" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K59" s="3">
         <v>63700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>41100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>176600</v>
+        <v>206000</v>
       </c>
       <c r="E60" s="3">
-        <v>304800</v>
+        <v>179500</v>
       </c>
       <c r="F60" s="3">
-        <v>270900</v>
+        <v>309800</v>
       </c>
       <c r="G60" s="3">
-        <v>149500</v>
+        <v>275400</v>
       </c>
       <c r="H60" s="3">
-        <v>137200</v>
+        <v>152000</v>
       </c>
       <c r="I60" s="3">
-        <v>163700</v>
+        <v>139500</v>
       </c>
       <c r="J60" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K60" s="3">
         <v>78400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>781800</v>
+        <v>771900</v>
       </c>
       <c r="E61" s="3">
-        <v>848500</v>
+        <v>794700</v>
       </c>
       <c r="F61" s="3">
-        <v>327800</v>
+        <v>862500</v>
       </c>
       <c r="G61" s="3">
-        <v>212600</v>
+        <v>333300</v>
       </c>
       <c r="H61" s="3">
-        <v>226500</v>
+        <v>216100</v>
       </c>
       <c r="I61" s="3">
-        <v>267400</v>
+        <v>230300</v>
       </c>
       <c r="J61" s="3">
+        <v>271900</v>
+      </c>
+      <c r="K61" s="3">
         <v>326500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>405000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>381700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>497000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>125600</v>
+        <v>76300</v>
       </c>
       <c r="E62" s="3">
-        <v>115900</v>
+        <v>127700</v>
       </c>
       <c r="F62" s="3">
-        <v>58400</v>
+        <v>117800</v>
       </c>
       <c r="G62" s="3">
-        <v>10100</v>
+        <v>59300</v>
       </c>
       <c r="H62" s="3">
-        <v>23800</v>
+        <v>10200</v>
       </c>
       <c r="I62" s="3">
-        <v>27000</v>
+        <v>24200</v>
       </c>
       <c r="J62" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K62" s="3">
         <v>22000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1446100</v>
+        <v>1441300</v>
       </c>
       <c r="E66" s="3">
-        <v>1620900</v>
+        <v>1470100</v>
       </c>
       <c r="F66" s="3">
-        <v>893800</v>
+        <v>1647800</v>
       </c>
       <c r="G66" s="3">
-        <v>562300</v>
+        <v>908700</v>
       </c>
       <c r="H66" s="3">
-        <v>489300</v>
+        <v>571600</v>
       </c>
       <c r="I66" s="3">
-        <v>458300</v>
+        <v>497400</v>
       </c>
       <c r="J66" s="3">
+        <v>465900</v>
+      </c>
+      <c r="K66" s="3">
         <v>418400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>482800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>453300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>549700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1374400</v>
+        <v>1578300</v>
       </c>
       <c r="E72" s="3">
-        <v>941500</v>
+        <v>1397200</v>
       </c>
       <c r="F72" s="3">
-        <v>1054800</v>
+        <v>957200</v>
       </c>
       <c r="G72" s="3">
-        <v>1220600</v>
+        <v>1072300</v>
       </c>
       <c r="H72" s="3">
-        <v>1604600</v>
+        <v>1240900</v>
       </c>
       <c r="I72" s="3">
-        <v>1004400</v>
+        <v>1631300</v>
       </c>
       <c r="J72" s="3">
+        <v>1021100</v>
+      </c>
+      <c r="K72" s="3">
         <v>585700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>407400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>279400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2260000</v>
+        <v>2417800</v>
       </c>
       <c r="E76" s="3">
-        <v>2141000</v>
+        <v>2297500</v>
       </c>
       <c r="F76" s="3">
-        <v>1972300</v>
+        <v>2176500</v>
       </c>
       <c r="G76" s="3">
-        <v>1904300</v>
+        <v>2005000</v>
       </c>
       <c r="H76" s="3">
-        <v>1529900</v>
+        <v>1935900</v>
       </c>
       <c r="I76" s="3">
-        <v>1128400</v>
+        <v>1555300</v>
       </c>
       <c r="J76" s="3">
+        <v>1147100</v>
+      </c>
+      <c r="K76" s="3">
         <v>928700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>422600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>295500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>178900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>131400</v>
+        <v>281500</v>
       </c>
       <c r="E81" s="3">
-        <v>225300</v>
+        <v>133600</v>
       </c>
       <c r="F81" s="3">
-        <v>257800</v>
+        <v>229100</v>
       </c>
       <c r="G81" s="3">
-        <v>216200</v>
+        <v>262100</v>
       </c>
       <c r="H81" s="3">
-        <v>236300</v>
+        <v>219800</v>
       </c>
       <c r="I81" s="3">
-        <v>229100</v>
+        <v>240300</v>
       </c>
       <c r="J81" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K81" s="3">
         <v>109500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>105900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>48400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,31 +3294,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34100</v>
+        <v>54100</v>
       </c>
       <c r="E83" s="3">
-        <v>22400</v>
+        <v>43300</v>
       </c>
       <c r="F83" s="3">
-        <v>20900</v>
+        <v>34700</v>
       </c>
       <c r="G83" s="3">
-        <v>18300</v>
+        <v>22800</v>
       </c>
       <c r="H83" s="3">
-        <v>13800</v>
+        <v>21300</v>
       </c>
       <c r="I83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>18600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>14100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3132,9 +3330,12 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-87200</v>
+        <v>334300</v>
       </c>
       <c r="E89" s="3">
-        <v>378800</v>
+        <v>206300</v>
       </c>
       <c r="F89" s="3">
-        <v>230600</v>
+        <v>-88600</v>
       </c>
       <c r="G89" s="3">
-        <v>295200</v>
+        <v>385100</v>
       </c>
       <c r="H89" s="3">
-        <v>265600</v>
+        <v>234400</v>
       </c>
       <c r="I89" s="3">
-        <v>235200</v>
+        <v>300100</v>
       </c>
       <c r="J89" s="3">
+        <v>270000</v>
+      </c>
+      <c r="K89" s="3">
         <v>177600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>173900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>123900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12300</v>
+        <v>-63700</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-3300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-12500</v>
       </c>
       <c r="G91" s="3">
-        <v>-27100</v>
+        <v>-5800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12000</v>
+        <v>-3200</v>
       </c>
       <c r="I91" s="3">
-        <v>-9300</v>
+        <v>-27500</v>
       </c>
       <c r="J91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,32 +3698,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50900</v>
+        <v>60700</v>
       </c>
       <c r="E94" s="3">
-        <v>-250400</v>
+        <v>161600</v>
       </c>
       <c r="F94" s="3">
-        <v>-427900</v>
+        <v>-51800</v>
       </c>
       <c r="G94" s="3">
-        <v>-376700</v>
+        <v>-254500</v>
       </c>
       <c r="H94" s="3">
-        <v>-141700</v>
+        <v>-435000</v>
       </c>
       <c r="I94" s="3">
-        <v>-441900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-382900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-144000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3508,9 +3737,12 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,28 +3757,29 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98800</v>
+        <v>-100400</v>
       </c>
       <c r="E96" s="3">
-        <v>-98800</v>
+        <v>-100400</v>
       </c>
       <c r="F96" s="3">
-        <v>-39500</v>
+        <v>-100400</v>
       </c>
       <c r="G96" s="3">
-        <v>-19800</v>
+        <v>-100400</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-40200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-20100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,32 +3910,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>173400</v>
+        <v>-337100</v>
       </c>
       <c r="E100" s="3">
-        <v>-145400</v>
+        <v>-269100</v>
       </c>
       <c r="F100" s="3">
-        <v>187300</v>
+        <v>176300</v>
       </c>
       <c r="G100" s="3">
-        <v>127600</v>
+        <v>-147800</v>
       </c>
       <c r="H100" s="3">
-        <v>-115300</v>
+        <v>190400</v>
       </c>
       <c r="I100" s="3">
-        <v>216900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>129700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-117200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3704,32 +3949,35 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22400</v>
+        <v>18700</v>
       </c>
       <c r="E101" s="3">
-        <v>5400</v>
+        <v>-66400</v>
       </c>
       <c r="F101" s="3">
-        <v>335200</v>
+        <v>-22800</v>
       </c>
       <c r="G101" s="3">
-        <v>198200</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>-6500</v>
+        <v>340800</v>
       </c>
       <c r="I101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>201500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3740,29 +3988,32 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12900</v>
+        <v>76600</v>
       </c>
       <c r="E102" s="3">
-        <v>-11600</v>
+        <v>32500</v>
       </c>
       <c r="F102" s="3">
-        <v>325200</v>
+        <v>13100</v>
       </c>
       <c r="G102" s="3">
-        <v>244400</v>
+        <v>-11800</v>
       </c>
       <c r="H102" s="3">
-        <v>2100</v>
+        <v>330600</v>
       </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>248400</v>
       </c>
       <c r="J102" s="3">
         <v>2200</v>
@@ -3771,12 +4022,15 @@
         <v>2200</v>
       </c>
       <c r="L102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>623700</v>
+        <v>643200</v>
       </c>
       <c r="E8" s="3">
-        <v>498800</v>
+        <v>514400</v>
       </c>
       <c r="F8" s="3">
-        <v>605100</v>
+        <v>624100</v>
       </c>
       <c r="G8" s="3">
-        <v>611400</v>
+        <v>630500</v>
       </c>
       <c r="H8" s="3">
-        <v>502600</v>
+        <v>518300</v>
       </c>
       <c r="I8" s="3">
-        <v>529300</v>
+        <v>545800</v>
       </c>
       <c r="J8" s="3">
-        <v>526700</v>
+        <v>543100</v>
       </c>
       <c r="K8" s="3">
         <v>334500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>280200</v>
+        <v>289000</v>
       </c>
       <c r="E9" s="3">
-        <v>240500</v>
+        <v>248000</v>
       </c>
       <c r="F9" s="3">
-        <v>279300</v>
+        <v>288100</v>
       </c>
       <c r="G9" s="3">
-        <v>277500</v>
+        <v>286200</v>
       </c>
       <c r="H9" s="3">
-        <v>207600</v>
+        <v>214100</v>
       </c>
       <c r="I9" s="3">
-        <v>236200</v>
+        <v>243600</v>
       </c>
       <c r="J9" s="3">
-        <v>278100</v>
+        <v>286700</v>
       </c>
       <c r="K9" s="3">
         <v>152200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>343500</v>
+        <v>354300</v>
       </c>
       <c r="E10" s="3">
-        <v>258300</v>
+        <v>266400</v>
       </c>
       <c r="F10" s="3">
-        <v>325800</v>
+        <v>336000</v>
       </c>
       <c r="G10" s="3">
-        <v>333900</v>
+        <v>344300</v>
       </c>
       <c r="H10" s="3">
-        <v>295000</v>
+        <v>304200</v>
       </c>
       <c r="I10" s="3">
-        <v>293100</v>
+        <v>302300</v>
       </c>
       <c r="J10" s="3">
-        <v>248600</v>
+        <v>256400</v>
       </c>
       <c r="K10" s="3">
         <v>182300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>286900</v>
+        <v>295900</v>
       </c>
       <c r="E17" s="3">
-        <v>242800</v>
+        <v>250400</v>
       </c>
       <c r="F17" s="3">
-        <v>282700</v>
+        <v>291500</v>
       </c>
       <c r="G17" s="3">
-        <v>277700</v>
+        <v>286400</v>
       </c>
       <c r="H17" s="3">
-        <v>204800</v>
+        <v>211200</v>
       </c>
       <c r="I17" s="3">
-        <v>233200</v>
+        <v>240500</v>
       </c>
       <c r="J17" s="3">
-        <v>273300</v>
+        <v>281900</v>
       </c>
       <c r="K17" s="3">
         <v>146300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>336800</v>
+        <v>347400</v>
       </c>
       <c r="E18" s="3">
-        <v>256000</v>
+        <v>264000</v>
       </c>
       <c r="F18" s="3">
-        <v>322500</v>
+        <v>332600</v>
       </c>
       <c r="G18" s="3">
-        <v>333700</v>
+        <v>344100</v>
       </c>
       <c r="H18" s="3">
-        <v>297800</v>
+        <v>307100</v>
       </c>
       <c r="I18" s="3">
-        <v>296100</v>
+        <v>305400</v>
       </c>
       <c r="J18" s="3">
-        <v>253300</v>
+        <v>261300</v>
       </c>
       <c r="K18" s="3">
         <v>188100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="E20" s="3">
-        <v>-46100</v>
+        <v>-47500</v>
       </c>
       <c r="F20" s="3">
-        <v>80000</v>
+        <v>82500</v>
       </c>
       <c r="G20" s="3">
-        <v>79400</v>
+        <v>81900</v>
       </c>
       <c r="H20" s="3">
-        <v>38200</v>
+        <v>39400</v>
       </c>
       <c r="I20" s="3">
-        <v>45800</v>
+        <v>47300</v>
       </c>
       <c r="J20" s="3">
-        <v>41700</v>
+        <v>43000</v>
       </c>
       <c r="K20" s="3">
         <v>19800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>402200</v>
+        <v>413900</v>
       </c>
       <c r="E21" s="3">
-        <v>253400</v>
+        <v>260600</v>
       </c>
       <c r="F21" s="3">
-        <v>437200</v>
+        <v>450400</v>
       </c>
       <c r="G21" s="3">
-        <v>435900</v>
+        <v>449200</v>
       </c>
       <c r="H21" s="3">
-        <v>357300</v>
+        <v>368100</v>
       </c>
       <c r="I21" s="3">
-        <v>360600</v>
+        <v>371500</v>
       </c>
       <c r="J21" s="3">
-        <v>309100</v>
+        <v>318600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>46200</v>
+        <v>47600</v>
       </c>
       <c r="G22" s="3">
-        <v>32500</v>
+        <v>33600</v>
       </c>
       <c r="H22" s="3">
-        <v>32700</v>
+        <v>33700</v>
       </c>
       <c r="I22" s="3">
-        <v>59300</v>
+        <v>61100</v>
       </c>
       <c r="J22" s="3">
-        <v>37000</v>
+        <v>38200</v>
       </c>
       <c r="K22" s="3">
         <v>79200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>348000</v>
+        <v>358800</v>
       </c>
       <c r="E23" s="3">
-        <v>210000</v>
+        <v>216500</v>
       </c>
       <c r="F23" s="3">
-        <v>356400</v>
+        <v>367500</v>
       </c>
       <c r="G23" s="3">
-        <v>380500</v>
+        <v>392400</v>
       </c>
       <c r="H23" s="3">
-        <v>303200</v>
+        <v>312700</v>
       </c>
       <c r="I23" s="3">
-        <v>282700</v>
+        <v>291500</v>
       </c>
       <c r="J23" s="3">
-        <v>258000</v>
+        <v>266000</v>
       </c>
       <c r="K23" s="3">
         <v>128700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="E24" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="F24" s="3">
-        <v>90300</v>
+        <v>93100</v>
       </c>
       <c r="G24" s="3">
-        <v>80000</v>
+        <v>82500</v>
       </c>
       <c r="H24" s="3">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="I24" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="J24" s="3">
-        <v>24100</v>
+        <v>24900</v>
       </c>
       <c r="K24" s="3">
         <v>19100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>326600</v>
+        <v>336900</v>
       </c>
       <c r="E26" s="3">
-        <v>171600</v>
+        <v>176900</v>
       </c>
       <c r="F26" s="3">
-        <v>266000</v>
+        <v>274400</v>
       </c>
       <c r="G26" s="3">
-        <v>300500</v>
+        <v>309900</v>
       </c>
       <c r="H26" s="3">
-        <v>242700</v>
+        <v>250300</v>
       </c>
       <c r="I26" s="3">
-        <v>243100</v>
+        <v>250700</v>
       </c>
       <c r="J26" s="3">
-        <v>233900</v>
+        <v>241200</v>
       </c>
       <c r="K26" s="3">
         <v>109600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>281500</v>
+        <v>290300</v>
       </c>
       <c r="E27" s="3">
-        <v>133600</v>
+        <v>137800</v>
       </c>
       <c r="F27" s="3">
-        <v>229100</v>
+        <v>236200</v>
       </c>
       <c r="G27" s="3">
-        <v>262100</v>
+        <v>270300</v>
       </c>
       <c r="H27" s="3">
-        <v>220200</v>
+        <v>227100</v>
       </c>
       <c r="I27" s="3">
-        <v>240300</v>
+        <v>247800</v>
       </c>
       <c r="J27" s="3">
-        <v>233900</v>
+        <v>241200</v>
       </c>
       <c r="K27" s="3">
         <v>109600</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11100</v>
+        <v>-11500</v>
       </c>
       <c r="E32" s="3">
-        <v>46100</v>
+        <v>47500</v>
       </c>
       <c r="F32" s="3">
-        <v>-80000</v>
+        <v>-82500</v>
       </c>
       <c r="G32" s="3">
-        <v>-79400</v>
+        <v>-81900</v>
       </c>
       <c r="H32" s="3">
-        <v>-38200</v>
+        <v>-39400</v>
       </c>
       <c r="I32" s="3">
-        <v>-45800</v>
+        <v>-47300</v>
       </c>
       <c r="J32" s="3">
-        <v>-41700</v>
+        <v>-43000</v>
       </c>
       <c r="K32" s="3">
         <v>-19800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>281500</v>
+        <v>290300</v>
       </c>
       <c r="E33" s="3">
-        <v>133600</v>
+        <v>137800</v>
       </c>
       <c r="F33" s="3">
-        <v>229100</v>
+        <v>236200</v>
       </c>
       <c r="G33" s="3">
-        <v>262100</v>
+        <v>270300</v>
       </c>
       <c r="H33" s="3">
-        <v>219800</v>
+        <v>226700</v>
       </c>
       <c r="I33" s="3">
-        <v>240300</v>
+        <v>247800</v>
       </c>
       <c r="J33" s="3">
-        <v>232900</v>
+        <v>240200</v>
       </c>
       <c r="K33" s="3">
         <v>109500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>281500</v>
+        <v>290300</v>
       </c>
       <c r="E35" s="3">
-        <v>133600</v>
+        <v>137800</v>
       </c>
       <c r="F35" s="3">
-        <v>229100</v>
+        <v>236200</v>
       </c>
       <c r="G35" s="3">
-        <v>262100</v>
+        <v>270300</v>
       </c>
       <c r="H35" s="3">
-        <v>219800</v>
+        <v>226700</v>
       </c>
       <c r="I35" s="3">
-        <v>240300</v>
+        <v>247800</v>
       </c>
       <c r="J35" s="3">
-        <v>232900</v>
+        <v>240200</v>
       </c>
       <c r="K35" s="3">
         <v>109500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133500</v>
+        <v>137600</v>
       </c>
       <c r="E41" s="3">
-        <v>56900</v>
+        <v>58600</v>
       </c>
       <c r="F41" s="3">
-        <v>24400</v>
+        <v>25200</v>
       </c>
       <c r="G41" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="H41" s="3">
-        <v>22900</v>
+        <v>23700</v>
       </c>
       <c r="I41" s="3">
-        <v>771700</v>
+        <v>795800</v>
       </c>
       <c r="J41" s="3">
-        <v>515900</v>
+        <v>532000</v>
       </c>
       <c r="K41" s="3">
         <v>17100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1144500</v>
+        <v>1180300</v>
       </c>
       <c r="E42" s="3">
-        <v>1196200</v>
+        <v>1233600</v>
       </c>
       <c r="F42" s="3">
-        <v>1426100</v>
+        <v>1470700</v>
       </c>
       <c r="G42" s="3">
-        <v>1253800</v>
+        <v>1293000</v>
       </c>
       <c r="H42" s="3">
-        <v>1042100</v>
+        <v>1074700</v>
       </c>
       <c r="I42" s="3">
-        <v>700800</v>
+        <v>722800</v>
       </c>
       <c r="J42" s="3">
-        <v>444100</v>
+        <v>458000</v>
       </c>
       <c r="K42" s="3">
         <v>446500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>133700</v>
+        <v>137900</v>
       </c>
       <c r="E43" s="3">
-        <v>71800</v>
+        <v>74100</v>
       </c>
       <c r="F43" s="3">
-        <v>84300</v>
+        <v>86900</v>
       </c>
       <c r="G43" s="3">
-        <v>78900</v>
+        <v>81300</v>
       </c>
       <c r="H43" s="3">
-        <v>124500</v>
+        <v>128400</v>
       </c>
       <c r="I43" s="3">
-        <v>224100</v>
+        <v>231100</v>
       </c>
       <c r="J43" s="3">
-        <v>154800</v>
+        <v>159600</v>
       </c>
       <c r="K43" s="3">
         <v>40100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F44" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J44" s="3">
         <v>7400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7200</v>
       </c>
       <c r="K44" s="3">
         <v>9700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="E45" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="F45" s="3">
-        <v>22900</v>
+        <v>23700</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="H45" s="3">
-        <v>25100</v>
+        <v>25900</v>
       </c>
       <c r="I45" s="3">
-        <v>69100</v>
+        <v>71200</v>
       </c>
       <c r="J45" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="K45" s="3">
         <v>19200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1434600</v>
+        <v>1479400</v>
       </c>
       <c r="E46" s="3">
-        <v>1343500</v>
+        <v>1385500</v>
       </c>
       <c r="F46" s="3">
-        <v>1567300</v>
+        <v>1616300</v>
       </c>
       <c r="G46" s="3">
-        <v>1362600</v>
+        <v>1405200</v>
       </c>
       <c r="H46" s="3">
-        <v>1219900</v>
+        <v>1258100</v>
       </c>
       <c r="I46" s="3">
-        <v>889700</v>
+        <v>917500</v>
       </c>
       <c r="J46" s="3">
-        <v>578300</v>
+        <v>596400</v>
       </c>
       <c r="K46" s="3">
         <v>498400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>152500</v>
+        <v>157300</v>
       </c>
       <c r="E47" s="3">
+        <v>188400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>99200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>148700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>218300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>200600</v>
+      </c>
+      <c r="J47" s="3">
         <v>182700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>96100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>144200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>211700</v>
-      </c>
-      <c r="I47" s="3">
-        <v>194500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>177200</v>
       </c>
       <c r="K47" s="3">
         <v>115700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>124200</v>
+        <v>128100</v>
       </c>
       <c r="E48" s="3">
-        <v>56300</v>
+        <v>58100</v>
       </c>
       <c r="F48" s="3">
-        <v>58100</v>
+        <v>59900</v>
       </c>
       <c r="G48" s="3">
-        <v>52700</v>
+        <v>54300</v>
       </c>
       <c r="H48" s="3">
-        <v>53100</v>
+        <v>54800</v>
       </c>
       <c r="I48" s="3">
-        <v>106300</v>
+        <v>109600</v>
       </c>
       <c r="J48" s="3">
-        <v>89000</v>
+        <v>91800</v>
       </c>
       <c r="K48" s="3">
         <v>40800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1962800</v>
+        <v>2024200</v>
       </c>
       <c r="E49" s="3">
-        <v>2015200</v>
+        <v>2078200</v>
       </c>
       <c r="F49" s="3">
-        <v>1986500</v>
+        <v>2048600</v>
       </c>
       <c r="G49" s="3">
-        <v>2324400</v>
+        <v>2397100</v>
       </c>
       <c r="H49" s="3">
-        <v>953400</v>
+        <v>983200</v>
       </c>
       <c r="I49" s="3">
-        <v>1669700</v>
+        <v>1722000</v>
       </c>
       <c r="J49" s="3">
-        <v>1505000</v>
+        <v>1552100</v>
       </c>
       <c r="K49" s="3">
         <v>1255300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>184900</v>
+        <v>190700</v>
       </c>
       <c r="E52" s="3">
-        <v>169800</v>
+        <v>175100</v>
       </c>
       <c r="F52" s="3">
-        <v>116300</v>
+        <v>119900</v>
       </c>
       <c r="G52" s="3">
-        <v>100200</v>
+        <v>103300</v>
       </c>
       <c r="H52" s="3">
-        <v>69400</v>
+        <v>71600</v>
       </c>
       <c r="I52" s="3">
-        <v>86700</v>
+        <v>89400</v>
       </c>
       <c r="J52" s="3">
-        <v>83100</v>
+        <v>85700</v>
       </c>
       <c r="K52" s="3">
         <v>120400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3859100</v>
+        <v>3979700</v>
       </c>
       <c r="E54" s="3">
-        <v>3767600</v>
+        <v>3885400</v>
       </c>
       <c r="F54" s="3">
-        <v>3824300</v>
+        <v>3943900</v>
       </c>
       <c r="G54" s="3">
-        <v>2913700</v>
+        <v>3004800</v>
       </c>
       <c r="H54" s="3">
-        <v>2507500</v>
+        <v>2585900</v>
       </c>
       <c r="I54" s="3">
-        <v>2052700</v>
+        <v>2116800</v>
       </c>
       <c r="J54" s="3">
-        <v>1613000</v>
+        <v>1663400</v>
       </c>
       <c r="K54" s="3">
         <v>1347000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29600</v>
+        <v>30500</v>
       </c>
       <c r="E57" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="F57" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="G57" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="H57" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="I57" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="J57" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27100</v>
+        <v>28000</v>
       </c>
       <c r="E58" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="F58" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="G58" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="H58" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="I58" s="3">
-        <v>58900</v>
+        <v>60700</v>
       </c>
       <c r="J58" s="3">
-        <v>56300</v>
+        <v>58100</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149300</v>
+        <v>153900</v>
       </c>
       <c r="E59" s="3">
-        <v>127200</v>
+        <v>131100</v>
       </c>
       <c r="F59" s="3">
-        <v>267600</v>
+        <v>276000</v>
       </c>
       <c r="G59" s="3">
-        <v>234800</v>
+        <v>242200</v>
       </c>
       <c r="H59" s="3">
-        <v>104400</v>
+        <v>107700</v>
       </c>
       <c r="I59" s="3">
-        <v>107600</v>
+        <v>111000</v>
       </c>
       <c r="J59" s="3">
-        <v>169500</v>
+        <v>174800</v>
       </c>
       <c r="K59" s="3">
         <v>63700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>206000</v>
+        <v>212500</v>
       </c>
       <c r="E60" s="3">
-        <v>179500</v>
+        <v>185100</v>
       </c>
       <c r="F60" s="3">
-        <v>309800</v>
+        <v>319500</v>
       </c>
       <c r="G60" s="3">
-        <v>275400</v>
+        <v>284000</v>
       </c>
       <c r="H60" s="3">
-        <v>152000</v>
+        <v>156700</v>
       </c>
       <c r="I60" s="3">
-        <v>139500</v>
+        <v>143900</v>
       </c>
       <c r="J60" s="3">
-        <v>166400</v>
+        <v>171600</v>
       </c>
       <c r="K60" s="3">
         <v>78400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>771900</v>
+        <v>796000</v>
       </c>
       <c r="E61" s="3">
-        <v>794700</v>
+        <v>819600</v>
       </c>
       <c r="F61" s="3">
-        <v>862500</v>
+        <v>889500</v>
       </c>
       <c r="G61" s="3">
-        <v>333300</v>
+        <v>343700</v>
       </c>
       <c r="H61" s="3">
-        <v>216100</v>
+        <v>222900</v>
       </c>
       <c r="I61" s="3">
-        <v>230300</v>
+        <v>237500</v>
       </c>
       <c r="J61" s="3">
-        <v>271900</v>
+        <v>280300</v>
       </c>
       <c r="K61" s="3">
         <v>326500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76300</v>
+        <v>78600</v>
       </c>
       <c r="E62" s="3">
-        <v>127700</v>
+        <v>131700</v>
       </c>
       <c r="F62" s="3">
-        <v>117800</v>
+        <v>121500</v>
       </c>
       <c r="G62" s="3">
-        <v>59300</v>
+        <v>61200</v>
       </c>
       <c r="H62" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="I62" s="3">
-        <v>24200</v>
+        <v>24900</v>
       </c>
       <c r="J62" s="3">
-        <v>27500</v>
+        <v>28300</v>
       </c>
       <c r="K62" s="3">
         <v>22000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1441300</v>
+        <v>1486400</v>
       </c>
       <c r="E66" s="3">
-        <v>1470100</v>
+        <v>1516000</v>
       </c>
       <c r="F66" s="3">
-        <v>1647800</v>
+        <v>1699300</v>
       </c>
       <c r="G66" s="3">
-        <v>908700</v>
+        <v>937100</v>
       </c>
       <c r="H66" s="3">
-        <v>571600</v>
+        <v>589500</v>
       </c>
       <c r="I66" s="3">
-        <v>497400</v>
+        <v>512900</v>
       </c>
       <c r="J66" s="3">
-        <v>465900</v>
+        <v>480500</v>
       </c>
       <c r="K66" s="3">
         <v>418400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1578300</v>
+        <v>1627600</v>
       </c>
       <c r="E72" s="3">
-        <v>1397200</v>
+        <v>1440900</v>
       </c>
       <c r="F72" s="3">
-        <v>957200</v>
+        <v>987100</v>
       </c>
       <c r="G72" s="3">
-        <v>1072300</v>
+        <v>1105800</v>
       </c>
       <c r="H72" s="3">
-        <v>1240900</v>
+        <v>1279700</v>
       </c>
       <c r="I72" s="3">
-        <v>1631300</v>
+        <v>1682300</v>
       </c>
       <c r="J72" s="3">
-        <v>1021100</v>
+        <v>1053000</v>
       </c>
       <c r="K72" s="3">
         <v>585700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2417800</v>
+        <v>2493400</v>
       </c>
       <c r="E76" s="3">
-        <v>2297500</v>
+        <v>2369300</v>
       </c>
       <c r="F76" s="3">
-        <v>2176500</v>
+        <v>2244600</v>
       </c>
       <c r="G76" s="3">
-        <v>2005000</v>
+        <v>2067700</v>
       </c>
       <c r="H76" s="3">
-        <v>1935900</v>
+        <v>1996400</v>
       </c>
       <c r="I76" s="3">
-        <v>1555300</v>
+        <v>1603900</v>
       </c>
       <c r="J76" s="3">
-        <v>1147100</v>
+        <v>1183000</v>
       </c>
       <c r="K76" s="3">
         <v>928700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>281500</v>
+        <v>290300</v>
       </c>
       <c r="E81" s="3">
-        <v>133600</v>
+        <v>137800</v>
       </c>
       <c r="F81" s="3">
-        <v>229100</v>
+        <v>236200</v>
       </c>
       <c r="G81" s="3">
-        <v>262100</v>
+        <v>270300</v>
       </c>
       <c r="H81" s="3">
-        <v>219800</v>
+        <v>226700</v>
       </c>
       <c r="I81" s="3">
-        <v>240300</v>
+        <v>247800</v>
       </c>
       <c r="J81" s="3">
-        <v>232900</v>
+        <v>240200</v>
       </c>
       <c r="K81" s="3">
         <v>109500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="E83" s="3">
-        <v>43300</v>
+        <v>44700</v>
       </c>
       <c r="F83" s="3">
-        <v>34700</v>
+        <v>35800</v>
       </c>
       <c r="G83" s="3">
-        <v>22800</v>
+        <v>23500</v>
       </c>
       <c r="H83" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="I83" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J83" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>334300</v>
+        <v>344700</v>
       </c>
       <c r="E89" s="3">
-        <v>206300</v>
+        <v>212800</v>
       </c>
       <c r="F89" s="3">
-        <v>-88600</v>
+        <v>-91400</v>
       </c>
       <c r="G89" s="3">
-        <v>385100</v>
+        <v>397100</v>
       </c>
       <c r="H89" s="3">
-        <v>234400</v>
+        <v>241700</v>
       </c>
       <c r="I89" s="3">
-        <v>300100</v>
+        <v>309500</v>
       </c>
       <c r="J89" s="3">
-        <v>270000</v>
+        <v>278400</v>
       </c>
       <c r="K89" s="3">
         <v>177600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63700</v>
+        <v>-65700</v>
       </c>
       <c r="E91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3200</v>
-      </c>
       <c r="I91" s="3">
-        <v>-27500</v>
+        <v>-28400</v>
       </c>
       <c r="J91" s="3">
-        <v>-12200</v>
+        <v>-12600</v>
       </c>
       <c r="K91" s="3">
         <v>-3500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>60700</v>
+        <v>62500</v>
       </c>
       <c r="E94" s="3">
-        <v>161600</v>
+        <v>166700</v>
       </c>
       <c r="F94" s="3">
-        <v>-51800</v>
+        <v>-53400</v>
       </c>
       <c r="G94" s="3">
-        <v>-254500</v>
+        <v>-262500</v>
       </c>
       <c r="H94" s="3">
-        <v>-435000</v>
+        <v>-448600</v>
       </c>
       <c r="I94" s="3">
-        <v>-382900</v>
+        <v>-394900</v>
       </c>
       <c r="J94" s="3">
-        <v>-144000</v>
+        <v>-148500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,22 +3764,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-100400</v>
+        <v>-103600</v>
       </c>
       <c r="E96" s="3">
-        <v>-100400</v>
+        <v>-103600</v>
       </c>
       <c r="F96" s="3">
-        <v>-100400</v>
+        <v>-103600</v>
       </c>
       <c r="G96" s="3">
-        <v>-100400</v>
+        <v>-103600</v>
       </c>
       <c r="H96" s="3">
-        <v>-40200</v>
+        <v>-41400</v>
       </c>
       <c r="I96" s="3">
-        <v>-20100</v>
+        <v>-20700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-337100</v>
+        <v>-347600</v>
       </c>
       <c r="E100" s="3">
-        <v>-269100</v>
+        <v>-277500</v>
       </c>
       <c r="F100" s="3">
-        <v>176300</v>
+        <v>181800</v>
       </c>
       <c r="G100" s="3">
-        <v>-147800</v>
+        <v>-152400</v>
       </c>
       <c r="H100" s="3">
-        <v>190400</v>
+        <v>196300</v>
       </c>
       <c r="I100" s="3">
-        <v>129700</v>
+        <v>133800</v>
       </c>
       <c r="J100" s="3">
-        <v>-117200</v>
+        <v>-120900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="E101" s="3">
-        <v>-66400</v>
+        <v>-68500</v>
       </c>
       <c r="F101" s="3">
-        <v>-22800</v>
+        <v>-23500</v>
       </c>
       <c r="G101" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
-        <v>340800</v>
+        <v>351400</v>
       </c>
       <c r="I101" s="3">
-        <v>201500</v>
+        <v>207800</v>
       </c>
       <c r="J101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>76600</v>
+        <v>79000</v>
       </c>
       <c r="E102" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="F102" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G102" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="H102" s="3">
-        <v>330600</v>
+        <v>340900</v>
       </c>
       <c r="I102" s="3">
-        <v>248400</v>
+        <v>256200</v>
       </c>
       <c r="J102" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>643200</v>
+        <v>677000</v>
       </c>
       <c r="E8" s="3">
-        <v>514400</v>
+        <v>541500</v>
       </c>
       <c r="F8" s="3">
-        <v>624100</v>
+        <v>656800</v>
       </c>
       <c r="G8" s="3">
-        <v>630500</v>
+        <v>663600</v>
       </c>
       <c r="H8" s="3">
-        <v>518300</v>
+        <v>545500</v>
       </c>
       <c r="I8" s="3">
-        <v>545800</v>
+        <v>574500</v>
       </c>
       <c r="J8" s="3">
-        <v>543100</v>
+        <v>571700</v>
       </c>
       <c r="K8" s="3">
         <v>334500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>289000</v>
+        <v>304100</v>
       </c>
       <c r="E9" s="3">
-        <v>248000</v>
+        <v>261100</v>
       </c>
       <c r="F9" s="3">
-        <v>288100</v>
+        <v>303200</v>
       </c>
       <c r="G9" s="3">
-        <v>286200</v>
+        <v>301200</v>
       </c>
       <c r="H9" s="3">
-        <v>214100</v>
+        <v>225300</v>
       </c>
       <c r="I9" s="3">
-        <v>243600</v>
+        <v>256400</v>
       </c>
       <c r="J9" s="3">
-        <v>286700</v>
+        <v>301800</v>
       </c>
       <c r="K9" s="3">
         <v>152200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>354300</v>
+        <v>372900</v>
       </c>
       <c r="E10" s="3">
-        <v>266400</v>
+        <v>280400</v>
       </c>
       <c r="F10" s="3">
-        <v>336000</v>
+        <v>353600</v>
       </c>
       <c r="G10" s="3">
-        <v>344300</v>
+        <v>362400</v>
       </c>
       <c r="H10" s="3">
-        <v>304200</v>
+        <v>320200</v>
       </c>
       <c r="I10" s="3">
-        <v>302300</v>
+        <v>318100</v>
       </c>
       <c r="J10" s="3">
-        <v>256400</v>
+        <v>269900</v>
       </c>
       <c r="K10" s="3">
         <v>182300</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>295900</v>
+        <v>311400</v>
       </c>
       <c r="E17" s="3">
-        <v>250400</v>
+        <v>263600</v>
       </c>
       <c r="F17" s="3">
-        <v>291500</v>
+        <v>306800</v>
       </c>
       <c r="G17" s="3">
-        <v>286400</v>
+        <v>301400</v>
       </c>
       <c r="H17" s="3">
-        <v>211200</v>
+        <v>222300</v>
       </c>
       <c r="I17" s="3">
-        <v>240500</v>
+        <v>253100</v>
       </c>
       <c r="J17" s="3">
-        <v>281900</v>
+        <v>296700</v>
       </c>
       <c r="K17" s="3">
         <v>146300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>347400</v>
+        <v>365600</v>
       </c>
       <c r="E18" s="3">
-        <v>264000</v>
+        <v>277900</v>
       </c>
       <c r="F18" s="3">
-        <v>332600</v>
+        <v>350000</v>
       </c>
       <c r="G18" s="3">
-        <v>344100</v>
+        <v>362200</v>
       </c>
       <c r="H18" s="3">
-        <v>307100</v>
+        <v>323200</v>
       </c>
       <c r="I18" s="3">
-        <v>305400</v>
+        <v>321400</v>
       </c>
       <c r="J18" s="3">
-        <v>261300</v>
+        <v>275000</v>
       </c>
       <c r="K18" s="3">
         <v>188100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="E20" s="3">
-        <v>-47500</v>
+        <v>-50000</v>
       </c>
       <c r="F20" s="3">
-        <v>82500</v>
+        <v>86900</v>
       </c>
       <c r="G20" s="3">
-        <v>81900</v>
+        <v>86200</v>
       </c>
       <c r="H20" s="3">
-        <v>39400</v>
+        <v>41500</v>
       </c>
       <c r="I20" s="3">
-        <v>47300</v>
+        <v>49800</v>
       </c>
       <c r="J20" s="3">
-        <v>43000</v>
+        <v>45200</v>
       </c>
       <c r="K20" s="3">
         <v>19800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>413900</v>
+        <v>425400</v>
       </c>
       <c r="E21" s="3">
-        <v>260600</v>
+        <v>266100</v>
       </c>
       <c r="F21" s="3">
-        <v>450400</v>
+        <v>462000</v>
       </c>
       <c r="G21" s="3">
-        <v>449200</v>
+        <v>471700</v>
       </c>
       <c r="H21" s="3">
-        <v>368100</v>
+        <v>385100</v>
       </c>
       <c r="I21" s="3">
-        <v>371500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>318600</v>
+        <v>386600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>47600</v>
+        <v>50100</v>
       </c>
       <c r="G22" s="3">
-        <v>33600</v>
+        <v>35300</v>
       </c>
       <c r="H22" s="3">
-        <v>33700</v>
+        <v>35500</v>
       </c>
       <c r="I22" s="3">
-        <v>61100</v>
+        <v>64300</v>
       </c>
       <c r="J22" s="3">
-        <v>38200</v>
+        <v>40200</v>
       </c>
       <c r="K22" s="3">
         <v>79200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>358800</v>
+        <v>377700</v>
       </c>
       <c r="E23" s="3">
-        <v>216500</v>
+        <v>227900</v>
       </c>
       <c r="F23" s="3">
-        <v>367500</v>
+        <v>386800</v>
       </c>
       <c r="G23" s="3">
-        <v>392400</v>
+        <v>413000</v>
       </c>
       <c r="H23" s="3">
-        <v>312700</v>
+        <v>329200</v>
       </c>
       <c r="I23" s="3">
-        <v>291500</v>
+        <v>306800</v>
       </c>
       <c r="J23" s="3">
-        <v>266000</v>
+        <v>280000</v>
       </c>
       <c r="K23" s="3">
         <v>128700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22000</v>
+        <v>23100</v>
       </c>
       <c r="E24" s="3">
-        <v>39600</v>
+        <v>41700</v>
       </c>
       <c r="F24" s="3">
-        <v>93100</v>
+        <v>98000</v>
       </c>
       <c r="G24" s="3">
-        <v>82500</v>
+        <v>86900</v>
       </c>
       <c r="H24" s="3">
-        <v>62400</v>
+        <v>65700</v>
       </c>
       <c r="I24" s="3">
-        <v>40800</v>
+        <v>42900</v>
       </c>
       <c r="J24" s="3">
-        <v>24900</v>
+        <v>26200</v>
       </c>
       <c r="K24" s="3">
         <v>19100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>336900</v>
+        <v>354600</v>
       </c>
       <c r="E26" s="3">
-        <v>176900</v>
+        <v>186200</v>
       </c>
       <c r="F26" s="3">
-        <v>274400</v>
+        <v>288800</v>
       </c>
       <c r="G26" s="3">
-        <v>309900</v>
+        <v>326100</v>
       </c>
       <c r="H26" s="3">
-        <v>250300</v>
+        <v>263500</v>
       </c>
       <c r="I26" s="3">
-        <v>250700</v>
+        <v>263900</v>
       </c>
       <c r="J26" s="3">
-        <v>241200</v>
+        <v>253800</v>
       </c>
       <c r="K26" s="3">
         <v>109600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>290300</v>
+        <v>305500</v>
       </c>
       <c r="E27" s="3">
-        <v>137800</v>
+        <v>145000</v>
       </c>
       <c r="F27" s="3">
-        <v>236200</v>
+        <v>248600</v>
       </c>
       <c r="G27" s="3">
-        <v>270300</v>
+        <v>284500</v>
       </c>
       <c r="H27" s="3">
-        <v>227100</v>
+        <v>239000</v>
       </c>
       <c r="I27" s="3">
-        <v>247800</v>
+        <v>260800</v>
       </c>
       <c r="J27" s="3">
-        <v>241200</v>
+        <v>253800</v>
       </c>
       <c r="K27" s="3">
         <v>109600</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11500</v>
+        <v>-12100</v>
       </c>
       <c r="E32" s="3">
-        <v>47500</v>
+        <v>50000</v>
       </c>
       <c r="F32" s="3">
-        <v>-82500</v>
+        <v>-86900</v>
       </c>
       <c r="G32" s="3">
-        <v>-81900</v>
+        <v>-86200</v>
       </c>
       <c r="H32" s="3">
-        <v>-39400</v>
+        <v>-41500</v>
       </c>
       <c r="I32" s="3">
-        <v>-47300</v>
+        <v>-49800</v>
       </c>
       <c r="J32" s="3">
-        <v>-43000</v>
+        <v>-45200</v>
       </c>
       <c r="K32" s="3">
         <v>-19800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>290300</v>
+        <v>305500</v>
       </c>
       <c r="E33" s="3">
-        <v>137800</v>
+        <v>145000</v>
       </c>
       <c r="F33" s="3">
-        <v>236200</v>
+        <v>248600</v>
       </c>
       <c r="G33" s="3">
-        <v>270300</v>
+        <v>284500</v>
       </c>
       <c r="H33" s="3">
-        <v>226700</v>
+        <v>238600</v>
       </c>
       <c r="I33" s="3">
-        <v>247800</v>
+        <v>260800</v>
       </c>
       <c r="J33" s="3">
-        <v>240200</v>
+        <v>252800</v>
       </c>
       <c r="K33" s="3">
         <v>109500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>290300</v>
+        <v>305500</v>
       </c>
       <c r="E35" s="3">
-        <v>137800</v>
+        <v>145000</v>
       </c>
       <c r="F35" s="3">
-        <v>236200</v>
+        <v>248600</v>
       </c>
       <c r="G35" s="3">
-        <v>270300</v>
+        <v>284500</v>
       </c>
       <c r="H35" s="3">
-        <v>226700</v>
+        <v>238600</v>
       </c>
       <c r="I35" s="3">
-        <v>247800</v>
+        <v>260800</v>
       </c>
       <c r="J35" s="3">
-        <v>240200</v>
+        <v>252800</v>
       </c>
       <c r="K35" s="3">
         <v>109500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>137600</v>
+        <v>144900</v>
       </c>
       <c r="E41" s="3">
-        <v>58600</v>
+        <v>61700</v>
       </c>
       <c r="F41" s="3">
-        <v>25200</v>
+        <v>26500</v>
       </c>
       <c r="G41" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="H41" s="3">
-        <v>23700</v>
+        <v>24900</v>
       </c>
       <c r="I41" s="3">
-        <v>795800</v>
+        <v>837600</v>
       </c>
       <c r="J41" s="3">
-        <v>532000</v>
+        <v>560000</v>
       </c>
       <c r="K41" s="3">
         <v>17100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1180300</v>
+        <v>1242300</v>
       </c>
       <c r="E42" s="3">
-        <v>1233600</v>
+        <v>1298400</v>
       </c>
       <c r="F42" s="3">
-        <v>1470700</v>
+        <v>1548000</v>
       </c>
       <c r="G42" s="3">
-        <v>1293000</v>
+        <v>1360900</v>
       </c>
       <c r="H42" s="3">
-        <v>1074700</v>
+        <v>1131200</v>
       </c>
       <c r="I42" s="3">
-        <v>722800</v>
+        <v>760700</v>
       </c>
       <c r="J42" s="3">
-        <v>458000</v>
+        <v>482000</v>
       </c>
       <c r="K42" s="3">
         <v>446500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>137900</v>
+        <v>145200</v>
       </c>
       <c r="E43" s="3">
-        <v>74100</v>
+        <v>77900</v>
       </c>
       <c r="F43" s="3">
-        <v>86900</v>
+        <v>91500</v>
       </c>
       <c r="G43" s="3">
-        <v>81300</v>
+        <v>85600</v>
       </c>
       <c r="H43" s="3">
-        <v>128400</v>
+        <v>135200</v>
       </c>
       <c r="I43" s="3">
-        <v>231100</v>
+        <v>243300</v>
       </c>
       <c r="J43" s="3">
-        <v>159600</v>
+        <v>168000</v>
       </c>
       <c r="K43" s="3">
         <v>40100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="E44" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F44" s="3">
-        <v>7600</v>
+        <v>8000</v>
       </c>
       <c r="G44" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="H44" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="I44" s="3">
-        <v>8200</v>
+        <v>8700</v>
       </c>
       <c r="J44" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="K44" s="3">
         <v>9700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="E45" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="F45" s="3">
-        <v>23700</v>
+        <v>24900</v>
       </c>
       <c r="G45" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="H45" s="3">
-        <v>25900</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>71200</v>
+        <v>75000</v>
       </c>
       <c r="J45" s="3">
-        <v>13300</v>
+        <v>14000</v>
       </c>
       <c r="K45" s="3">
         <v>19200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1479400</v>
+        <v>1557100</v>
       </c>
       <c r="E46" s="3">
-        <v>1385500</v>
+        <v>1458300</v>
       </c>
       <c r="F46" s="3">
-        <v>1616300</v>
+        <v>1701200</v>
       </c>
       <c r="G46" s="3">
-        <v>1405200</v>
+        <v>1479000</v>
       </c>
       <c r="H46" s="3">
-        <v>1258100</v>
+        <v>1324200</v>
       </c>
       <c r="I46" s="3">
-        <v>917500</v>
+        <v>965600</v>
       </c>
       <c r="J46" s="3">
-        <v>596400</v>
+        <v>627700</v>
       </c>
       <c r="K46" s="3">
         <v>498400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>157300</v>
+        <v>165600</v>
       </c>
       <c r="E47" s="3">
-        <v>188400</v>
+        <v>198300</v>
       </c>
       <c r="F47" s="3">
-        <v>99200</v>
+        <v>104400</v>
       </c>
       <c r="G47" s="3">
-        <v>148700</v>
+        <v>156500</v>
       </c>
       <c r="H47" s="3">
-        <v>218300</v>
+        <v>229800</v>
       </c>
       <c r="I47" s="3">
-        <v>200600</v>
+        <v>211200</v>
       </c>
       <c r="J47" s="3">
-        <v>182700</v>
+        <v>192300</v>
       </c>
       <c r="K47" s="3">
         <v>115700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128100</v>
+        <v>134800</v>
       </c>
       <c r="E48" s="3">
-        <v>58100</v>
+        <v>61200</v>
       </c>
       <c r="F48" s="3">
-        <v>59900</v>
+        <v>63100</v>
       </c>
       <c r="G48" s="3">
-        <v>54300</v>
+        <v>57200</v>
       </c>
       <c r="H48" s="3">
-        <v>54800</v>
+        <v>57700</v>
       </c>
       <c r="I48" s="3">
-        <v>109600</v>
+        <v>115300</v>
       </c>
       <c r="J48" s="3">
-        <v>91800</v>
+        <v>96600</v>
       </c>
       <c r="K48" s="3">
         <v>40800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2024200</v>
+        <v>2130500</v>
       </c>
       <c r="E49" s="3">
-        <v>2078200</v>
+        <v>2187300</v>
       </c>
       <c r="F49" s="3">
-        <v>2048600</v>
+        <v>2156100</v>
       </c>
       <c r="G49" s="3">
-        <v>2397100</v>
+        <v>2523000</v>
       </c>
       <c r="H49" s="3">
-        <v>983200</v>
+        <v>1034800</v>
       </c>
       <c r="I49" s="3">
-        <v>1722000</v>
+        <v>1812400</v>
       </c>
       <c r="J49" s="3">
-        <v>1552100</v>
+        <v>1633600</v>
       </c>
       <c r="K49" s="3">
         <v>1255300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>190700</v>
+        <v>200700</v>
       </c>
       <c r="E52" s="3">
-        <v>175100</v>
+        <v>184300</v>
       </c>
       <c r="F52" s="3">
-        <v>119900</v>
+        <v>126200</v>
       </c>
       <c r="G52" s="3">
-        <v>103300</v>
+        <v>108700</v>
       </c>
       <c r="H52" s="3">
-        <v>71600</v>
+        <v>75300</v>
       </c>
       <c r="I52" s="3">
-        <v>89400</v>
+        <v>94100</v>
       </c>
       <c r="J52" s="3">
-        <v>85700</v>
+        <v>90200</v>
       </c>
       <c r="K52" s="3">
         <v>120400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3979700</v>
+        <v>4188700</v>
       </c>
       <c r="E54" s="3">
-        <v>3885400</v>
+        <v>4089400</v>
       </c>
       <c r="F54" s="3">
-        <v>3943900</v>
+        <v>4151000</v>
       </c>
       <c r="G54" s="3">
-        <v>3004800</v>
+        <v>3162600</v>
       </c>
       <c r="H54" s="3">
-        <v>2585900</v>
+        <v>2721800</v>
       </c>
       <c r="I54" s="3">
-        <v>2116800</v>
+        <v>2228000</v>
       </c>
       <c r="J54" s="3">
-        <v>1663400</v>
+        <v>1750800</v>
       </c>
       <c r="K54" s="3">
         <v>1347000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30500</v>
+        <v>32100</v>
       </c>
       <c r="E57" s="3">
-        <v>33200</v>
+        <v>34900</v>
       </c>
       <c r="F57" s="3">
-        <v>31800</v>
+        <v>33500</v>
       </c>
       <c r="G57" s="3">
-        <v>22000</v>
+        <v>23200</v>
       </c>
       <c r="H57" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="I57" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="J57" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28000</v>
+        <v>29500</v>
       </c>
       <c r="E58" s="3">
-        <v>20800</v>
+        <v>21900</v>
       </c>
       <c r="F58" s="3">
-        <v>11700</v>
+        <v>12300</v>
       </c>
       <c r="G58" s="3">
-        <v>19800</v>
+        <v>20900</v>
       </c>
       <c r="H58" s="3">
-        <v>36700</v>
+        <v>38600</v>
       </c>
       <c r="I58" s="3">
-        <v>60700</v>
+        <v>63900</v>
       </c>
       <c r="J58" s="3">
-        <v>58100</v>
+        <v>61100</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>153900</v>
+        <v>162000</v>
       </c>
       <c r="E59" s="3">
-        <v>131100</v>
+        <v>138000</v>
       </c>
       <c r="F59" s="3">
-        <v>276000</v>
+        <v>290500</v>
       </c>
       <c r="G59" s="3">
-        <v>242200</v>
+        <v>254900</v>
       </c>
       <c r="H59" s="3">
-        <v>107700</v>
+        <v>113400</v>
       </c>
       <c r="I59" s="3">
-        <v>111000</v>
+        <v>116800</v>
       </c>
       <c r="J59" s="3">
-        <v>174800</v>
+        <v>184000</v>
       </c>
       <c r="K59" s="3">
         <v>63700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212500</v>
+        <v>223600</v>
       </c>
       <c r="E60" s="3">
-        <v>185100</v>
+        <v>194900</v>
       </c>
       <c r="F60" s="3">
-        <v>319500</v>
+        <v>336300</v>
       </c>
       <c r="G60" s="3">
-        <v>284000</v>
+        <v>298900</v>
       </c>
       <c r="H60" s="3">
-        <v>156700</v>
+        <v>165000</v>
       </c>
       <c r="I60" s="3">
-        <v>143900</v>
+        <v>151400</v>
       </c>
       <c r="J60" s="3">
-        <v>171600</v>
+        <v>180600</v>
       </c>
       <c r="K60" s="3">
         <v>78400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>796000</v>
+        <v>837800</v>
       </c>
       <c r="E61" s="3">
-        <v>819600</v>
+        <v>862600</v>
       </c>
       <c r="F61" s="3">
-        <v>889500</v>
+        <v>936200</v>
       </c>
       <c r="G61" s="3">
-        <v>343700</v>
+        <v>361700</v>
       </c>
       <c r="H61" s="3">
-        <v>222900</v>
+        <v>234600</v>
       </c>
       <c r="I61" s="3">
-        <v>237500</v>
+        <v>250000</v>
       </c>
       <c r="J61" s="3">
-        <v>280300</v>
+        <v>295100</v>
       </c>
       <c r="K61" s="3">
         <v>326500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78600</v>
+        <v>82800</v>
       </c>
       <c r="E62" s="3">
-        <v>131700</v>
+        <v>138600</v>
       </c>
       <c r="F62" s="3">
-        <v>121500</v>
+        <v>127900</v>
       </c>
       <c r="G62" s="3">
-        <v>61200</v>
+        <v>64400</v>
       </c>
       <c r="H62" s="3">
-        <v>10500</v>
+        <v>11100</v>
       </c>
       <c r="I62" s="3">
-        <v>24900</v>
+        <v>26300</v>
       </c>
       <c r="J62" s="3">
-        <v>28300</v>
+        <v>29800</v>
       </c>
       <c r="K62" s="3">
         <v>22000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1486400</v>
+        <v>1564400</v>
       </c>
       <c r="E66" s="3">
-        <v>1516000</v>
+        <v>1595700</v>
       </c>
       <c r="F66" s="3">
-        <v>1699300</v>
+        <v>1788500</v>
       </c>
       <c r="G66" s="3">
-        <v>937100</v>
+        <v>986300</v>
       </c>
       <c r="H66" s="3">
-        <v>589500</v>
+        <v>620500</v>
       </c>
       <c r="I66" s="3">
-        <v>512900</v>
+        <v>539900</v>
       </c>
       <c r="J66" s="3">
-        <v>480500</v>
+        <v>505700</v>
       </c>
       <c r="K66" s="3">
         <v>418400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1627600</v>
+        <v>1713100</v>
       </c>
       <c r="E72" s="3">
-        <v>1440900</v>
+        <v>1516600</v>
       </c>
       <c r="F72" s="3">
-        <v>987100</v>
+        <v>1038900</v>
       </c>
       <c r="G72" s="3">
-        <v>1105800</v>
+        <v>1163900</v>
       </c>
       <c r="H72" s="3">
-        <v>1279700</v>
+        <v>1346900</v>
       </c>
       <c r="I72" s="3">
-        <v>1682300</v>
+        <v>1770600</v>
       </c>
       <c r="J72" s="3">
-        <v>1053000</v>
+        <v>1108300</v>
       </c>
       <c r="K72" s="3">
         <v>585700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2493400</v>
+        <v>2624300</v>
       </c>
       <c r="E76" s="3">
-        <v>2369300</v>
+        <v>2493800</v>
       </c>
       <c r="F76" s="3">
-        <v>2244600</v>
+        <v>2362500</v>
       </c>
       <c r="G76" s="3">
-        <v>2067700</v>
+        <v>2176300</v>
       </c>
       <c r="H76" s="3">
-        <v>1996400</v>
+        <v>2101300</v>
       </c>
       <c r="I76" s="3">
-        <v>1603900</v>
+        <v>1688100</v>
       </c>
       <c r="J76" s="3">
-        <v>1183000</v>
+        <v>1245100</v>
       </c>
       <c r="K76" s="3">
         <v>928700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>290300</v>
+        <v>305500</v>
       </c>
       <c r="E81" s="3">
-        <v>137800</v>
+        <v>145000</v>
       </c>
       <c r="F81" s="3">
-        <v>236200</v>
+        <v>248600</v>
       </c>
       <c r="G81" s="3">
-        <v>270300</v>
+        <v>284500</v>
       </c>
       <c r="H81" s="3">
-        <v>226700</v>
+        <v>238600</v>
       </c>
       <c r="I81" s="3">
-        <v>247800</v>
+        <v>260800</v>
       </c>
       <c r="J81" s="3">
-        <v>240200</v>
+        <v>252800</v>
       </c>
       <c r="K81" s="3">
         <v>109500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55800</v>
+        <v>47000</v>
       </c>
       <c r="E83" s="3">
-        <v>44700</v>
+        <v>37600</v>
       </c>
       <c r="F83" s="3">
-        <v>35800</v>
+        <v>24800</v>
       </c>
       <c r="G83" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="H83" s="3">
-        <v>21900</v>
+        <v>20200</v>
       </c>
       <c r="I83" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>14500</v>
+        <v>15300</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>344700</v>
+        <v>223900</v>
       </c>
       <c r="E89" s="3">
-        <v>212800</v>
+        <v>-96200</v>
       </c>
       <c r="F89" s="3">
-        <v>-91400</v>
+        <v>418000</v>
       </c>
       <c r="G89" s="3">
-        <v>397100</v>
+        <v>254400</v>
       </c>
       <c r="H89" s="3">
-        <v>241700</v>
+        <v>325700</v>
       </c>
       <c r="I89" s="3">
-        <v>309500</v>
+        <v>293000</v>
       </c>
       <c r="J89" s="3">
-        <v>278400</v>
+        <v>259600</v>
       </c>
       <c r="K89" s="3">
         <v>177600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65700</v>
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H91" s="3">
-        <v>-3300</v>
+        <v>-29900</v>
       </c>
       <c r="I91" s="3">
-        <v>-28400</v>
+        <v>-13200</v>
       </c>
       <c r="J91" s="3">
-        <v>-12600</v>
+        <v>-10300</v>
       </c>
       <c r="K91" s="3">
         <v>-3500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>62500</v>
+        <v>175500</v>
       </c>
       <c r="E94" s="3">
-        <v>166700</v>
+        <v>-56200</v>
       </c>
       <c r="F94" s="3">
-        <v>-53400</v>
+        <v>-276300</v>
       </c>
       <c r="G94" s="3">
-        <v>-262500</v>
+        <v>-472100</v>
       </c>
       <c r="H94" s="3">
-        <v>-448600</v>
+        <v>-415600</v>
       </c>
       <c r="I94" s="3">
-        <v>-394900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-148500</v>
+        <v>-156300</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,22 +3764,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-103600</v>
+        <v>-109000</v>
       </c>
       <c r="E96" s="3">
-        <v>-103600</v>
+        <v>-109000</v>
       </c>
       <c r="F96" s="3">
-        <v>-103600</v>
+        <v>-109000</v>
       </c>
       <c r="G96" s="3">
-        <v>-103600</v>
+        <v>-43600</v>
       </c>
       <c r="H96" s="3">
-        <v>-41400</v>
+        <v>-21800</v>
       </c>
       <c r="I96" s="3">
-        <v>-20700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-347600</v>
+        <v>-292100</v>
       </c>
       <c r="E100" s="3">
-        <v>-277500</v>
+        <v>191300</v>
       </c>
       <c r="F100" s="3">
-        <v>181800</v>
+        <v>-160400</v>
       </c>
       <c r="G100" s="3">
-        <v>-152400</v>
+        <v>206600</v>
       </c>
       <c r="H100" s="3">
-        <v>196300</v>
+        <v>140800</v>
       </c>
       <c r="I100" s="3">
-        <v>133800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-120900</v>
+        <v>-127200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19300</v>
+        <v>-72100</v>
       </c>
       <c r="E101" s="3">
-        <v>-68500</v>
+        <v>-24700</v>
       </c>
       <c r="F101" s="3">
-        <v>-23500</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3">
-        <v>5700</v>
+        <v>369900</v>
       </c>
       <c r="H101" s="3">
-        <v>351400</v>
+        <v>218800</v>
       </c>
       <c r="I101" s="3">
-        <v>207800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79000</v>
+        <v>35300</v>
       </c>
       <c r="E102" s="3">
-        <v>33500</v>
+        <v>14200</v>
       </c>
       <c r="F102" s="3">
-        <v>13500</v>
+        <v>-12800</v>
       </c>
       <c r="G102" s="3">
-        <v>-12100</v>
+        <v>358800</v>
       </c>
       <c r="H102" s="3">
-        <v>340900</v>
+        <v>269700</v>
       </c>
       <c r="I102" s="3">
-        <v>256200</v>
+        <v>2400</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>12900</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>677000</v>
+        <v>701600</v>
       </c>
       <c r="E8" s="3">
-        <v>541500</v>
+        <v>561100</v>
       </c>
       <c r="F8" s="3">
-        <v>656800</v>
+        <v>680700</v>
       </c>
       <c r="G8" s="3">
-        <v>663600</v>
+        <v>687700</v>
       </c>
       <c r="H8" s="3">
-        <v>545500</v>
+        <v>565300</v>
       </c>
       <c r="I8" s="3">
-        <v>574500</v>
+        <v>595400</v>
       </c>
       <c r="J8" s="3">
-        <v>571700</v>
+        <v>592400</v>
       </c>
       <c r="K8" s="3">
         <v>334500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>304100</v>
+        <v>315200</v>
       </c>
       <c r="E9" s="3">
-        <v>261100</v>
+        <v>270500</v>
       </c>
       <c r="F9" s="3">
-        <v>303200</v>
+        <v>314200</v>
       </c>
       <c r="G9" s="3">
-        <v>301200</v>
+        <v>312200</v>
       </c>
       <c r="H9" s="3">
-        <v>225300</v>
+        <v>233500</v>
       </c>
       <c r="I9" s="3">
-        <v>256400</v>
+        <v>265700</v>
       </c>
       <c r="J9" s="3">
-        <v>301800</v>
+        <v>312800</v>
       </c>
       <c r="K9" s="3">
         <v>152200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>372900</v>
+        <v>386400</v>
       </c>
       <c r="E10" s="3">
-        <v>280400</v>
+        <v>290600</v>
       </c>
       <c r="F10" s="3">
-        <v>353600</v>
+        <v>366500</v>
       </c>
       <c r="G10" s="3">
-        <v>362400</v>
+        <v>375600</v>
       </c>
       <c r="H10" s="3">
-        <v>320200</v>
+        <v>331800</v>
       </c>
       <c r="I10" s="3">
-        <v>318100</v>
+        <v>329700</v>
       </c>
       <c r="J10" s="3">
-        <v>269900</v>
+        <v>279700</v>
       </c>
       <c r="K10" s="3">
         <v>182300</v>
@@ -989,7 +989,7 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>311400</v>
+        <v>322700</v>
       </c>
       <c r="E17" s="3">
-        <v>263600</v>
+        <v>273100</v>
       </c>
       <c r="F17" s="3">
-        <v>306800</v>
+        <v>317900</v>
       </c>
       <c r="G17" s="3">
-        <v>301400</v>
+        <v>312400</v>
       </c>
       <c r="H17" s="3">
-        <v>222300</v>
+        <v>230400</v>
       </c>
       <c r="I17" s="3">
-        <v>253100</v>
+        <v>262300</v>
       </c>
       <c r="J17" s="3">
-        <v>296700</v>
+        <v>307400</v>
       </c>
       <c r="K17" s="3">
         <v>146300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>365600</v>
+        <v>378900</v>
       </c>
       <c r="E18" s="3">
-        <v>277900</v>
+        <v>288000</v>
       </c>
       <c r="F18" s="3">
-        <v>350000</v>
+        <v>362800</v>
       </c>
       <c r="G18" s="3">
-        <v>362200</v>
+        <v>375300</v>
       </c>
       <c r="H18" s="3">
-        <v>323200</v>
+        <v>334900</v>
       </c>
       <c r="I18" s="3">
-        <v>321400</v>
+        <v>333100</v>
       </c>
       <c r="J18" s="3">
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="K18" s="3">
         <v>188100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="E20" s="3">
-        <v>-50000</v>
+        <v>-51800</v>
       </c>
       <c r="F20" s="3">
-        <v>86900</v>
+        <v>90000</v>
       </c>
       <c r="G20" s="3">
-        <v>86200</v>
+        <v>89300</v>
       </c>
       <c r="H20" s="3">
-        <v>41500</v>
+        <v>43000</v>
       </c>
       <c r="I20" s="3">
-        <v>49800</v>
+        <v>51600</v>
       </c>
       <c r="J20" s="3">
-        <v>45200</v>
+        <v>46900</v>
       </c>
       <c r="K20" s="3">
         <v>19800</v>
@@ -1161,22 +1161,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>425400</v>
+        <v>440500</v>
       </c>
       <c r="E21" s="3">
-        <v>266100</v>
+        <v>275400</v>
       </c>
       <c r="F21" s="3">
-        <v>462000</v>
+        <v>478600</v>
       </c>
       <c r="G21" s="3">
-        <v>471700</v>
+        <v>488700</v>
       </c>
       <c r="H21" s="3">
-        <v>385100</v>
+        <v>398900</v>
       </c>
       <c r="I21" s="3">
-        <v>386600</v>
+        <v>400600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1206,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>50100</v>
+        <v>51900</v>
       </c>
       <c r="G22" s="3">
-        <v>35300</v>
+        <v>36600</v>
       </c>
       <c r="H22" s="3">
-        <v>35500</v>
+        <v>36800</v>
       </c>
       <c r="I22" s="3">
-        <v>64300</v>
+        <v>66700</v>
       </c>
       <c r="J22" s="3">
-        <v>40200</v>
+        <v>41700</v>
       </c>
       <c r="K22" s="3">
         <v>79200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>377700</v>
+        <v>391400</v>
       </c>
       <c r="E23" s="3">
-        <v>227900</v>
+        <v>236200</v>
       </c>
       <c r="F23" s="3">
-        <v>386800</v>
+        <v>400800</v>
       </c>
       <c r="G23" s="3">
-        <v>413000</v>
+        <v>428000</v>
       </c>
       <c r="H23" s="3">
-        <v>329200</v>
+        <v>341100</v>
       </c>
       <c r="I23" s="3">
-        <v>306800</v>
+        <v>318000</v>
       </c>
       <c r="J23" s="3">
-        <v>280000</v>
+        <v>290200</v>
       </c>
       <c r="K23" s="3">
         <v>128700</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23100</v>
+        <v>24000</v>
       </c>
       <c r="E24" s="3">
-        <v>41700</v>
+        <v>43200</v>
       </c>
       <c r="F24" s="3">
-        <v>98000</v>
+        <v>101600</v>
       </c>
       <c r="G24" s="3">
-        <v>86900</v>
+        <v>90000</v>
       </c>
       <c r="H24" s="3">
-        <v>65700</v>
+        <v>68100</v>
       </c>
       <c r="I24" s="3">
-        <v>42900</v>
+        <v>44500</v>
       </c>
       <c r="J24" s="3">
-        <v>26200</v>
+        <v>27100</v>
       </c>
       <c r="K24" s="3">
         <v>19100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>354600</v>
+        <v>367400</v>
       </c>
       <c r="E26" s="3">
-        <v>186200</v>
+        <v>193000</v>
       </c>
       <c r="F26" s="3">
-        <v>288800</v>
+        <v>299300</v>
       </c>
       <c r="G26" s="3">
-        <v>326100</v>
+        <v>338000</v>
       </c>
       <c r="H26" s="3">
-        <v>263500</v>
+        <v>273000</v>
       </c>
       <c r="I26" s="3">
-        <v>263900</v>
+        <v>273500</v>
       </c>
       <c r="J26" s="3">
-        <v>253800</v>
+        <v>263100</v>
       </c>
       <c r="K26" s="3">
         <v>109600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>305500</v>
+        <v>316600</v>
       </c>
       <c r="E27" s="3">
-        <v>145000</v>
+        <v>150300</v>
       </c>
       <c r="F27" s="3">
-        <v>248600</v>
+        <v>257700</v>
       </c>
       <c r="G27" s="3">
-        <v>284500</v>
+        <v>294800</v>
       </c>
       <c r="H27" s="3">
-        <v>239000</v>
+        <v>247700</v>
       </c>
       <c r="I27" s="3">
-        <v>260800</v>
+        <v>270300</v>
       </c>
       <c r="J27" s="3">
-        <v>253800</v>
+        <v>263000</v>
       </c>
       <c r="K27" s="3">
         <v>109600</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12100</v>
+        <v>-12500</v>
       </c>
       <c r="E32" s="3">
-        <v>50000</v>
+        <v>51800</v>
       </c>
       <c r="F32" s="3">
-        <v>-86900</v>
+        <v>-90000</v>
       </c>
       <c r="G32" s="3">
-        <v>-86200</v>
+        <v>-89300</v>
       </c>
       <c r="H32" s="3">
-        <v>-41500</v>
+        <v>-43000</v>
       </c>
       <c r="I32" s="3">
-        <v>-49800</v>
+        <v>-51600</v>
       </c>
       <c r="J32" s="3">
-        <v>-45200</v>
+        <v>-46900</v>
       </c>
       <c r="K32" s="3">
         <v>-19800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>305500</v>
+        <v>316600</v>
       </c>
       <c r="E33" s="3">
-        <v>145000</v>
+        <v>150300</v>
       </c>
       <c r="F33" s="3">
-        <v>248600</v>
+        <v>257700</v>
       </c>
       <c r="G33" s="3">
-        <v>284500</v>
+        <v>294800</v>
       </c>
       <c r="H33" s="3">
-        <v>238600</v>
+        <v>247300</v>
       </c>
       <c r="I33" s="3">
-        <v>260800</v>
+        <v>270300</v>
       </c>
       <c r="J33" s="3">
-        <v>252800</v>
+        <v>262000</v>
       </c>
       <c r="K33" s="3">
         <v>109500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>305500</v>
+        <v>316600</v>
       </c>
       <c r="E35" s="3">
-        <v>145000</v>
+        <v>150300</v>
       </c>
       <c r="F35" s="3">
-        <v>248600</v>
+        <v>257700</v>
       </c>
       <c r="G35" s="3">
-        <v>284500</v>
+        <v>294800</v>
       </c>
       <c r="H35" s="3">
-        <v>238600</v>
+        <v>247300</v>
       </c>
       <c r="I35" s="3">
-        <v>260800</v>
+        <v>270300</v>
       </c>
       <c r="J35" s="3">
-        <v>252800</v>
+        <v>262000</v>
       </c>
       <c r="K35" s="3">
         <v>109500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>144900</v>
+        <v>150100</v>
       </c>
       <c r="E41" s="3">
-        <v>61700</v>
+        <v>64000</v>
       </c>
       <c r="F41" s="3">
-        <v>26500</v>
+        <v>27400</v>
       </c>
       <c r="G41" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="H41" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="I41" s="3">
-        <v>837600</v>
+        <v>868000</v>
       </c>
       <c r="J41" s="3">
-        <v>560000</v>
+        <v>580300</v>
       </c>
       <c r="K41" s="3">
         <v>17100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1242300</v>
+        <v>1287400</v>
       </c>
       <c r="E42" s="3">
-        <v>1298400</v>
+        <v>1345500</v>
       </c>
       <c r="F42" s="3">
-        <v>1548000</v>
+        <v>1604200</v>
       </c>
       <c r="G42" s="3">
-        <v>1360900</v>
+        <v>1410400</v>
       </c>
       <c r="H42" s="3">
-        <v>1131200</v>
+        <v>1172300</v>
       </c>
       <c r="I42" s="3">
-        <v>760700</v>
+        <v>788300</v>
       </c>
       <c r="J42" s="3">
-        <v>482000</v>
+        <v>499500</v>
       </c>
       <c r="K42" s="3">
         <v>446500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>145200</v>
+        <v>150400</v>
       </c>
       <c r="E43" s="3">
-        <v>77900</v>
+        <v>80800</v>
       </c>
       <c r="F43" s="3">
-        <v>91500</v>
+        <v>94800</v>
       </c>
       <c r="G43" s="3">
-        <v>85600</v>
+        <v>88700</v>
       </c>
       <c r="H43" s="3">
-        <v>135200</v>
+        <v>140100</v>
       </c>
       <c r="I43" s="3">
-        <v>243300</v>
+        <v>252100</v>
       </c>
       <c r="J43" s="3">
-        <v>168000</v>
+        <v>174100</v>
       </c>
       <c r="K43" s="3">
         <v>40100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J44" s="3">
         <v>8000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>7800</v>
       </c>
       <c r="K44" s="3">
         <v>9700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="G45" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>28300</v>
       </c>
       <c r="I45" s="3">
-        <v>75000</v>
+        <v>77700</v>
       </c>
       <c r="J45" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="K45" s="3">
         <v>19200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1557100</v>
+        <v>1613700</v>
       </c>
       <c r="E46" s="3">
-        <v>1458300</v>
+        <v>1511300</v>
       </c>
       <c r="F46" s="3">
-        <v>1701200</v>
+        <v>1763000</v>
       </c>
       <c r="G46" s="3">
-        <v>1479000</v>
+        <v>1532700</v>
       </c>
       <c r="H46" s="3">
-        <v>1324200</v>
+        <v>1372300</v>
       </c>
       <c r="I46" s="3">
-        <v>965600</v>
+        <v>1000700</v>
       </c>
       <c r="J46" s="3">
-        <v>627700</v>
+        <v>650500</v>
       </c>
       <c r="K46" s="3">
         <v>498400</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>165600</v>
+        <v>171600</v>
       </c>
       <c r="E47" s="3">
-        <v>198300</v>
+        <v>205500</v>
       </c>
       <c r="F47" s="3">
-        <v>104400</v>
+        <v>108200</v>
       </c>
       <c r="G47" s="3">
-        <v>156500</v>
+        <v>162200</v>
       </c>
       <c r="H47" s="3">
-        <v>229800</v>
+        <v>238100</v>
       </c>
       <c r="I47" s="3">
-        <v>211200</v>
+        <v>218800</v>
       </c>
       <c r="J47" s="3">
-        <v>192300</v>
+        <v>199300</v>
       </c>
       <c r="K47" s="3">
         <v>115700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>134800</v>
+        <v>139700</v>
       </c>
       <c r="E48" s="3">
-        <v>61200</v>
+        <v>63400</v>
       </c>
       <c r="F48" s="3">
-        <v>63100</v>
+        <v>65300</v>
       </c>
       <c r="G48" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="H48" s="3">
-        <v>57700</v>
+        <v>59800</v>
       </c>
       <c r="I48" s="3">
-        <v>115300</v>
+        <v>119500</v>
       </c>
       <c r="J48" s="3">
-        <v>96600</v>
+        <v>100100</v>
       </c>
       <c r="K48" s="3">
         <v>40800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2130500</v>
+        <v>2207900</v>
       </c>
       <c r="E49" s="3">
-        <v>2187300</v>
+        <v>2266800</v>
       </c>
       <c r="F49" s="3">
-        <v>2156100</v>
+        <v>2234500</v>
       </c>
       <c r="G49" s="3">
-        <v>2523000</v>
+        <v>2614600</v>
       </c>
       <c r="H49" s="3">
-        <v>1034800</v>
+        <v>1072400</v>
       </c>
       <c r="I49" s="3">
-        <v>1812400</v>
+        <v>1878200</v>
       </c>
       <c r="J49" s="3">
-        <v>1633600</v>
+        <v>1692900</v>
       </c>
       <c r="K49" s="3">
         <v>1255300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200700</v>
+        <v>208000</v>
       </c>
       <c r="E52" s="3">
-        <v>184300</v>
+        <v>191000</v>
       </c>
       <c r="F52" s="3">
-        <v>126200</v>
+        <v>130800</v>
       </c>
       <c r="G52" s="3">
-        <v>108700</v>
+        <v>112700</v>
       </c>
       <c r="H52" s="3">
-        <v>75300</v>
+        <v>78000</v>
       </c>
       <c r="I52" s="3">
-        <v>94100</v>
+        <v>97500</v>
       </c>
       <c r="J52" s="3">
-        <v>90200</v>
+        <v>93500</v>
       </c>
       <c r="K52" s="3">
         <v>120400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4188700</v>
+        <v>4340900</v>
       </c>
       <c r="E54" s="3">
-        <v>4089400</v>
+        <v>4238000</v>
       </c>
       <c r="F54" s="3">
-        <v>4151000</v>
+        <v>4301800</v>
       </c>
       <c r="G54" s="3">
-        <v>3162600</v>
+        <v>3277500</v>
       </c>
       <c r="H54" s="3">
-        <v>2721800</v>
+        <v>2820600</v>
       </c>
       <c r="I54" s="3">
-        <v>2228000</v>
+        <v>2308900</v>
       </c>
       <c r="J54" s="3">
-        <v>1750800</v>
+        <v>1814400</v>
       </c>
       <c r="K54" s="3">
         <v>1347000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32100</v>
+        <v>33300</v>
       </c>
       <c r="E57" s="3">
-        <v>34900</v>
+        <v>36200</v>
       </c>
       <c r="F57" s="3">
-        <v>33500</v>
+        <v>34700</v>
       </c>
       <c r="G57" s="3">
-        <v>23200</v>
+        <v>24000</v>
       </c>
       <c r="H57" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="I57" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="J57" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="E58" s="3">
-        <v>21900</v>
+        <v>22700</v>
       </c>
       <c r="F58" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
-        <v>20900</v>
+        <v>21600</v>
       </c>
       <c r="H58" s="3">
-        <v>38600</v>
+        <v>40000</v>
       </c>
       <c r="I58" s="3">
-        <v>63900</v>
+        <v>66200</v>
       </c>
       <c r="J58" s="3">
-        <v>61100</v>
+        <v>63300</v>
       </c>
       <c r="K58" s="3">
         <v>26300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>162000</v>
+        <v>167900</v>
       </c>
       <c r="E59" s="3">
-        <v>138000</v>
+        <v>143000</v>
       </c>
       <c r="F59" s="3">
-        <v>290500</v>
+        <v>301100</v>
       </c>
       <c r="G59" s="3">
-        <v>254900</v>
+        <v>264100</v>
       </c>
       <c r="H59" s="3">
-        <v>113400</v>
+        <v>117500</v>
       </c>
       <c r="I59" s="3">
-        <v>116800</v>
+        <v>121000</v>
       </c>
       <c r="J59" s="3">
-        <v>184000</v>
+        <v>190700</v>
       </c>
       <c r="K59" s="3">
         <v>63700</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>223600</v>
+        <v>231800</v>
       </c>
       <c r="E60" s="3">
-        <v>194900</v>
+        <v>201900</v>
       </c>
       <c r="F60" s="3">
-        <v>336300</v>
+        <v>348500</v>
       </c>
       <c r="G60" s="3">
-        <v>298900</v>
+        <v>309800</v>
       </c>
       <c r="H60" s="3">
-        <v>165000</v>
+        <v>171000</v>
       </c>
       <c r="I60" s="3">
-        <v>151400</v>
+        <v>156900</v>
       </c>
       <c r="J60" s="3">
-        <v>180600</v>
+        <v>187100</v>
       </c>
       <c r="K60" s="3">
         <v>78400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>837800</v>
+        <v>868300</v>
       </c>
       <c r="E61" s="3">
-        <v>862600</v>
+        <v>894000</v>
       </c>
       <c r="F61" s="3">
-        <v>936200</v>
+        <v>970200</v>
       </c>
       <c r="G61" s="3">
-        <v>361700</v>
+        <v>374900</v>
       </c>
       <c r="H61" s="3">
-        <v>234600</v>
+        <v>243100</v>
       </c>
       <c r="I61" s="3">
-        <v>250000</v>
+        <v>259000</v>
       </c>
       <c r="J61" s="3">
-        <v>295100</v>
+        <v>305800</v>
       </c>
       <c r="K61" s="3">
         <v>326500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82800</v>
+        <v>85800</v>
       </c>
       <c r="E62" s="3">
-        <v>138600</v>
+        <v>143600</v>
       </c>
       <c r="F62" s="3">
-        <v>127900</v>
+        <v>132500</v>
       </c>
       <c r="G62" s="3">
-        <v>64400</v>
+        <v>66700</v>
       </c>
       <c r="H62" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="I62" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="J62" s="3">
-        <v>29800</v>
+        <v>30900</v>
       </c>
       <c r="K62" s="3">
         <v>22000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1564400</v>
+        <v>1621300</v>
       </c>
       <c r="E66" s="3">
-        <v>1595700</v>
+        <v>1653600</v>
       </c>
       <c r="F66" s="3">
-        <v>1788500</v>
+        <v>1853500</v>
       </c>
       <c r="G66" s="3">
-        <v>986300</v>
+        <v>1022100</v>
       </c>
       <c r="H66" s="3">
-        <v>620500</v>
+        <v>643000</v>
       </c>
       <c r="I66" s="3">
-        <v>539900</v>
+        <v>559500</v>
       </c>
       <c r="J66" s="3">
-        <v>505700</v>
+        <v>524100</v>
       </c>
       <c r="K66" s="3">
         <v>418400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1713100</v>
+        <v>1775300</v>
       </c>
       <c r="E72" s="3">
-        <v>1516600</v>
+        <v>1571700</v>
       </c>
       <c r="F72" s="3">
-        <v>1038900</v>
+        <v>1076700</v>
       </c>
       <c r="G72" s="3">
-        <v>1163900</v>
+        <v>1206100</v>
       </c>
       <c r="H72" s="3">
-        <v>1346900</v>
+        <v>1395800</v>
       </c>
       <c r="I72" s="3">
-        <v>1770600</v>
+        <v>1834900</v>
       </c>
       <c r="J72" s="3">
-        <v>1108300</v>
+        <v>1148600</v>
       </c>
       <c r="K72" s="3">
         <v>585700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2624300</v>
+        <v>2719600</v>
       </c>
       <c r="E76" s="3">
-        <v>2493800</v>
+        <v>2584300</v>
       </c>
       <c r="F76" s="3">
-        <v>2362500</v>
+        <v>2448300</v>
       </c>
       <c r="G76" s="3">
-        <v>2176300</v>
+        <v>2255300</v>
       </c>
       <c r="H76" s="3">
-        <v>2101300</v>
+        <v>2177600</v>
       </c>
       <c r="I76" s="3">
-        <v>1688100</v>
+        <v>1749400</v>
       </c>
       <c r="J76" s="3">
-        <v>1245100</v>
+        <v>1290300</v>
       </c>
       <c r="K76" s="3">
         <v>928700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>305500</v>
+        <v>316600</v>
       </c>
       <c r="E81" s="3">
-        <v>145000</v>
+        <v>150300</v>
       </c>
       <c r="F81" s="3">
-        <v>248600</v>
+        <v>257700</v>
       </c>
       <c r="G81" s="3">
-        <v>284500</v>
+        <v>294800</v>
       </c>
       <c r="H81" s="3">
-        <v>238600</v>
+        <v>247300</v>
       </c>
       <c r="I81" s="3">
-        <v>260800</v>
+        <v>270300</v>
       </c>
       <c r="J81" s="3">
-        <v>252800</v>
+        <v>262000</v>
       </c>
       <c r="K81" s="3">
         <v>109500</v>
@@ -3301,22 +3301,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47000</v>
+        <v>48800</v>
       </c>
       <c r="E83" s="3">
-        <v>37600</v>
+        <v>39000</v>
       </c>
       <c r="F83" s="3">
-        <v>24800</v>
+        <v>25700</v>
       </c>
       <c r="G83" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="H83" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="I83" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>223900</v>
+        <v>232100</v>
       </c>
       <c r="E89" s="3">
-        <v>-96200</v>
+        <v>-99700</v>
       </c>
       <c r="F89" s="3">
-        <v>418000</v>
+        <v>433100</v>
       </c>
       <c r="G89" s="3">
-        <v>254400</v>
+        <v>263700</v>
       </c>
       <c r="H89" s="3">
-        <v>325700</v>
+        <v>337600</v>
       </c>
       <c r="I89" s="3">
-        <v>293000</v>
+        <v>303700</v>
       </c>
       <c r="J89" s="3">
-        <v>259600</v>
+        <v>269000</v>
       </c>
       <c r="K89" s="3">
         <v>177600</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3400</v>
-      </c>
       <c r="H91" s="3">
-        <v>-29900</v>
+        <v>-31000</v>
       </c>
       <c r="I91" s="3">
-        <v>-13200</v>
+        <v>-13700</v>
       </c>
       <c r="J91" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="K91" s="3">
         <v>-3500</v>
@@ -3708,22 +3708,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>175500</v>
+        <v>181800</v>
       </c>
       <c r="E94" s="3">
-        <v>-56200</v>
+        <v>-58300</v>
       </c>
       <c r="F94" s="3">
-        <v>-276300</v>
+        <v>-286300</v>
       </c>
       <c r="G94" s="3">
-        <v>-472100</v>
+        <v>-489300</v>
       </c>
       <c r="H94" s="3">
-        <v>-415600</v>
+        <v>-430700</v>
       </c>
       <c r="I94" s="3">
-        <v>-156300</v>
+        <v>-162000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3764,19 +3764,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109000</v>
+        <v>-113000</v>
       </c>
       <c r="E96" s="3">
-        <v>-109000</v>
+        <v>-113000</v>
       </c>
       <c r="F96" s="3">
-        <v>-109000</v>
+        <v>-113000</v>
       </c>
       <c r="G96" s="3">
-        <v>-43600</v>
+        <v>-45200</v>
       </c>
       <c r="H96" s="3">
-        <v>-21800</v>
+        <v>-22600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3920,22 +3920,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-292100</v>
+        <v>-302700</v>
       </c>
       <c r="E100" s="3">
-        <v>191300</v>
+        <v>198300</v>
       </c>
       <c r="F100" s="3">
-        <v>-160400</v>
+        <v>-166300</v>
       </c>
       <c r="G100" s="3">
-        <v>206600</v>
+        <v>214100</v>
       </c>
       <c r="H100" s="3">
-        <v>140800</v>
+        <v>145900</v>
       </c>
       <c r="I100" s="3">
-        <v>-127200</v>
+        <v>-131800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72100</v>
+        <v>-74700</v>
       </c>
       <c r="E101" s="3">
-        <v>-24700</v>
+        <v>-25600</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G101" s="3">
-        <v>369900</v>
+        <v>383300</v>
       </c>
       <c r="H101" s="3">
-        <v>218800</v>
+        <v>226700</v>
       </c>
       <c r="I101" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35300</v>
+        <v>36500</v>
       </c>
       <c r="E102" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="F102" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="G102" s="3">
-        <v>358800</v>
+        <v>371900</v>
       </c>
       <c r="H102" s="3">
-        <v>269700</v>
+        <v>279400</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="K102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PUODY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>701600</v>
+        <v>842200</v>
       </c>
       <c r="E8" s="3">
-        <v>561100</v>
+        <v>729400</v>
       </c>
       <c r="F8" s="3">
-        <v>680700</v>
+        <v>583400</v>
       </c>
       <c r="G8" s="3">
-        <v>687700</v>
+        <v>707700</v>
       </c>
       <c r="H8" s="3">
-        <v>565300</v>
+        <v>715000</v>
       </c>
       <c r="I8" s="3">
-        <v>595400</v>
+        <v>587700</v>
       </c>
       <c r="J8" s="3">
+        <v>619000</v>
+      </c>
+      <c r="K8" s="3">
         <v>592400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>334500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>281600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>206700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>215400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>315200</v>
+        <v>347400</v>
       </c>
       <c r="E9" s="3">
-        <v>270500</v>
+        <v>327700</v>
       </c>
       <c r="F9" s="3">
-        <v>314200</v>
+        <v>281300</v>
       </c>
       <c r="G9" s="3">
-        <v>312200</v>
+        <v>326700</v>
       </c>
       <c r="H9" s="3">
-        <v>233500</v>
+        <v>324500</v>
       </c>
       <c r="I9" s="3">
-        <v>265700</v>
+        <v>242700</v>
       </c>
       <c r="J9" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K9" s="3">
         <v>312800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>120800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>81100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>386400</v>
+        <v>494800</v>
       </c>
       <c r="E10" s="3">
-        <v>290600</v>
+        <v>401700</v>
       </c>
       <c r="F10" s="3">
-        <v>366500</v>
+        <v>302100</v>
       </c>
       <c r="G10" s="3">
-        <v>375600</v>
+        <v>381000</v>
       </c>
       <c r="H10" s="3">
-        <v>331800</v>
+        <v>390500</v>
       </c>
       <c r="I10" s="3">
-        <v>329700</v>
+        <v>345000</v>
       </c>
       <c r="J10" s="3">
+        <v>342800</v>
+      </c>
+      <c r="K10" s="3">
         <v>279700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>160800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>125700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>129400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,25 +999,25 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>500</v>
-      </c>
       <c r="H15" s="3">
+        <v>600</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>300</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>322700</v>
+        <v>359700</v>
       </c>
       <c r="E17" s="3">
-        <v>273100</v>
+        <v>335500</v>
       </c>
       <c r="F17" s="3">
-        <v>317900</v>
+        <v>284000</v>
       </c>
       <c r="G17" s="3">
-        <v>312400</v>
+        <v>330600</v>
       </c>
       <c r="H17" s="3">
-        <v>230400</v>
+        <v>324800</v>
       </c>
       <c r="I17" s="3">
-        <v>262300</v>
+        <v>239500</v>
       </c>
       <c r="J17" s="3">
+        <v>272700</v>
+      </c>
+      <c r="K17" s="3">
         <v>307400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>118600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>378900</v>
+        <v>482500</v>
       </c>
       <c r="E18" s="3">
-        <v>288000</v>
+        <v>393900</v>
       </c>
       <c r="F18" s="3">
-        <v>362800</v>
+        <v>299400</v>
       </c>
       <c r="G18" s="3">
-        <v>375300</v>
+        <v>377100</v>
       </c>
       <c r="H18" s="3">
-        <v>334900</v>
+        <v>390200</v>
       </c>
       <c r="I18" s="3">
-        <v>333100</v>
+        <v>348200</v>
       </c>
       <c r="J18" s="3">
+        <v>346300</v>
+      </c>
+      <c r="K18" s="3">
         <v>285000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>188100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>163000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>125000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>127700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>-43300</v>
       </c>
       <c r="E20" s="3">
-        <v>-51800</v>
+        <v>13000</v>
       </c>
       <c r="F20" s="3">
-        <v>90000</v>
+        <v>-53900</v>
       </c>
       <c r="G20" s="3">
-        <v>89300</v>
+        <v>93600</v>
       </c>
       <c r="H20" s="3">
-        <v>43000</v>
+        <v>92800</v>
       </c>
       <c r="I20" s="3">
-        <v>51600</v>
+        <v>44700</v>
       </c>
       <c r="J20" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K20" s="3">
         <v>46900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-55500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>440500</v>
+        <v>510800</v>
       </c>
       <c r="E21" s="3">
-        <v>275400</v>
+        <v>470200</v>
       </c>
       <c r="F21" s="3">
-        <v>478600</v>
+        <v>296200</v>
       </c>
       <c r="G21" s="3">
-        <v>488700</v>
+        <v>511300</v>
       </c>
       <c r="H21" s="3">
-        <v>398900</v>
+        <v>509700</v>
       </c>
       <c r="I21" s="3">
-        <v>400600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>417800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>421600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1193,9 +1229,12 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,114 +1244,123 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>51900</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>36600</v>
+        <v>54000</v>
       </c>
       <c r="H22" s="3">
-        <v>36800</v>
+        <v>38100</v>
       </c>
       <c r="I22" s="3">
-        <v>66700</v>
+        <v>38300</v>
       </c>
       <c r="J22" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K22" s="3">
         <v>41700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>54800</v>
       </c>
       <c r="M22" s="3">
         <v>54800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>391400</v>
+        <v>439200</v>
       </c>
       <c r="E23" s="3">
-        <v>236200</v>
+        <v>406900</v>
       </c>
       <c r="F23" s="3">
-        <v>400800</v>
+        <v>245500</v>
       </c>
       <c r="G23" s="3">
-        <v>428000</v>
+        <v>416700</v>
       </c>
       <c r="H23" s="3">
-        <v>341100</v>
+        <v>445000</v>
       </c>
       <c r="I23" s="3">
-        <v>318000</v>
+        <v>354600</v>
       </c>
       <c r="J23" s="3">
+        <v>330600</v>
+      </c>
+      <c r="K23" s="3">
         <v>290200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>71000</v>
       </c>
       <c r="E24" s="3">
-        <v>43200</v>
+        <v>24900</v>
       </c>
       <c r="F24" s="3">
-        <v>101600</v>
+        <v>44900</v>
       </c>
       <c r="G24" s="3">
-        <v>90000</v>
+        <v>105600</v>
       </c>
       <c r="H24" s="3">
-        <v>68100</v>
+        <v>93600</v>
       </c>
       <c r="I24" s="3">
-        <v>44500</v>
+        <v>70800</v>
       </c>
       <c r="J24" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K24" s="3">
         <v>27100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>367400</v>
+        <v>368100</v>
       </c>
       <c r="E26" s="3">
-        <v>193000</v>
+        <v>382000</v>
       </c>
       <c r="F26" s="3">
-        <v>299300</v>
+        <v>200600</v>
       </c>
       <c r="G26" s="3">
-        <v>338000</v>
+        <v>311100</v>
       </c>
       <c r="H26" s="3">
-        <v>273000</v>
+        <v>351400</v>
       </c>
       <c r="I26" s="3">
-        <v>273500</v>
+        <v>283900</v>
       </c>
       <c r="J26" s="3">
+        <v>284300</v>
+      </c>
+      <c r="K26" s="3">
         <v>263100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>109600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>106000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>82100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>316600</v>
+        <v>309900</v>
       </c>
       <c r="E27" s="3">
-        <v>150300</v>
+        <v>329200</v>
       </c>
       <c r="F27" s="3">
-        <v>257700</v>
+        <v>156200</v>
       </c>
       <c r="G27" s="3">
-        <v>294800</v>
+        <v>267900</v>
       </c>
       <c r="H27" s="3">
-        <v>247700</v>
+        <v>306500</v>
       </c>
       <c r="I27" s="3">
-        <v>270300</v>
+        <v>257500</v>
       </c>
       <c r="J27" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K27" s="3">
         <v>263000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>106000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>82100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,23 +1538,23 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-400</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-100</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>43300</v>
       </c>
       <c r="E32" s="3">
-        <v>51800</v>
+        <v>-13000</v>
       </c>
       <c r="F32" s="3">
-        <v>-90000</v>
+        <v>53900</v>
       </c>
       <c r="G32" s="3">
-        <v>-89300</v>
+        <v>-93600</v>
       </c>
       <c r="H32" s="3">
-        <v>-43000</v>
+        <v>-92800</v>
       </c>
       <c r="I32" s="3">
-        <v>-51600</v>
+        <v>-44700</v>
       </c>
       <c r="J32" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-46900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>55500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>316600</v>
+        <v>309900</v>
       </c>
       <c r="E33" s="3">
-        <v>150300</v>
+        <v>329200</v>
       </c>
       <c r="F33" s="3">
-        <v>257700</v>
+        <v>156200</v>
       </c>
       <c r="G33" s="3">
-        <v>294800</v>
+        <v>267900</v>
       </c>
       <c r="H33" s="3">
-        <v>247300</v>
+        <v>306500</v>
       </c>
       <c r="I33" s="3">
-        <v>270300</v>
+        <v>257100</v>
       </c>
       <c r="J33" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K33" s="3">
         <v>262000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>105900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>82000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>316600</v>
+        <v>309900</v>
       </c>
       <c r="E35" s="3">
-        <v>150300</v>
+        <v>329200</v>
       </c>
       <c r="F35" s="3">
-        <v>257700</v>
+        <v>156200</v>
       </c>
       <c r="G35" s="3">
-        <v>294800</v>
+        <v>267900</v>
       </c>
       <c r="H35" s="3">
-        <v>247300</v>
+        <v>306500</v>
       </c>
       <c r="I35" s="3">
-        <v>270300</v>
+        <v>257100</v>
       </c>
       <c r="J35" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K35" s="3">
         <v>262000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>105900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>82000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>150100</v>
+        <v>50300</v>
       </c>
       <c r="E41" s="3">
-        <v>64000</v>
+        <v>156100</v>
       </c>
       <c r="F41" s="3">
-        <v>27400</v>
+        <v>66500</v>
       </c>
       <c r="G41" s="3">
-        <v>12700</v>
+        <v>28500</v>
       </c>
       <c r="H41" s="3">
-        <v>25800</v>
+        <v>13200</v>
       </c>
       <c r="I41" s="3">
-        <v>868000</v>
+        <v>26800</v>
       </c>
       <c r="J41" s="3">
+        <v>902500</v>
+      </c>
+      <c r="K41" s="3">
         <v>580300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1287400</v>
+        <v>1202800</v>
       </c>
       <c r="E42" s="3">
-        <v>1345500</v>
+        <v>1338500</v>
       </c>
       <c r="F42" s="3">
-        <v>1604200</v>
+        <v>1398900</v>
       </c>
       <c r="G42" s="3">
-        <v>1410400</v>
+        <v>1667800</v>
       </c>
       <c r="H42" s="3">
-        <v>1172300</v>
+        <v>1466300</v>
       </c>
       <c r="I42" s="3">
-        <v>788300</v>
+        <v>1218700</v>
       </c>
       <c r="J42" s="3">
+        <v>819600</v>
+      </c>
+      <c r="K42" s="3">
         <v>499500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>446500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>287700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>158300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>142400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>150400</v>
+        <v>147000</v>
       </c>
       <c r="E43" s="3">
-        <v>80800</v>
+        <v>156400</v>
       </c>
       <c r="F43" s="3">
-        <v>94800</v>
+        <v>84000</v>
       </c>
       <c r="G43" s="3">
-        <v>88700</v>
+        <v>98500</v>
       </c>
       <c r="H43" s="3">
-        <v>140100</v>
+        <v>92200</v>
       </c>
       <c r="I43" s="3">
-        <v>252100</v>
+        <v>145600</v>
       </c>
       <c r="J43" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K43" s="3">
         <v>174100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>45000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>77500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8600</v>
+        <v>10600</v>
       </c>
       <c r="E44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="N44" s="3">
         <v>7700</v>
       </c>
-      <c r="F44" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>9700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>8300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>7700</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>14700</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>25800</v>
+        <v>13800</v>
       </c>
       <c r="G45" s="3">
-        <v>11100</v>
+        <v>26800</v>
       </c>
       <c r="H45" s="3">
-        <v>28300</v>
+        <v>11500</v>
       </c>
       <c r="I45" s="3">
-        <v>77700</v>
+        <v>29400</v>
       </c>
       <c r="J45" s="3">
+        <v>80800</v>
+      </c>
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7900</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1613700</v>
+        <v>1425300</v>
       </c>
       <c r="E46" s="3">
-        <v>1511300</v>
+        <v>1677700</v>
       </c>
       <c r="F46" s="3">
-        <v>1763000</v>
+        <v>1571200</v>
       </c>
       <c r="G46" s="3">
-        <v>1532700</v>
+        <v>1832900</v>
       </c>
       <c r="H46" s="3">
-        <v>1372300</v>
+        <v>1593500</v>
       </c>
       <c r="I46" s="3">
-        <v>1000700</v>
+        <v>1426700</v>
       </c>
       <c r="J46" s="3">
+        <v>1040400</v>
+      </c>
+      <c r="K46" s="3">
         <v>650500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>498400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>178600</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>171600</v>
+        <v>183100</v>
       </c>
       <c r="E47" s="3">
-        <v>205500</v>
+        <v>178400</v>
       </c>
       <c r="F47" s="3">
-        <v>108200</v>
+        <v>213600</v>
       </c>
       <c r="G47" s="3">
-        <v>162200</v>
+        <v>112400</v>
       </c>
       <c r="H47" s="3">
-        <v>238100</v>
+        <v>168600</v>
       </c>
       <c r="I47" s="3">
-        <v>218800</v>
+        <v>247600</v>
       </c>
       <c r="J47" s="3">
+        <v>227500</v>
+      </c>
+      <c r="K47" s="3">
         <v>199300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>115700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>101500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139700</v>
+        <v>162800</v>
       </c>
       <c r="E48" s="3">
-        <v>63400</v>
+        <v>145300</v>
       </c>
       <c r="F48" s="3">
-        <v>65300</v>
+        <v>65900</v>
       </c>
       <c r="G48" s="3">
-        <v>59200</v>
+        <v>67900</v>
       </c>
       <c r="H48" s="3">
-        <v>59800</v>
+        <v>61600</v>
       </c>
       <c r="I48" s="3">
-        <v>119500</v>
+        <v>62100</v>
       </c>
       <c r="J48" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K48" s="3">
         <v>100100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>60900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2207900</v>
+        <v>2332200</v>
       </c>
       <c r="E49" s="3">
-        <v>2266800</v>
+        <v>2295400</v>
       </c>
       <c r="F49" s="3">
-        <v>2234500</v>
+        <v>2356700</v>
       </c>
       <c r="G49" s="3">
-        <v>2614600</v>
+        <v>2323100</v>
       </c>
       <c r="H49" s="3">
-        <v>1072400</v>
+        <v>2718300</v>
       </c>
       <c r="I49" s="3">
-        <v>1878200</v>
+        <v>1114900</v>
       </c>
       <c r="J49" s="3">
+        <v>1952700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1692900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1255300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1644800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>927300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>385500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>208000</v>
+        <v>273500</v>
       </c>
       <c r="E52" s="3">
-        <v>191000</v>
+        <v>216300</v>
       </c>
       <c r="F52" s="3">
-        <v>130800</v>
+        <v>198600</v>
       </c>
       <c r="G52" s="3">
-        <v>112700</v>
+        <v>136000</v>
       </c>
       <c r="H52" s="3">
-        <v>78000</v>
+        <v>117100</v>
       </c>
       <c r="I52" s="3">
-        <v>97500</v>
+        <v>81100</v>
       </c>
       <c r="J52" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K52" s="3">
         <v>93500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>121300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4340900</v>
+        <v>4376900</v>
       </c>
       <c r="E54" s="3">
-        <v>4238000</v>
+        <v>4513000</v>
       </c>
       <c r="F54" s="3">
-        <v>4301800</v>
+        <v>4406000</v>
       </c>
       <c r="G54" s="3">
-        <v>3277500</v>
+        <v>4472400</v>
       </c>
       <c r="H54" s="3">
-        <v>2820600</v>
+        <v>3407400</v>
       </c>
       <c r="I54" s="3">
-        <v>2308900</v>
+        <v>2932500</v>
       </c>
       <c r="J54" s="3">
+        <v>2400500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1814400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1347000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>905400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>748800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>728600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33300</v>
+        <v>36200</v>
       </c>
       <c r="E57" s="3">
-        <v>36200</v>
+        <v>34600</v>
       </c>
       <c r="F57" s="3">
-        <v>34700</v>
+        <v>37600</v>
       </c>
       <c r="G57" s="3">
-        <v>24000</v>
+        <v>36100</v>
       </c>
       <c r="H57" s="3">
-        <v>13400</v>
+        <v>25000</v>
       </c>
       <c r="I57" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="J57" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30500</v>
+        <v>39000</v>
       </c>
       <c r="E58" s="3">
-        <v>22700</v>
+        <v>31700</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>23600</v>
       </c>
       <c r="G58" s="3">
-        <v>21600</v>
+        <v>13200</v>
       </c>
       <c r="H58" s="3">
-        <v>40000</v>
+        <v>22500</v>
       </c>
       <c r="I58" s="3">
-        <v>66200</v>
+        <v>41600</v>
       </c>
       <c r="J58" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K58" s="3">
         <v>63300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167900</v>
+        <v>212700</v>
       </c>
       <c r="E59" s="3">
-        <v>143000</v>
+        <v>174600</v>
       </c>
       <c r="F59" s="3">
-        <v>301100</v>
+        <v>148700</v>
       </c>
       <c r="G59" s="3">
-        <v>264100</v>
+        <v>313000</v>
       </c>
       <c r="H59" s="3">
-        <v>117500</v>
+        <v>274600</v>
       </c>
       <c r="I59" s="3">
-        <v>121000</v>
+        <v>122100</v>
       </c>
       <c r="J59" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K59" s="3">
         <v>190700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>231800</v>
+        <v>287900</v>
       </c>
       <c r="E60" s="3">
-        <v>201900</v>
+        <v>241000</v>
       </c>
       <c r="F60" s="3">
-        <v>348500</v>
+        <v>209900</v>
       </c>
       <c r="G60" s="3">
-        <v>309800</v>
+        <v>362300</v>
       </c>
       <c r="H60" s="3">
-        <v>171000</v>
+        <v>322100</v>
       </c>
       <c r="I60" s="3">
-        <v>156900</v>
+        <v>177700</v>
       </c>
       <c r="J60" s="3">
+        <v>163200</v>
+      </c>
+      <c r="K60" s="3">
         <v>187100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>868300</v>
+        <v>870500</v>
       </c>
       <c r="E61" s="3">
-        <v>894000</v>
+        <v>902700</v>
       </c>
       <c r="F61" s="3">
-        <v>970200</v>
+        <v>929400</v>
       </c>
       <c r="G61" s="3">
-        <v>374900</v>
+        <v>1008700</v>
       </c>
       <c r="H61" s="3">
-        <v>243100</v>
+        <v>389700</v>
       </c>
       <c r="I61" s="3">
-        <v>259000</v>
+        <v>252700</v>
       </c>
       <c r="J61" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K61" s="3">
         <v>305800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>326500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>405000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>381700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>497000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85800</v>
+        <v>66100</v>
       </c>
       <c r="E62" s="3">
-        <v>143600</v>
+        <v>89200</v>
       </c>
       <c r="F62" s="3">
-        <v>132500</v>
+        <v>149300</v>
       </c>
       <c r="G62" s="3">
-        <v>66700</v>
+        <v>137800</v>
       </c>
       <c r="H62" s="3">
-        <v>11500</v>
+        <v>69400</v>
       </c>
       <c r="I62" s="3">
-        <v>27200</v>
+        <v>12000</v>
       </c>
       <c r="J62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K62" s="3">
         <v>30900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1621300</v>
+        <v>1669100</v>
       </c>
       <c r="E66" s="3">
-        <v>1653600</v>
+        <v>1685500</v>
       </c>
       <c r="F66" s="3">
-        <v>1853500</v>
+        <v>1719200</v>
       </c>
       <c r="G66" s="3">
-        <v>1022100</v>
+        <v>1927000</v>
       </c>
       <c r="H66" s="3">
-        <v>643000</v>
+        <v>1062600</v>
       </c>
       <c r="I66" s="3">
-        <v>559500</v>
+        <v>668500</v>
       </c>
       <c r="J66" s="3">
+        <v>581700</v>
+      </c>
+      <c r="K66" s="3">
         <v>524100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>418400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>482800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>453300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>549700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1775300</v>
+        <v>1903700</v>
       </c>
       <c r="E72" s="3">
-        <v>1571700</v>
+        <v>1845700</v>
       </c>
       <c r="F72" s="3">
-        <v>1076700</v>
+        <v>1634000</v>
       </c>
       <c r="G72" s="3">
-        <v>1206100</v>
+        <v>1119400</v>
       </c>
       <c r="H72" s="3">
-        <v>1395800</v>
+        <v>1254000</v>
       </c>
       <c r="I72" s="3">
-        <v>1834900</v>
+        <v>1451200</v>
       </c>
       <c r="J72" s="3">
+        <v>1907700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1148600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>585700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>407400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>279400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2719600</v>
+        <v>2707800</v>
       </c>
       <c r="E76" s="3">
-        <v>2584300</v>
+        <v>2827500</v>
       </c>
       <c r="F76" s="3">
-        <v>2448300</v>
+        <v>2686800</v>
       </c>
       <c r="G76" s="3">
-        <v>2255300</v>
+        <v>2545400</v>
       </c>
       <c r="H76" s="3">
-        <v>2177600</v>
+        <v>2344800</v>
       </c>
       <c r="I76" s="3">
-        <v>1749400</v>
+        <v>2263900</v>
       </c>
       <c r="J76" s="3">
+        <v>1818800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1290300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>928700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>422600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>295500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>178900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>316600</v>
+        <v>309900</v>
       </c>
       <c r="E81" s="3">
-        <v>150300</v>
+        <v>329200</v>
       </c>
       <c r="F81" s="3">
-        <v>257700</v>
+        <v>156200</v>
       </c>
       <c r="G81" s="3">
-        <v>294800</v>
+        <v>267900</v>
       </c>
       <c r="H81" s="3">
-        <v>247300</v>
+        <v>306500</v>
       </c>
       <c r="I81" s="3">
-        <v>270300</v>
+        <v>257100</v>
       </c>
       <c r="J81" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K81" s="3">
         <v>262000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>105900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>82000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48800</v>
+        <v>71600</v>
       </c>
       <c r="E83" s="3">
-        <v>39000</v>
+        <v>63300</v>
       </c>
       <c r="F83" s="3">
-        <v>25700</v>
+        <v>50700</v>
       </c>
       <c r="G83" s="3">
-        <v>23900</v>
+        <v>40600</v>
       </c>
       <c r="H83" s="3">
-        <v>20900</v>
+        <v>26700</v>
       </c>
       <c r="I83" s="3">
-        <v>15800</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>24900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>21700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3333,9 +3531,12 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>232100</v>
+        <v>549600</v>
       </c>
       <c r="E89" s="3">
-        <v>-99700</v>
+        <v>390900</v>
       </c>
       <c r="F89" s="3">
-        <v>433100</v>
+        <v>241300</v>
       </c>
       <c r="G89" s="3">
-        <v>263700</v>
+        <v>-103600</v>
       </c>
       <c r="H89" s="3">
-        <v>337600</v>
+        <v>450300</v>
       </c>
       <c r="I89" s="3">
-        <v>303700</v>
+        <v>274100</v>
       </c>
       <c r="J89" s="3">
+        <v>350900</v>
+      </c>
+      <c r="K89" s="3">
         <v>269000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>173900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>92100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>123900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-13700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>181800</v>
+        <v>63300</v>
       </c>
       <c r="E94" s="3">
-        <v>-58300</v>
+        <v>70900</v>
       </c>
       <c r="F94" s="3">
-        <v>-286300</v>
+        <v>189000</v>
       </c>
       <c r="G94" s="3">
-        <v>-489300</v>
+        <v>-60600</v>
       </c>
       <c r="H94" s="3">
-        <v>-430700</v>
+        <v>-297700</v>
       </c>
       <c r="I94" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-508700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-447800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3740,9 +3969,12 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,31 +3990,32 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-113000</v>
+        <v>-176200</v>
       </c>
       <c r="E96" s="3">
-        <v>-113000</v>
+        <v>-117500</v>
       </c>
       <c r="F96" s="3">
-        <v>-113000</v>
+        <v>-117500</v>
       </c>
       <c r="G96" s="3">
-        <v>-45200</v>
+        <v>-117500</v>
       </c>
       <c r="H96" s="3">
-        <v>-22600</v>
+        <v>-117500</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-47000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-23500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-302700</v>
+        <v>-718600</v>
       </c>
       <c r="E100" s="3">
-        <v>198300</v>
+        <v>-394200</v>
       </c>
       <c r="F100" s="3">
-        <v>-166300</v>
+        <v>-314700</v>
       </c>
       <c r="G100" s="3">
-        <v>214100</v>
+        <v>206200</v>
       </c>
       <c r="H100" s="3">
-        <v>145900</v>
+        <v>-172800</v>
       </c>
       <c r="I100" s="3">
-        <v>-131800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>222600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>151700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3952,32 +4197,35 @@
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-74700</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>-25600</v>
+        <v>21900</v>
       </c>
       <c r="F101" s="3">
-        <v>6200</v>
+        <v>-77600</v>
       </c>
       <c r="G101" s="3">
-        <v>383300</v>
+        <v>-26600</v>
       </c>
       <c r="H101" s="3">
-        <v>226700</v>
+        <v>6400</v>
       </c>
       <c r="I101" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>398500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>235700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>36500</v>
+        <v>-105800</v>
       </c>
       <c r="E102" s="3">
-        <v>14700</v>
+        <v>89600</v>
       </c>
       <c r="F102" s="3">
-        <v>-13200</v>
+        <v>38000</v>
       </c>
       <c r="G102" s="3">
-        <v>371900</v>
+        <v>15300</v>
       </c>
       <c r="H102" s="3">
-        <v>279400</v>
+        <v>-13800</v>
       </c>
       <c r="I102" s="3">
-        <v>2500</v>
+        <v>386600</v>
       </c>
       <c r="J102" s="3">
+        <v>290500</v>
+      </c>
+      <c r="K102" s="3">
         <v>13400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>2200</v>
       </c>
       <c r="L102" s="3">
         <v>2200</v>
       </c>
       <c r="M102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PUODY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>842200</v>
+        <v>832600</v>
       </c>
       <c r="E8" s="3">
-        <v>729400</v>
+        <v>721100</v>
       </c>
       <c r="F8" s="3">
-        <v>583400</v>
+        <v>576700</v>
       </c>
       <c r="G8" s="3">
-        <v>707700</v>
+        <v>699600</v>
       </c>
       <c r="H8" s="3">
-        <v>715000</v>
+        <v>706800</v>
       </c>
       <c r="I8" s="3">
-        <v>587700</v>
+        <v>581000</v>
       </c>
       <c r="J8" s="3">
-        <v>619000</v>
+        <v>611900</v>
       </c>
       <c r="K8" s="3">
         <v>592400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>347400</v>
+        <v>343500</v>
       </c>
       <c r="E9" s="3">
-        <v>327700</v>
+        <v>323900</v>
       </c>
       <c r="F9" s="3">
-        <v>281300</v>
+        <v>278100</v>
       </c>
       <c r="G9" s="3">
-        <v>326700</v>
+        <v>323000</v>
       </c>
       <c r="H9" s="3">
-        <v>324500</v>
+        <v>320800</v>
       </c>
       <c r="I9" s="3">
-        <v>242700</v>
+        <v>240000</v>
       </c>
       <c r="J9" s="3">
-        <v>276200</v>
+        <v>273100</v>
       </c>
       <c r="K9" s="3">
         <v>312800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>494800</v>
+        <v>489100</v>
       </c>
       <c r="E10" s="3">
-        <v>401700</v>
+        <v>397200</v>
       </c>
       <c r="F10" s="3">
-        <v>302100</v>
+        <v>298700</v>
       </c>
       <c r="G10" s="3">
-        <v>381000</v>
+        <v>376700</v>
       </c>
       <c r="H10" s="3">
-        <v>390500</v>
+        <v>386000</v>
       </c>
       <c r="I10" s="3">
-        <v>345000</v>
+        <v>341100</v>
       </c>
       <c r="J10" s="3">
-        <v>342800</v>
+        <v>338900</v>
       </c>
       <c r="K10" s="3">
         <v>279700</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>359700</v>
+        <v>355600</v>
       </c>
       <c r="E17" s="3">
-        <v>335500</v>
+        <v>331700</v>
       </c>
       <c r="F17" s="3">
-        <v>284000</v>
+        <v>280700</v>
       </c>
       <c r="G17" s="3">
-        <v>330600</v>
+        <v>326800</v>
       </c>
       <c r="H17" s="3">
-        <v>324800</v>
+        <v>321100</v>
       </c>
       <c r="I17" s="3">
-        <v>239500</v>
+        <v>236800</v>
       </c>
       <c r="J17" s="3">
-        <v>272700</v>
+        <v>269600</v>
       </c>
       <c r="K17" s="3">
         <v>307400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>482500</v>
+        <v>477000</v>
       </c>
       <c r="E18" s="3">
-        <v>393900</v>
+        <v>389400</v>
       </c>
       <c r="F18" s="3">
-        <v>299400</v>
+        <v>296000</v>
       </c>
       <c r="G18" s="3">
-        <v>377100</v>
+        <v>372800</v>
       </c>
       <c r="H18" s="3">
-        <v>390200</v>
+        <v>385800</v>
       </c>
       <c r="I18" s="3">
-        <v>348200</v>
+        <v>344300</v>
       </c>
       <c r="J18" s="3">
-        <v>346300</v>
+        <v>342300</v>
       </c>
       <c r="K18" s="3">
         <v>285000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-43300</v>
+        <v>-42800</v>
       </c>
       <c r="E20" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="F20" s="3">
-        <v>-53900</v>
+        <v>-53200</v>
       </c>
       <c r="G20" s="3">
-        <v>93600</v>
+        <v>92500</v>
       </c>
       <c r="H20" s="3">
-        <v>92800</v>
+        <v>91800</v>
       </c>
       <c r="I20" s="3">
-        <v>44700</v>
+        <v>44200</v>
       </c>
       <c r="J20" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="K20" s="3">
         <v>46900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>510800</v>
+        <v>504700</v>
       </c>
       <c r="E21" s="3">
-        <v>470200</v>
+        <v>464600</v>
       </c>
       <c r="F21" s="3">
-        <v>296200</v>
+        <v>292600</v>
       </c>
       <c r="G21" s="3">
-        <v>511300</v>
+        <v>505300</v>
       </c>
       <c r="H21" s="3">
-        <v>509700</v>
+        <v>503800</v>
       </c>
       <c r="I21" s="3">
-        <v>417800</v>
+        <v>412900</v>
       </c>
       <c r="J21" s="3">
-        <v>421600</v>
+        <v>416700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1248,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>54000</v>
+        <v>53400</v>
       </c>
       <c r="H22" s="3">
-        <v>38100</v>
+        <v>37600</v>
       </c>
       <c r="I22" s="3">
-        <v>38300</v>
+        <v>37800</v>
       </c>
       <c r="J22" s="3">
-        <v>69300</v>
+        <v>68500</v>
       </c>
       <c r="K22" s="3">
         <v>41700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>439200</v>
+        <v>434200</v>
       </c>
       <c r="E23" s="3">
-        <v>406900</v>
+        <v>402300</v>
       </c>
       <c r="F23" s="3">
-        <v>245500</v>
+        <v>242700</v>
       </c>
       <c r="G23" s="3">
-        <v>416700</v>
+        <v>412000</v>
       </c>
       <c r="H23" s="3">
-        <v>445000</v>
+        <v>439900</v>
       </c>
       <c r="I23" s="3">
-        <v>354600</v>
+        <v>350600</v>
       </c>
       <c r="J23" s="3">
-        <v>330600</v>
+        <v>326800</v>
       </c>
       <c r="K23" s="3">
         <v>290200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71000</v>
+        <v>70200</v>
       </c>
       <c r="E24" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F24" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="G24" s="3">
-        <v>105600</v>
+        <v>104400</v>
       </c>
       <c r="H24" s="3">
-        <v>93600</v>
+        <v>92500</v>
       </c>
       <c r="I24" s="3">
-        <v>70800</v>
+        <v>70000</v>
       </c>
       <c r="J24" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="K24" s="3">
         <v>27100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>368100</v>
+        <v>363900</v>
       </c>
       <c r="E26" s="3">
-        <v>382000</v>
+        <v>377600</v>
       </c>
       <c r="F26" s="3">
-        <v>200600</v>
+        <v>198400</v>
       </c>
       <c r="G26" s="3">
-        <v>311100</v>
+        <v>307600</v>
       </c>
       <c r="H26" s="3">
-        <v>351400</v>
+        <v>347400</v>
       </c>
       <c r="I26" s="3">
-        <v>283900</v>
+        <v>280600</v>
       </c>
       <c r="J26" s="3">
-        <v>284300</v>
+        <v>281100</v>
       </c>
       <c r="K26" s="3">
         <v>263100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>309900</v>
+        <v>306300</v>
       </c>
       <c r="E27" s="3">
-        <v>329200</v>
+        <v>325400</v>
       </c>
       <c r="F27" s="3">
-        <v>156200</v>
+        <v>154500</v>
       </c>
       <c r="G27" s="3">
-        <v>267900</v>
+        <v>264800</v>
       </c>
       <c r="H27" s="3">
-        <v>306500</v>
+        <v>303000</v>
       </c>
       <c r="I27" s="3">
-        <v>257500</v>
+        <v>254600</v>
       </c>
       <c r="J27" s="3">
-        <v>281000</v>
+        <v>277800</v>
       </c>
       <c r="K27" s="3">
         <v>263000</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>43300</v>
+        <v>42800</v>
       </c>
       <c r="E32" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="F32" s="3">
-        <v>53900</v>
+        <v>53200</v>
       </c>
       <c r="G32" s="3">
-        <v>-93600</v>
+        <v>-92500</v>
       </c>
       <c r="H32" s="3">
-        <v>-92800</v>
+        <v>-91800</v>
       </c>
       <c r="I32" s="3">
-        <v>-44700</v>
+        <v>-44200</v>
       </c>
       <c r="J32" s="3">
-        <v>-53600</v>
+        <v>-53000</v>
       </c>
       <c r="K32" s="3">
         <v>-46900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>309900</v>
+        <v>306300</v>
       </c>
       <c r="E33" s="3">
-        <v>329200</v>
+        <v>325400</v>
       </c>
       <c r="F33" s="3">
-        <v>156200</v>
+        <v>154500</v>
       </c>
       <c r="G33" s="3">
-        <v>267900</v>
+        <v>264800</v>
       </c>
       <c r="H33" s="3">
-        <v>306500</v>
+        <v>303000</v>
       </c>
       <c r="I33" s="3">
-        <v>257100</v>
+        <v>254100</v>
       </c>
       <c r="J33" s="3">
-        <v>281000</v>
+        <v>277800</v>
       </c>
       <c r="K33" s="3">
         <v>262000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>309900</v>
+        <v>306300</v>
       </c>
       <c r="E35" s="3">
-        <v>329200</v>
+        <v>325400</v>
       </c>
       <c r="F35" s="3">
-        <v>156200</v>
+        <v>154500</v>
       </c>
       <c r="G35" s="3">
-        <v>267900</v>
+        <v>264800</v>
       </c>
       <c r="H35" s="3">
-        <v>306500</v>
+        <v>303000</v>
       </c>
       <c r="I35" s="3">
-        <v>257100</v>
+        <v>254100</v>
       </c>
       <c r="J35" s="3">
-        <v>281000</v>
+        <v>277800</v>
       </c>
       <c r="K35" s="3">
         <v>262000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50300</v>
+        <v>49700</v>
       </c>
       <c r="E41" s="3">
-        <v>156100</v>
+        <v>154300</v>
       </c>
       <c r="F41" s="3">
-        <v>66500</v>
+        <v>65800</v>
       </c>
       <c r="G41" s="3">
-        <v>28500</v>
+        <v>28200</v>
       </c>
       <c r="H41" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="I41" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J41" s="3">
-        <v>902500</v>
+        <v>892200</v>
       </c>
       <c r="K41" s="3">
         <v>580300</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1202800</v>
+        <v>1189100</v>
       </c>
       <c r="E42" s="3">
-        <v>1338500</v>
+        <v>1323200</v>
       </c>
       <c r="F42" s="3">
-        <v>1398900</v>
+        <v>1382900</v>
       </c>
       <c r="G42" s="3">
-        <v>1667800</v>
+        <v>1648800</v>
       </c>
       <c r="H42" s="3">
-        <v>1466300</v>
+        <v>1449600</v>
       </c>
       <c r="I42" s="3">
-        <v>1218700</v>
+        <v>1204800</v>
       </c>
       <c r="J42" s="3">
-        <v>819600</v>
+        <v>810300</v>
       </c>
       <c r="K42" s="3">
         <v>499500</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>147000</v>
+        <v>145300</v>
       </c>
       <c r="E43" s="3">
-        <v>156400</v>
+        <v>154600</v>
       </c>
       <c r="F43" s="3">
-        <v>84000</v>
+        <v>83000</v>
       </c>
       <c r="G43" s="3">
-        <v>98500</v>
+        <v>97400</v>
       </c>
       <c r="H43" s="3">
-        <v>92200</v>
+        <v>91200</v>
       </c>
       <c r="I43" s="3">
-        <v>145600</v>
+        <v>144000</v>
       </c>
       <c r="J43" s="3">
-        <v>262100</v>
+        <v>259100</v>
       </c>
       <c r="K43" s="3">
         <v>174100</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="E44" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F44" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="G44" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H44" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I44" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J44" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K44" s="3">
         <v>8000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="F45" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="G45" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="H45" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I45" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="J45" s="3">
-        <v>80800</v>
+        <v>79900</v>
       </c>
       <c r="K45" s="3">
         <v>14600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1425300</v>
+        <v>1409100</v>
       </c>
       <c r="E46" s="3">
-        <v>1677700</v>
+        <v>1658600</v>
       </c>
       <c r="F46" s="3">
-        <v>1571200</v>
+        <v>1553300</v>
       </c>
       <c r="G46" s="3">
-        <v>1832900</v>
+        <v>1812000</v>
       </c>
       <c r="H46" s="3">
-        <v>1593500</v>
+        <v>1575300</v>
       </c>
       <c r="I46" s="3">
-        <v>1426700</v>
+        <v>1410400</v>
       </c>
       <c r="J46" s="3">
-        <v>1040400</v>
+        <v>1028500</v>
       </c>
       <c r="K46" s="3">
         <v>650500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>183100</v>
+        <v>181000</v>
       </c>
       <c r="E47" s="3">
-        <v>178400</v>
+        <v>176300</v>
       </c>
       <c r="F47" s="3">
-        <v>213600</v>
+        <v>211200</v>
       </c>
       <c r="G47" s="3">
-        <v>112400</v>
+        <v>111200</v>
       </c>
       <c r="H47" s="3">
-        <v>168600</v>
+        <v>166700</v>
       </c>
       <c r="I47" s="3">
-        <v>247600</v>
+        <v>244800</v>
       </c>
       <c r="J47" s="3">
-        <v>227500</v>
+        <v>224900</v>
       </c>
       <c r="K47" s="3">
         <v>199300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>162800</v>
+        <v>160900</v>
       </c>
       <c r="E48" s="3">
-        <v>145300</v>
+        <v>143600</v>
       </c>
       <c r="F48" s="3">
-        <v>65900</v>
+        <v>65100</v>
       </c>
       <c r="G48" s="3">
-        <v>67900</v>
+        <v>67200</v>
       </c>
       <c r="H48" s="3">
-        <v>61600</v>
+        <v>60900</v>
       </c>
       <c r="I48" s="3">
-        <v>62100</v>
+        <v>61400</v>
       </c>
       <c r="J48" s="3">
-        <v>124300</v>
+        <v>122900</v>
       </c>
       <c r="K48" s="3">
         <v>100100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2332200</v>
+        <v>2305600</v>
       </c>
       <c r="E49" s="3">
-        <v>2295400</v>
+        <v>2269200</v>
       </c>
       <c r="F49" s="3">
-        <v>2356700</v>
+        <v>2329800</v>
       </c>
       <c r="G49" s="3">
-        <v>2323100</v>
+        <v>2296600</v>
       </c>
       <c r="H49" s="3">
-        <v>2718300</v>
+        <v>2687300</v>
       </c>
       <c r="I49" s="3">
-        <v>1114900</v>
+        <v>1102200</v>
       </c>
       <c r="J49" s="3">
-        <v>1952700</v>
+        <v>1930400</v>
       </c>
       <c r="K49" s="3">
         <v>1692900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>273500</v>
+        <v>270400</v>
       </c>
       <c r="E52" s="3">
-        <v>216300</v>
+        <v>213800</v>
       </c>
       <c r="F52" s="3">
-        <v>198600</v>
+        <v>196400</v>
       </c>
       <c r="G52" s="3">
-        <v>136000</v>
+        <v>134500</v>
       </c>
       <c r="H52" s="3">
-        <v>117100</v>
+        <v>115800</v>
       </c>
       <c r="I52" s="3">
-        <v>81100</v>
+        <v>80200</v>
       </c>
       <c r="J52" s="3">
-        <v>101300</v>
+        <v>100200</v>
       </c>
       <c r="K52" s="3">
         <v>93500</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4376900</v>
+        <v>4327000</v>
       </c>
       <c r="E54" s="3">
-        <v>4513000</v>
+        <v>4461500</v>
       </c>
       <c r="F54" s="3">
-        <v>4406000</v>
+        <v>4355700</v>
       </c>
       <c r="G54" s="3">
-        <v>4472400</v>
+        <v>4421300</v>
       </c>
       <c r="H54" s="3">
-        <v>3407400</v>
+        <v>3368500</v>
       </c>
       <c r="I54" s="3">
-        <v>2932500</v>
+        <v>2899000</v>
       </c>
       <c r="J54" s="3">
-        <v>2400500</v>
+        <v>2373100</v>
       </c>
       <c r="K54" s="3">
         <v>1814400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="E57" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="F57" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="G57" s="3">
-        <v>36100</v>
+        <v>35700</v>
       </c>
       <c r="H57" s="3">
-        <v>25000</v>
+        <v>24700</v>
       </c>
       <c r="I57" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="J57" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="K57" s="3">
         <v>7800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="E58" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="F58" s="3">
-        <v>23600</v>
+        <v>23400</v>
       </c>
       <c r="G58" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="H58" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="I58" s="3">
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="J58" s="3">
-        <v>68900</v>
+        <v>68100</v>
       </c>
       <c r="K58" s="3">
         <v>63300</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>212700</v>
+        <v>210200</v>
       </c>
       <c r="E59" s="3">
-        <v>174600</v>
+        <v>172600</v>
       </c>
       <c r="F59" s="3">
-        <v>148700</v>
+        <v>147000</v>
       </c>
       <c r="G59" s="3">
-        <v>313000</v>
+        <v>309400</v>
       </c>
       <c r="H59" s="3">
-        <v>274600</v>
+        <v>271500</v>
       </c>
       <c r="I59" s="3">
-        <v>122100</v>
+        <v>120800</v>
       </c>
       <c r="J59" s="3">
-        <v>125800</v>
+        <v>124400</v>
       </c>
       <c r="K59" s="3">
         <v>190700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>287900</v>
+        <v>284600</v>
       </c>
       <c r="E60" s="3">
-        <v>241000</v>
+        <v>238200</v>
       </c>
       <c r="F60" s="3">
-        <v>209900</v>
+        <v>207500</v>
       </c>
       <c r="G60" s="3">
-        <v>362300</v>
+        <v>358200</v>
       </c>
       <c r="H60" s="3">
-        <v>322100</v>
+        <v>318400</v>
       </c>
       <c r="I60" s="3">
-        <v>177700</v>
+        <v>175700</v>
       </c>
       <c r="J60" s="3">
-        <v>163200</v>
+        <v>161300</v>
       </c>
       <c r="K60" s="3">
         <v>187100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>870500</v>
+        <v>860600</v>
       </c>
       <c r="E61" s="3">
-        <v>902700</v>
+        <v>892400</v>
       </c>
       <c r="F61" s="3">
-        <v>929400</v>
+        <v>918800</v>
       </c>
       <c r="G61" s="3">
-        <v>1008700</v>
+        <v>997200</v>
       </c>
       <c r="H61" s="3">
-        <v>389700</v>
+        <v>385300</v>
       </c>
       <c r="I61" s="3">
-        <v>252700</v>
+        <v>249800</v>
       </c>
       <c r="J61" s="3">
-        <v>269300</v>
+        <v>266200</v>
       </c>
       <c r="K61" s="3">
         <v>305800</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66100</v>
+        <v>65300</v>
       </c>
       <c r="E62" s="3">
-        <v>89200</v>
+        <v>88200</v>
       </c>
       <c r="F62" s="3">
-        <v>149300</v>
+        <v>147600</v>
       </c>
       <c r="G62" s="3">
-        <v>137800</v>
+        <v>136200</v>
       </c>
       <c r="H62" s="3">
-        <v>69400</v>
+        <v>68600</v>
       </c>
       <c r="I62" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="J62" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="K62" s="3">
         <v>30900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1669100</v>
+        <v>1650100</v>
       </c>
       <c r="E66" s="3">
-        <v>1685500</v>
+        <v>1666300</v>
       </c>
       <c r="F66" s="3">
-        <v>1719200</v>
+        <v>1699600</v>
       </c>
       <c r="G66" s="3">
-        <v>1927000</v>
+        <v>1905000</v>
       </c>
       <c r="H66" s="3">
-        <v>1062600</v>
+        <v>1050500</v>
       </c>
       <c r="I66" s="3">
-        <v>668500</v>
+        <v>660900</v>
       </c>
       <c r="J66" s="3">
-        <v>581700</v>
+        <v>575000</v>
       </c>
       <c r="K66" s="3">
         <v>524100</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1903700</v>
+        <v>1882000</v>
       </c>
       <c r="E72" s="3">
-        <v>1845700</v>
+        <v>1824700</v>
       </c>
       <c r="F72" s="3">
-        <v>1634000</v>
+        <v>1615300</v>
       </c>
       <c r="G72" s="3">
-        <v>1119400</v>
+        <v>1106600</v>
       </c>
       <c r="H72" s="3">
-        <v>1254000</v>
+        <v>1239700</v>
       </c>
       <c r="I72" s="3">
-        <v>1451200</v>
+        <v>1434600</v>
       </c>
       <c r="J72" s="3">
-        <v>1907700</v>
+        <v>1885900</v>
       </c>
       <c r="K72" s="3">
         <v>1148600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2707800</v>
+        <v>2676900</v>
       </c>
       <c r="E76" s="3">
-        <v>2827500</v>
+        <v>2795200</v>
       </c>
       <c r="F76" s="3">
-        <v>2686800</v>
+        <v>2656200</v>
       </c>
       <c r="G76" s="3">
-        <v>2545400</v>
+        <v>2516300</v>
       </c>
       <c r="H76" s="3">
-        <v>2344800</v>
+        <v>2318000</v>
       </c>
       <c r="I76" s="3">
-        <v>2263900</v>
+        <v>2238100</v>
       </c>
       <c r="J76" s="3">
-        <v>1818800</v>
+        <v>1798100</v>
       </c>
       <c r="K76" s="3">
         <v>1290300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>309900</v>
+        <v>306300</v>
       </c>
       <c r="E81" s="3">
-        <v>329200</v>
+        <v>325400</v>
       </c>
       <c r="F81" s="3">
-        <v>156200</v>
+        <v>154500</v>
       </c>
       <c r="G81" s="3">
-        <v>267900</v>
+        <v>264800</v>
       </c>
       <c r="H81" s="3">
-        <v>306500</v>
+        <v>303000</v>
       </c>
       <c r="I81" s="3">
-        <v>257100</v>
+        <v>254100</v>
       </c>
       <c r="J81" s="3">
-        <v>281000</v>
+        <v>277800</v>
       </c>
       <c r="K81" s="3">
         <v>262000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>71600</v>
+        <v>70800</v>
       </c>
       <c r="E83" s="3">
-        <v>63300</v>
+        <v>62600</v>
       </c>
       <c r="F83" s="3">
-        <v>50700</v>
+        <v>50100</v>
       </c>
       <c r="G83" s="3">
-        <v>40600</v>
+        <v>40100</v>
       </c>
       <c r="H83" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="I83" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="J83" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>549600</v>
+        <v>543300</v>
       </c>
       <c r="E89" s="3">
-        <v>390900</v>
+        <v>386500</v>
       </c>
       <c r="F89" s="3">
-        <v>241300</v>
+        <v>238500</v>
       </c>
       <c r="G89" s="3">
-        <v>-103600</v>
+        <v>-102500</v>
       </c>
       <c r="H89" s="3">
-        <v>450300</v>
+        <v>445200</v>
       </c>
       <c r="I89" s="3">
-        <v>274100</v>
+        <v>271000</v>
       </c>
       <c r="J89" s="3">
-        <v>350900</v>
+        <v>346900</v>
       </c>
       <c r="K89" s="3">
         <v>269000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32900</v>
+        <v>-32500</v>
       </c>
       <c r="E91" s="3">
-        <v>-74500</v>
+        <v>-73700</v>
       </c>
       <c r="F91" s="3">
         <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="H91" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="I91" s="3">
         <v>-3700</v>
       </c>
       <c r="J91" s="3">
-        <v>-32200</v>
+        <v>-31800</v>
       </c>
       <c r="K91" s="3">
         <v>-10700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>63300</v>
+        <v>62500</v>
       </c>
       <c r="E94" s="3">
-        <v>70900</v>
+        <v>70100</v>
       </c>
       <c r="F94" s="3">
-        <v>189000</v>
+        <v>186900</v>
       </c>
       <c r="G94" s="3">
-        <v>-60600</v>
+        <v>-59900</v>
       </c>
       <c r="H94" s="3">
-        <v>-297700</v>
+        <v>-294300</v>
       </c>
       <c r="I94" s="3">
-        <v>-508700</v>
+        <v>-502900</v>
       </c>
       <c r="J94" s="3">
-        <v>-447800</v>
+        <v>-442700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176200</v>
+        <v>-174200</v>
       </c>
       <c r="E96" s="3">
-        <v>-117500</v>
+        <v>-116100</v>
       </c>
       <c r="F96" s="3">
-        <v>-117500</v>
+        <v>-116100</v>
       </c>
       <c r="G96" s="3">
-        <v>-117500</v>
+        <v>-116100</v>
       </c>
       <c r="H96" s="3">
-        <v>-117500</v>
+        <v>-116100</v>
       </c>
       <c r="I96" s="3">
-        <v>-47000</v>
+        <v>-46400</v>
       </c>
       <c r="J96" s="3">
-        <v>-23500</v>
+        <v>-23200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-718600</v>
+        <v>-710500</v>
       </c>
       <c r="E100" s="3">
-        <v>-394200</v>
+        <v>-389700</v>
       </c>
       <c r="F100" s="3">
-        <v>-314700</v>
+        <v>-311100</v>
       </c>
       <c r="G100" s="3">
-        <v>206200</v>
+        <v>203800</v>
       </c>
       <c r="H100" s="3">
-        <v>-172800</v>
+        <v>-170900</v>
       </c>
       <c r="I100" s="3">
-        <v>222600</v>
+        <v>220100</v>
       </c>
       <c r="J100" s="3">
-        <v>151700</v>
+        <v>150000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4210,22 +4210,22 @@
         <v>8</v>
       </c>
       <c r="E101" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="F101" s="3">
-        <v>-77600</v>
+        <v>-76800</v>
       </c>
       <c r="G101" s="3">
-        <v>-26600</v>
+        <v>-26300</v>
       </c>
       <c r="H101" s="3">
         <v>6400</v>
       </c>
       <c r="I101" s="3">
-        <v>398500</v>
+        <v>394000</v>
       </c>
       <c r="J101" s="3">
-        <v>235700</v>
+        <v>233000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-105800</v>
+        <v>-104600</v>
       </c>
       <c r="E102" s="3">
-        <v>89600</v>
+        <v>88600</v>
       </c>
       <c r="F102" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="G102" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H102" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="I102" s="3">
-        <v>386600</v>
+        <v>382200</v>
       </c>
       <c r="J102" s="3">
-        <v>290500</v>
+        <v>287200</v>
       </c>
       <c r="K102" s="3">
         <v>13400</v>
